--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="66">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -1122,7 +1122,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1133,10 +1133,10 @@
   <dimension ref="A1:AL58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1496,8 +1496,12 @@
       <c r="I5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -1528,7 +1532,7 @@
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL5" s="38">
         <f t="shared" ref="AL5:AL18" si="2">COUNTIF(E5:AI5,"бв")</f>
@@ -1563,8 +1567,12 @@
       <c r="I6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -1595,7 +1603,7 @@
       </c>
       <c r="AK6" s="40">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL6" s="41">
         <f t="shared" si="2"/>
@@ -1749,8 +1757,12 @@
       <c r="I8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -1781,7 +1793,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -1816,8 +1828,12 @@
       <c r="I9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1848,7 +1864,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2121,8 +2137,12 @@
       <c r="I12" s="6">
         <v>1</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -2149,7 +2169,7 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2188,8 +2208,12 @@
       <c r="I13" s="6">
         <v>1</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2224,7 +2248,7 @@
       </c>
       <c r="AL13" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -2255,8 +2279,12 @@
       <c r="I14" s="6">
         <v>1</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -2283,7 +2311,7 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2322,8 +2350,12 @@
       <c r="I15" s="6">
         <v>1</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="J15" s="6">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -2350,7 +2382,7 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2389,8 +2421,12 @@
       <c r="I16" s="6">
         <v>1</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -2417,7 +2453,7 @@
       <c r="AI16" s="9"/>
       <c r="AJ16" s="36">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
@@ -2456,8 +2492,12 @@
       <c r="I17" s="6">
         <v>1</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -2484,7 +2524,7 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -2523,8 +2563,12 @@
       <c r="I18" s="6">
         <v>1</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -2551,7 +2595,7 @@
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -2590,8 +2634,12 @@
       <c r="I19" s="6">
         <v>1</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -2618,7 +2666,7 @@
       <c r="AI19" s="9"/>
       <c r="AJ19" s="36">
         <f t="shared" ref="AJ19:AJ34" si="3">COUNTIF(E19:AI19,1)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
@@ -2657,8 +2705,12 @@
       <c r="I20" s="6">
         <v>1</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -2685,7 +2737,7 @@
       <c r="AI20" s="9"/>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
@@ -2724,8 +2776,12 @@
       <c r="I21" s="6">
         <v>1</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -2752,7 +2808,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -2791,8 +2847,12 @@
       <c r="I22" s="6">
         <v>1</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="J22" s="6">
+        <v>1</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1</v>
+      </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -2819,7 +2879,7 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -2858,8 +2918,12 @@
       <c r="I23" s="7">
         <v>1</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="J23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="7">
+        <v>1</v>
+      </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -2886,7 +2950,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="45">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
@@ -2894,7 +2958,7 @@
       </c>
       <c r="AL23" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:38">
@@ -2925,8 +2989,12 @@
       <c r="I24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="J24" s="6">
+        <v>1</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1</v>
+      </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -2953,7 +3021,7 @@
       <c r="AI24" s="9"/>
       <c r="AJ24" s="42">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
@@ -2992,8 +3060,12 @@
       <c r="I25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="J25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -3024,7 +3096,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3059,8 +3131,12 @@
       <c r="I26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="J26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -3091,7 +3167,7 @@
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL26" s="38">
         <f t="shared" si="5"/>
@@ -3126,8 +3202,12 @@
       <c r="I27" s="6">
         <v>1</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="J27" s="6">
+        <v>1</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1</v>
+      </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -3154,7 +3234,7 @@
       <c r="AI27" s="9"/>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -3193,8 +3273,12 @@
       <c r="I28" s="6">
         <v>1</v>
       </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="J28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -3229,7 +3313,7 @@
       </c>
       <c r="AL28" s="38">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:38">
@@ -3260,8 +3344,12 @@
       <c r="I29" s="6">
         <v>1</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="J29" s="6">
+        <v>1</v>
+      </c>
+      <c r="K29" s="6">
+        <v>1</v>
+      </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -3288,7 +3376,7 @@
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -3327,8 +3415,12 @@
       <c r="I30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="J30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -3359,7 +3451,7 @@
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL30" s="47">
         <f t="shared" si="5"/>
@@ -3513,8 +3605,12 @@
       <c r="I32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="J32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -3545,7 +3641,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -4175,8 +4271,12 @@
       <c r="I38" s="6">
         <v>1</v>
       </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="J38" s="6">
+        <v>1</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
@@ -4203,11 +4303,11 @@
       <c r="AI38" s="9"/>
       <c r="AJ38" s="42">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="44">
         <f t="shared" si="8"/>
@@ -4361,8 +4461,12 @@
       <c r="I40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
+      <c r="J40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
@@ -4393,7 +4497,7 @@
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL40" s="47">
         <f t="shared" si="8"/>
@@ -4428,8 +4532,12 @@
       <c r="I41" s="6">
         <v>1</v>
       </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="J41" s="6">
+        <v>1</v>
+      </c>
+      <c r="K41" s="6">
+        <v>1</v>
+      </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -4456,7 +4564,7 @@
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -4495,8 +4603,12 @@
       <c r="I42" s="6">
         <v>1</v>
       </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="J42" s="6">
+        <v>1</v>
+      </c>
+      <c r="K42" s="6">
+        <v>1</v>
+      </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -4523,7 +4635,7 @@
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -4562,8 +4674,12 @@
       <c r="I43" s="6">
         <v>1</v>
       </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="J43" s="6">
+        <v>1</v>
+      </c>
+      <c r="K43" s="6">
+        <v>1</v>
+      </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -4590,7 +4706,7 @@
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -4629,8 +4745,12 @@
       <c r="I44" s="6">
         <v>1</v>
       </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="J44" s="6">
+        <v>1</v>
+      </c>
+      <c r="K44" s="6">
+        <v>1</v>
+      </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -4657,7 +4777,7 @@
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -4696,8 +4816,12 @@
       <c r="I45" s="6">
         <v>1</v>
       </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+      <c r="J45" s="6">
+        <v>1</v>
+      </c>
+      <c r="K45" s="6">
+        <v>1</v>
+      </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
@@ -4724,7 +4848,7 @@
       <c r="AI45" s="9"/>
       <c r="AJ45" s="36">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
@@ -4763,8 +4887,12 @@
       <c r="I46" s="6">
         <v>1</v>
       </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="J46" s="6">
+        <v>1</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1</v>
+      </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
@@ -4791,7 +4919,7 @@
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -4830,8 +4958,12 @@
       <c r="I47" s="7">
         <v>1</v>
       </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+      <c r="J47" s="7">
+        <v>1</v>
+      </c>
+      <c r="K47" s="7">
+        <v>1</v>
+      </c>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
@@ -4858,7 +4990,7 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -4897,8 +5029,12 @@
       <c r="I48" s="6">
         <v>1</v>
       </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="J48" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" s="6">
+        <v>1</v>
+      </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
@@ -4925,7 +5061,7 @@
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -4933,7 +5069,7 @@
       </c>
       <c r="AL48" s="44">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:38" ht="16.5" thickBot="1">
@@ -4964,8 +5100,12 @@
       <c r="I49" s="7">
         <v>1</v>
       </c>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
+      <c r="J49" s="7">
+        <v>1</v>
+      </c>
+      <c r="K49" s="7">
+        <v>1</v>
+      </c>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
@@ -4992,7 +5132,7 @@
       <c r="AI49" s="10"/>
       <c r="AJ49" s="45">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK49" s="46">
         <f t="shared" si="7"/>
@@ -5359,8 +5499,12 @@
       <c r="I56" s="6">
         <v>1</v>
       </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
+      <c r="J56" s="6">
+        <v>1</v>
+      </c>
+      <c r="K56" s="6">
+        <v>1</v>
+      </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
@@ -5387,7 +5531,7 @@
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -5426,8 +5570,12 @@
       <c r="I57" s="7">
         <v>1</v>
       </c>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
+      <c r="J57" s="7">
+        <v>1</v>
+      </c>
+      <c r="K57" s="7">
+        <v>1</v>
+      </c>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
@@ -5454,7 +5602,7 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="66">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -1122,7 +1122,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1136,7 +1136,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K50" sqref="K50"/>
+      <selection pane="bottomRight" activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1502,7 +1502,9 @@
       <c r="K5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -1532,7 +1534,7 @@
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL5" s="38">
         <f t="shared" ref="AL5:AL18" si="2">COUNTIF(E5:AI5,"бв")</f>
@@ -1573,7 +1575,9 @@
       <c r="K6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -1603,7 +1607,7 @@
       </c>
       <c r="AK6" s="40">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL6" s="41">
         <f t="shared" si="2"/>
@@ -1763,7 +1767,9 @@
       <c r="K8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1793,7 +1799,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -1834,7 +1840,9 @@
       <c r="K9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -1864,7 +1872,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2143,7 +2151,9 @@
       <c r="K12" s="6">
         <v>1</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -2177,7 +2187,7 @@
       </c>
       <c r="AL12" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -2214,7 +2224,9 @@
       <c r="K13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6">
+        <v>1</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -2240,7 +2252,7 @@
       <c r="AI13" s="9"/>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2285,7 +2297,9 @@
       <c r="K14" s="6">
         <v>1</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -2311,7 +2325,7 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2356,7 +2370,9 @@
       <c r="K15" s="6">
         <v>1</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6">
+        <v>1</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -2382,7 +2398,7 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2427,7 +2443,9 @@
       <c r="K16" s="6">
         <v>1</v>
       </c>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6">
+        <v>1</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -2453,7 +2471,7 @@
       <c r="AI16" s="9"/>
       <c r="AJ16" s="36">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
@@ -2498,7 +2516,9 @@
       <c r="K17" s="6">
         <v>1</v>
       </c>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -2524,7 +2544,7 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -2569,7 +2589,9 @@
       <c r="K18" s="6">
         <v>1</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6">
+        <v>1</v>
+      </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -2595,7 +2617,7 @@
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -2640,7 +2662,9 @@
       <c r="K19" s="6">
         <v>1</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -2666,7 +2690,7 @@
       <c r="AI19" s="9"/>
       <c r="AJ19" s="36">
         <f t="shared" ref="AJ19:AJ34" si="3">COUNTIF(E19:AI19,1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
@@ -2711,7 +2735,9 @@
       <c r="K20" s="6">
         <v>1</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6">
+        <v>1</v>
+      </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -2737,7 +2763,7 @@
       <c r="AI20" s="9"/>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
@@ -2782,7 +2808,9 @@
       <c r="K21" s="6">
         <v>1</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="6">
+        <v>1</v>
+      </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -2808,7 +2836,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -2853,7 +2881,9 @@
       <c r="K22" s="6">
         <v>1</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6">
+        <v>1</v>
+      </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -2879,7 +2909,7 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -2924,7 +2954,9 @@
       <c r="K23" s="7">
         <v>1</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="7">
+        <v>1</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2950,7 +2982,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="45">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
@@ -2995,7 +3027,9 @@
       <c r="K24" s="6">
         <v>1</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="6">
+        <v>1</v>
+      </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
@@ -3021,7 +3055,7 @@
       <c r="AI24" s="9"/>
       <c r="AJ24" s="42">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
@@ -3066,7 +3100,9 @@
       <c r="K25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -3096,7 +3132,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3137,7 +3173,9 @@
       <c r="K26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L26" s="6"/>
+      <c r="L26" s="6">
+        <v>1</v>
+      </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
@@ -3163,7 +3201,7 @@
       <c r="AI26" s="9"/>
       <c r="AJ26" s="36">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
@@ -3208,7 +3246,9 @@
       <c r="K27" s="6">
         <v>1</v>
       </c>
-      <c r="L27" s="6"/>
+      <c r="L27" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
@@ -3242,7 +3282,7 @@
       </c>
       <c r="AL27" s="38">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:38">
@@ -3279,7 +3319,9 @@
       <c r="K28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L28" s="6"/>
+      <c r="L28" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -3313,7 +3355,7 @@
       </c>
       <c r="AL28" s="38">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:38">
@@ -3350,7 +3392,9 @@
       <c r="K29" s="6">
         <v>1</v>
       </c>
-      <c r="L29" s="6"/>
+      <c r="L29" s="6">
+        <v>1</v>
+      </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
@@ -3376,7 +3420,7 @@
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -3421,7 +3465,9 @@
       <c r="K30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L30" s="7"/>
+      <c r="L30" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -3451,7 +3497,7 @@
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL30" s="47">
         <f t="shared" si="5"/>
@@ -3611,7 +3657,9 @@
       <c r="K32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L32" s="6"/>
+      <c r="L32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
@@ -3641,7 +3689,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -4275,9 +4323,11 @@
         <v>1</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L38" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="L38" s="6">
+        <v>1</v>
+      </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
@@ -4303,15 +4353,15 @@
       <c r="AI38" s="9"/>
       <c r="AJ38" s="42">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="44">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:38">
@@ -4467,7 +4517,9 @@
       <c r="K40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L40" s="7"/>
+      <c r="L40" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
@@ -4497,7 +4549,7 @@
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL40" s="47">
         <f t="shared" si="8"/>
@@ -4538,7 +4590,9 @@
       <c r="K41" s="6">
         <v>1</v>
       </c>
-      <c r="L41" s="6"/>
+      <c r="L41" s="6">
+        <v>1</v>
+      </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
@@ -4564,7 +4618,7 @@
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -4609,7 +4663,9 @@
       <c r="K42" s="6">
         <v>1</v>
       </c>
-      <c r="L42" s="6"/>
+      <c r="L42" s="6">
+        <v>1</v>
+      </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
@@ -4635,7 +4691,7 @@
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -4680,7 +4736,9 @@
       <c r="K43" s="6">
         <v>1</v>
       </c>
-      <c r="L43" s="6"/>
+      <c r="L43" s="6">
+        <v>1</v>
+      </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
@@ -4706,7 +4764,7 @@
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -4751,7 +4809,9 @@
       <c r="K44" s="6">
         <v>1</v>
       </c>
-      <c r="L44" s="6"/>
+      <c r="L44" s="6">
+        <v>1</v>
+      </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
@@ -4777,7 +4837,7 @@
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -4822,7 +4882,9 @@
       <c r="K45" s="6">
         <v>1</v>
       </c>
-      <c r="L45" s="6"/>
+      <c r="L45" s="6">
+        <v>1</v>
+      </c>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
@@ -4848,7 +4910,7 @@
       <c r="AI45" s="9"/>
       <c r="AJ45" s="36">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
@@ -4893,7 +4955,9 @@
       <c r="K46" s="6">
         <v>1</v>
       </c>
-      <c r="L46" s="6"/>
+      <c r="L46" s="6">
+        <v>1</v>
+      </c>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
@@ -4919,7 +4983,7 @@
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -4964,7 +5028,9 @@
       <c r="K47" s="7">
         <v>1</v>
       </c>
-      <c r="L47" s="7"/>
+      <c r="L47" s="7">
+        <v>1</v>
+      </c>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
@@ -4990,7 +5056,7 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -5035,7 +5101,9 @@
       <c r="K48" s="6">
         <v>1</v>
       </c>
-      <c r="L48" s="6"/>
+      <c r="L48" s="6">
+        <v>1</v>
+      </c>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
@@ -5061,7 +5129,7 @@
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -5106,7 +5174,9 @@
       <c r="K49" s="7">
         <v>1</v>
       </c>
-      <c r="L49" s="7"/>
+      <c r="L49" s="7">
+        <v>1</v>
+      </c>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
@@ -5132,7 +5202,7 @@
       <c r="AI49" s="10"/>
       <c r="AJ49" s="45">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK49" s="46">
         <f t="shared" si="7"/>
@@ -5505,7 +5575,9 @@
       <c r="K56" s="6">
         <v>1</v>
       </c>
-      <c r="L56" s="6"/>
+      <c r="L56" s="6">
+        <v>1</v>
+      </c>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
@@ -5531,7 +5603,7 @@
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -5576,7 +5648,9 @@
       <c r="K57" s="7">
         <v>1</v>
       </c>
-      <c r="L57" s="7"/>
+      <c r="L57" s="7">
+        <v>1</v>
+      </c>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
@@ -5602,7 +5676,7 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="66">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -1122,7 +1122,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1136,7 +1136,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L50" sqref="L50"/>
+      <selection pane="bottomRight" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1505,7 +1505,9 @@
       <c r="L5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="6"/>
+      <c r="M5" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -1534,7 +1536,7 @@
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL5" s="38">
         <f t="shared" ref="AL5:AL18" si="2">COUNTIF(E5:AI5,"бв")</f>
@@ -1578,7 +1580,9 @@
       <c r="L6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1607,7 +1611,7 @@
       </c>
       <c r="AK6" s="40">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL6" s="41">
         <f t="shared" si="2"/>
@@ -1770,7 +1774,9 @@
       <c r="L8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -1799,7 +1805,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -1843,7 +1849,9 @@
       <c r="L9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -1872,7 +1880,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2154,7 +2162,9 @@
       <c r="L12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M12" s="6"/>
+      <c r="M12" s="6">
+        <v>1</v>
+      </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -2179,7 +2189,7 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2227,7 +2237,9 @@
       <c r="L13" s="6">
         <v>1</v>
       </c>
-      <c r="M13" s="6"/>
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -2252,7 +2264,7 @@
       <c r="AI13" s="9"/>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2300,7 +2312,9 @@
       <c r="L14" s="6">
         <v>1</v>
       </c>
-      <c r="M14" s="6"/>
+      <c r="M14" s="6">
+        <v>1</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -2325,7 +2339,7 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2373,7 +2387,9 @@
       <c r="L15" s="6">
         <v>1</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -2398,7 +2414,7 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2446,7 +2462,9 @@
       <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="M16" s="6"/>
+      <c r="M16" s="6">
+        <v>1</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
@@ -2471,7 +2489,7 @@
       <c r="AI16" s="9"/>
       <c r="AJ16" s="36">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
@@ -2519,7 +2537,9 @@
       <c r="L17" s="6">
         <v>1</v>
       </c>
-      <c r="M17" s="6"/>
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -2544,7 +2564,7 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -2592,7 +2612,9 @@
       <c r="L18" s="6">
         <v>1</v>
       </c>
-      <c r="M18" s="6"/>
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -2617,7 +2639,7 @@
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -2665,7 +2687,9 @@
       <c r="L19" s="6">
         <v>1</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -2690,7 +2714,7 @@
       <c r="AI19" s="9"/>
       <c r="AJ19" s="36">
         <f t="shared" ref="AJ19:AJ34" si="3">COUNTIF(E19:AI19,1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
@@ -2738,7 +2762,9 @@
       <c r="L20" s="6">
         <v>1</v>
       </c>
-      <c r="M20" s="6"/>
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -2763,7 +2789,7 @@
       <c r="AI20" s="9"/>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
@@ -2811,7 +2837,9 @@
       <c r="L21" s="6">
         <v>1</v>
       </c>
-      <c r="M21" s="6"/>
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -2836,7 +2864,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -2884,7 +2912,9 @@
       <c r="L22" s="6">
         <v>1</v>
       </c>
-      <c r="M22" s="6"/>
+      <c r="M22" s="6">
+        <v>1</v>
+      </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -2909,7 +2939,7 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -2957,7 +2987,9 @@
       <c r="L23" s="7">
         <v>1</v>
       </c>
-      <c r="M23" s="7"/>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -2982,7 +3014,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="45">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
@@ -3030,7 +3062,9 @@
       <c r="L24" s="6">
         <v>1</v>
       </c>
-      <c r="M24" s="6"/>
+      <c r="M24" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -3059,7 +3093,7 @@
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL24" s="44">
         <f t="shared" si="5"/>
@@ -3103,7 +3137,9 @@
       <c r="L25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M25" s="6"/>
+      <c r="M25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -3132,7 +3168,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3176,7 +3212,9 @@
       <c r="L26" s="6">
         <v>1</v>
       </c>
-      <c r="M26" s="6"/>
+      <c r="M26" s="6">
+        <v>1</v>
+      </c>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -3201,7 +3239,7 @@
       <c r="AI26" s="9"/>
       <c r="AJ26" s="36">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
@@ -3249,7 +3287,9 @@
       <c r="L27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M27" s="6"/>
+      <c r="M27" s="6">
+        <v>1</v>
+      </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -3274,7 +3314,7 @@
       <c r="AI27" s="9"/>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -3322,7 +3362,9 @@
       <c r="L28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M28" s="6"/>
+      <c r="M28" s="6">
+        <v>1</v>
+      </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -3347,7 +3389,7 @@
       <c r="AI28" s="9"/>
       <c r="AJ28" s="36">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK28" s="37">
         <f t="shared" si="4"/>
@@ -3395,7 +3437,9 @@
       <c r="L29" s="6">
         <v>1</v>
       </c>
-      <c r="M29" s="6"/>
+      <c r="M29" s="6">
+        <v>1</v>
+      </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -3420,7 +3464,7 @@
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -3468,7 +3512,9 @@
       <c r="L30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M30" s="7"/>
+      <c r="M30" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -3497,7 +3543,7 @@
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL30" s="47">
         <f t="shared" si="5"/>
@@ -3660,7 +3706,9 @@
       <c r="L32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M32" s="6"/>
+      <c r="M32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -3689,7 +3737,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -4328,7 +4376,9 @@
       <c r="L38" s="6">
         <v>1</v>
       </c>
-      <c r="M38" s="6"/>
+      <c r="M38" s="6">
+        <v>1</v>
+      </c>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -4353,7 +4403,7 @@
       <c r="AI38" s="9"/>
       <c r="AJ38" s="42">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
@@ -4520,7 +4570,9 @@
       <c r="L40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M40" s="7"/>
+      <c r="M40" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
@@ -4549,7 +4601,7 @@
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL40" s="47">
         <f t="shared" si="8"/>
@@ -4593,7 +4645,9 @@
       <c r="L41" s="6">
         <v>1</v>
       </c>
-      <c r="M41" s="6"/>
+      <c r="M41" s="6">
+        <v>1</v>
+      </c>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -4618,7 +4672,7 @@
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -4666,7 +4720,9 @@
       <c r="L42" s="6">
         <v>1</v>
       </c>
-      <c r="M42" s="6"/>
+      <c r="M42" s="6">
+        <v>1</v>
+      </c>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
@@ -4691,7 +4747,7 @@
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -4739,7 +4795,9 @@
       <c r="L43" s="6">
         <v>1</v>
       </c>
-      <c r="M43" s="6"/>
+      <c r="M43" s="6">
+        <v>1</v>
+      </c>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -4764,7 +4822,7 @@
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -4812,7 +4870,9 @@
       <c r="L44" s="6">
         <v>1</v>
       </c>
-      <c r="M44" s="6"/>
+      <c r="M44" s="6">
+        <v>1</v>
+      </c>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -4837,7 +4897,7 @@
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -4885,7 +4945,9 @@
       <c r="L45" s="6">
         <v>1</v>
       </c>
-      <c r="M45" s="6"/>
+      <c r="M45" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -4914,7 +4976,7 @@
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL45" s="38">
         <f t="shared" si="8"/>
@@ -4958,7 +5020,9 @@
       <c r="L46" s="6">
         <v>1</v>
       </c>
-      <c r="M46" s="6"/>
+      <c r="M46" s="6">
+        <v>1</v>
+      </c>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
@@ -4983,7 +5047,7 @@
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -5031,7 +5095,9 @@
       <c r="L47" s="7">
         <v>1</v>
       </c>
-      <c r="M47" s="7"/>
+      <c r="M47" s="7">
+        <v>1</v>
+      </c>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
@@ -5056,7 +5122,7 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -5104,7 +5170,9 @@
       <c r="L48" s="6">
         <v>1</v>
       </c>
-      <c r="M48" s="6"/>
+      <c r="M48" s="6">
+        <v>1</v>
+      </c>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
@@ -5129,7 +5197,7 @@
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -5177,7 +5245,9 @@
       <c r="L49" s="7">
         <v>1</v>
       </c>
-      <c r="M49" s="7"/>
+      <c r="M49" s="7">
+        <v>1</v>
+      </c>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
@@ -5202,7 +5272,7 @@
       <c r="AI49" s="10"/>
       <c r="AJ49" s="45">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK49" s="46">
         <f t="shared" si="7"/>
@@ -5578,7 +5648,9 @@
       <c r="L56" s="6">
         <v>1</v>
       </c>
-      <c r="M56" s="6"/>
+      <c r="M56" s="6">
+        <v>1</v>
+      </c>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
@@ -5603,7 +5675,7 @@
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -5651,7 +5723,9 @@
       <c r="L57" s="7">
         <v>1</v>
       </c>
-      <c r="M57" s="7"/>
+      <c r="M57" s="7">
+        <v>1</v>
+      </c>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
@@ -5676,7 +5750,7 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -10,9 +10,9 @@
     <sheet name="Октябрь 2018" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Октябрь 2018'!$E$2:$AI$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Октябрь 2018'!$E$2:$AM$49</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterate="1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>тр</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1125,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1130,13 +1133,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL58"/>
+  <dimension ref="A1:AM58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M50" sqref="M50"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2500,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:39">
       <c r="A17" s="25">
         <v>14</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:39">
       <c r="A18" s="25">
         <v>15</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:39">
       <c r="A19" s="25">
         <v>16</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:39">
       <c r="A20" s="25">
         <v>17</v>
       </c>
@@ -2800,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:39">
       <c r="A21" s="25">
         <v>18</v>
       </c>
@@ -2875,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:39">
       <c r="A22" s="25">
         <v>19</v>
       </c>
@@ -2950,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="16.5" thickBot="1">
+    <row r="23" spans="1:39" ht="16.5" thickBot="1">
       <c r="A23" s="28">
         <v>20</v>
       </c>
@@ -3025,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:39">
       <c r="A24" s="22">
         <v>21</v>
       </c>
@@ -3099,8 +3102,11 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
+      <c r="AM24" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:39">
       <c r="A25" s="25">
         <v>22</v>
       </c>
@@ -3174,8 +3180,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AM25" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:39">
       <c r="A26" s="25">
         <v>23</v>
       </c>
@@ -3249,8 +3258,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AM26" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:39">
       <c r="A27" s="25">
         <v>24</v>
       </c>
@@ -3324,8 +3336,11 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="AM27" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:39">
       <c r="A28" s="25">
         <v>25</v>
       </c>
@@ -3399,8 +3414,11 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
+      <c r="AM28" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:39">
       <c r="A29" s="25">
         <v>26</v>
       </c>
@@ -3474,8 +3492,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AM29" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" ht="16.5" thickBot="1">
+    <row r="30" spans="1:39" ht="16.5" thickBot="1">
       <c r="A30" s="28">
         <v>27</v>
       </c>
@@ -3549,8 +3570,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AM30" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:39">
       <c r="A31" s="22">
         <v>28</v>
       </c>
@@ -3669,7 +3693,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:39">
       <c r="A32" s="25">
         <v>29</v>
       </c>
@@ -3744,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="16.5" thickBot="1">
+    <row r="33" spans="1:39" ht="16.5" thickBot="1">
       <c r="A33" s="28">
         <v>30</v>
       </c>
@@ -3862,8 +3886,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AM33" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:39">
       <c r="A34" s="22">
         <v>31</v>
       </c>
@@ -3982,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="16.5" thickBot="1">
+    <row r="35" spans="1:39" ht="16.5" thickBot="1">
       <c r="A35" s="28">
         <v>32</v>
       </c>
@@ -4101,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:39">
       <c r="A36" s="22">
         <v>33</v>
       </c>
@@ -4219,8 +4246,11 @@
         <f t="shared" ref="AL36:AL49" si="8">COUNTIF(E36:AI36,"бв")</f>
         <v>0</v>
       </c>
+      <c r="AM36" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="37" spans="1:38" ht="16.5" thickBot="1">
+    <row r="37" spans="1:39" ht="16.5" thickBot="1">
       <c r="A37" s="28">
         <v>34</v>
       </c>
@@ -4339,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:39">
       <c r="A38" s="22">
         <v>35</v>
       </c>
@@ -4413,8 +4443,11 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="AM38" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:39">
       <c r="A39" s="25">
         <v>36</v>
       </c>
@@ -4532,8 +4565,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AM39" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="40" spans="1:38" ht="16.5" thickBot="1">
+    <row r="40" spans="1:39" ht="16.5" thickBot="1">
       <c r="A40" s="28">
         <v>37</v>
       </c>
@@ -4607,8 +4643,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AM40" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:39">
       <c r="A41" s="22">
         <v>38</v>
       </c>
@@ -4682,8 +4721,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AM41" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:39">
       <c r="A42" s="25">
         <v>39</v>
       </c>
@@ -4757,8 +4799,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AM42" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:39">
       <c r="A43" s="25">
         <v>40</v>
       </c>
@@ -4832,8 +4877,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AM43" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:39">
       <c r="A44" s="25">
         <v>41</v>
       </c>
@@ -4907,8 +4955,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AM44" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:39">
       <c r="A45" s="25">
         <v>42</v>
       </c>
@@ -4983,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:39">
       <c r="A46" s="25">
         <v>43</v>
       </c>
@@ -5058,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="16.5" thickBot="1">
+    <row r="47" spans="1:39" ht="16.5" thickBot="1">
       <c r="A47" s="28">
         <v>44</v>
       </c>
@@ -5133,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:39">
       <c r="A48" s="22">
         <v>45</v>
       </c>
@@ -5208,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="16.5" thickBot="1">
+    <row r="49" spans="1:39" ht="16.5" thickBot="1">
       <c r="A49" s="28">
         <v>46</v>
       </c>
@@ -5283,17 +5334,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:39">
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:39">
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:39">
       <c r="A52" s="54" t="str">
         <f ca="1">"Табель работы автобусов за " &amp; RIGHT(CELL("имяфайла"),LEN(CELL("имяфайла"))-SEARCH("]",CELL("имяфайла"),1)) &amp; " автоколонны № 2 г. Смолевичи"</f>
         <v>Табель работы автобусов за Октябрь 2018 автоколонны № 2 г. Смолевичи</v>
@@ -5336,7 +5387,7 @@
       <c r="AK52" s="54"/>
       <c r="AL52" s="54"/>
     </row>
-    <row r="53" spans="1:38" ht="16.5" thickBot="1">
+    <row r="53" spans="1:39" ht="16.5" thickBot="1">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -5376,7 +5427,7 @@
       <c r="AK53" s="51"/>
       <c r="AL53" s="51"/>
     </row>
-    <row r="54" spans="1:38" ht="16.5" thickBot="1">
+    <row r="54" spans="1:39" ht="16.5" thickBot="1">
       <c r="A54" s="11" t="s">
         <v>63</v>
       </c>
@@ -5492,7 +5543,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:39">
       <c r="A55" s="22">
         <v>1</v>
       </c>
@@ -5611,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:39">
       <c r="A56" s="25">
         <v>2</v>
       </c>
@@ -5685,8 +5736,11 @@
         <f t="shared" ref="AL56:AL57" si="14">COUNTIF(E56:AI56,"бв")</f>
         <v>0</v>
       </c>
+      <c r="AM56" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="57" spans="1:38" ht="16.5" thickBot="1">
+    <row r="57" spans="1:39" ht="16.5" thickBot="1">
       <c r="A57" s="28">
         <v>3</v>
       </c>
@@ -5761,13 +5815,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:39">
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="E2:AI49"/>
+  <autoFilter ref="E2:AM49"/>
   <mergeCells count="2">
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="A52:AL52"/>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -1125,7 +1125,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1139,7 +1139,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1511,7 +1511,9 @@
       <c r="M5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="6"/>
+      <c r="N5" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -1539,7 +1541,7 @@
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL5" s="38">
         <f t="shared" ref="AL5:AL18" si="2">COUNTIF(E5:AI5,"бв")</f>
@@ -1586,7 +1588,9 @@
       <c r="M6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -1614,7 +1618,7 @@
       </c>
       <c r="AK6" s="40">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL6" s="41">
         <f t="shared" si="2"/>
@@ -1780,7 +1784,9 @@
       <c r="M8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="6"/>
+      <c r="N8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -1808,7 +1814,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -1855,7 +1861,9 @@
       <c r="M9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="6"/>
+      <c r="N9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -1883,7 +1891,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2168,7 +2176,9 @@
       <c r="M12" s="6">
         <v>1</v>
       </c>
-      <c r="N12" s="6"/>
+      <c r="N12" s="6">
+        <v>1</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -2192,7 +2202,7 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2243,7 +2253,9 @@
       <c r="M13" s="6">
         <v>1</v>
       </c>
-      <c r="N13" s="6"/>
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -2267,7 +2279,7 @@
       <c r="AI13" s="9"/>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2318,7 +2330,9 @@
       <c r="M14" s="6">
         <v>1</v>
       </c>
-      <c r="N14" s="6"/>
+      <c r="N14" s="6">
+        <v>1</v>
+      </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -2342,7 +2356,7 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2393,7 +2407,9 @@
       <c r="M15" s="6">
         <v>1</v>
       </c>
-      <c r="N15" s="6"/>
+      <c r="N15" s="6">
+        <v>1</v>
+      </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -2417,7 +2433,7 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2468,7 +2484,9 @@
       <c r="M16" s="6">
         <v>1</v>
       </c>
-      <c r="N16" s="6"/>
+      <c r="N16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -2496,7 +2514,7 @@
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="38">
         <f t="shared" si="2"/>
@@ -2543,7 +2561,9 @@
       <c r="M17" s="6">
         <v>1</v>
       </c>
-      <c r="N17" s="6"/>
+      <c r="N17" s="6">
+        <v>1</v>
+      </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -2567,7 +2587,7 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -2618,7 +2638,9 @@
       <c r="M18" s="6">
         <v>1</v>
       </c>
-      <c r="N18" s="6"/>
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -2642,7 +2664,7 @@
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -2693,7 +2715,9 @@
       <c r="M19" s="6">
         <v>1</v>
       </c>
-      <c r="N19" s="6"/>
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -2717,7 +2741,7 @@
       <c r="AI19" s="9"/>
       <c r="AJ19" s="36">
         <f t="shared" ref="AJ19:AJ34" si="3">COUNTIF(E19:AI19,1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
@@ -2768,7 +2792,9 @@
       <c r="M20" s="6">
         <v>1</v>
       </c>
-      <c r="N20" s="6"/>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -2792,7 +2818,7 @@
       <c r="AI20" s="9"/>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
@@ -2843,7 +2869,9 @@
       <c r="M21" s="6">
         <v>1</v>
       </c>
-      <c r="N21" s="6"/>
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
@@ -2867,7 +2895,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -2918,7 +2946,9 @@
       <c r="M22" s="6">
         <v>1</v>
       </c>
-      <c r="N22" s="6"/>
+      <c r="N22" s="6">
+        <v>1</v>
+      </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
@@ -2942,7 +2972,7 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -2993,7 +3023,9 @@
       <c r="M23" s="7">
         <v>1</v>
       </c>
-      <c r="N23" s="7"/>
+      <c r="N23" s="7">
+        <v>1</v>
+      </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -3017,7 +3049,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="45">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
@@ -3068,7 +3100,9 @@
       <c r="M24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N24" s="6"/>
+      <c r="N24" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
@@ -3096,7 +3130,7 @@
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL24" s="44">
         <f t="shared" si="5"/>
@@ -3146,7 +3180,9 @@
       <c r="M25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N25" s="6"/>
+      <c r="N25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -3174,7 +3210,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3224,7 +3260,9 @@
       <c r="M26" s="6">
         <v>1</v>
       </c>
-      <c r="N26" s="6"/>
+      <c r="N26" s="6">
+        <v>1</v>
+      </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
@@ -3248,7 +3286,7 @@
       <c r="AI26" s="9"/>
       <c r="AJ26" s="36">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
@@ -3302,7 +3340,9 @@
       <c r="M27" s="6">
         <v>1</v>
       </c>
-      <c r="N27" s="6"/>
+      <c r="N27" s="6">
+        <v>1</v>
+      </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
@@ -3326,7 +3366,7 @@
       <c r="AI27" s="9"/>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -3380,7 +3420,9 @@
       <c r="M28" s="6">
         <v>1</v>
       </c>
-      <c r="N28" s="6"/>
+      <c r="N28" s="6">
+        <v>1</v>
+      </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
@@ -3404,7 +3446,7 @@
       <c r="AI28" s="9"/>
       <c r="AJ28" s="36">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK28" s="37">
         <f t="shared" si="4"/>
@@ -3458,7 +3500,9 @@
       <c r="M29" s="6">
         <v>1</v>
       </c>
-      <c r="N29" s="6"/>
+      <c r="N29" s="6">
+        <v>1</v>
+      </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
@@ -3482,7 +3526,7 @@
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -3536,7 +3580,9 @@
       <c r="M30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N30" s="7"/>
+      <c r="N30" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
@@ -3564,7 +3610,7 @@
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL30" s="47">
         <f t="shared" si="5"/>
@@ -3733,7 +3779,9 @@
       <c r="M32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N32" s="6"/>
+      <c r="N32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -3761,7 +3809,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -4409,7 +4457,9 @@
       <c r="M38" s="6">
         <v>1</v>
       </c>
-      <c r="N38" s="6"/>
+      <c r="N38" s="6">
+        <v>1</v>
+      </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
@@ -4433,7 +4483,7 @@
       <c r="AI38" s="9"/>
       <c r="AJ38" s="42">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
@@ -4609,7 +4659,9 @@
       <c r="M40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N40" s="7"/>
+      <c r="N40" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -4637,7 +4689,7 @@
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL40" s="47">
         <f t="shared" si="8"/>
@@ -4687,7 +4739,9 @@
       <c r="M41" s="6">
         <v>1</v>
       </c>
-      <c r="N41" s="6"/>
+      <c r="N41" s="6">
+        <v>1</v>
+      </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
@@ -4711,7 +4765,7 @@
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -4765,7 +4819,9 @@
       <c r="M42" s="6">
         <v>1</v>
       </c>
-      <c r="N42" s="6"/>
+      <c r="N42" s="6">
+        <v>1</v>
+      </c>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
@@ -4789,7 +4845,7 @@
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -4843,7 +4899,9 @@
       <c r="M43" s="6">
         <v>1</v>
       </c>
-      <c r="N43" s="6"/>
+      <c r="N43" s="6">
+        <v>1</v>
+      </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
@@ -4867,7 +4925,7 @@
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -4921,7 +4979,9 @@
       <c r="M44" s="6">
         <v>1</v>
       </c>
-      <c r="N44" s="6"/>
+      <c r="N44" s="6">
+        <v>1</v>
+      </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
@@ -4945,7 +5005,7 @@
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -4999,7 +5059,9 @@
       <c r="M45" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N45" s="6"/>
+      <c r="N45" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
@@ -5027,7 +5089,7 @@
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL45" s="38">
         <f t="shared" si="8"/>
@@ -5074,7 +5136,9 @@
       <c r="M46" s="6">
         <v>1</v>
       </c>
-      <c r="N46" s="6"/>
+      <c r="N46" s="6">
+        <v>1</v>
+      </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
@@ -5098,7 +5162,7 @@
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -5149,7 +5213,9 @@
       <c r="M47" s="7">
         <v>1</v>
       </c>
-      <c r="N47" s="7"/>
+      <c r="N47" s="7">
+        <v>1</v>
+      </c>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
@@ -5173,7 +5239,7 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -5224,7 +5290,9 @@
       <c r="M48" s="6">
         <v>1</v>
       </c>
-      <c r="N48" s="6"/>
+      <c r="N48" s="6">
+        <v>1</v>
+      </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
@@ -5248,7 +5316,7 @@
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -5299,7 +5367,9 @@
       <c r="M49" s="7">
         <v>1</v>
       </c>
-      <c r="N49" s="7"/>
+      <c r="N49" s="7">
+        <v>1</v>
+      </c>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
@@ -5323,7 +5393,7 @@
       <c r="AI49" s="10"/>
       <c r="AJ49" s="45">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK49" s="46">
         <f t="shared" si="7"/>
@@ -5702,7 +5772,9 @@
       <c r="M56" s="6">
         <v>1</v>
       </c>
-      <c r="N56" s="6"/>
+      <c r="N56" s="6">
+        <v>1</v>
+      </c>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
@@ -5726,7 +5798,7 @@
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -5780,7 +5852,9 @@
       <c r="M57" s="7">
         <v>1</v>
       </c>
-      <c r="N57" s="7"/>
+      <c r="N57" s="7">
+        <v>1</v>
+      </c>
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
@@ -5804,7 +5878,7 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -1125,7 +1125,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1133,6 +1133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AM58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1236,7 +1237,7 @@
       <c r="AK2" s="51"/>
       <c r="AL2" s="51"/>
     </row>
-    <row r="3" spans="1:38" s="5" customFormat="1" ht="16.5" thickBot="1">
+    <row r="3" spans="1:38" s="5" customFormat="1" ht="16.5" hidden="1" thickBot="1">
       <c r="A3" s="11" t="s">
         <v>63</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" ht="16.5" hidden="1" thickBot="1">
       <c r="A4" s="22">
         <v>1</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" ht="16.5" hidden="1" thickBot="1">
       <c r="A5" s="25">
         <v>2</v>
       </c>
@@ -1548,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="16.5" thickBot="1">
+    <row r="6" spans="1:38" ht="16.5" hidden="1" thickBot="1">
       <c r="A6" s="28">
         <v>3</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" ht="16.5" hidden="1" thickBot="1">
       <c r="A7" s="22">
         <v>4</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" ht="16.5" hidden="1" thickBot="1">
       <c r="A8" s="25">
         <v>5</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" ht="16.5" hidden="1" thickBot="1">
       <c r="A9" s="25">
         <v>6</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" ht="16.5" hidden="1" thickBot="1">
       <c r="A10" s="25">
         <v>7</v>
       </c>
@@ -2017,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" ht="16.5" hidden="1" thickBot="1">
       <c r="A11" s="25">
         <v>8</v>
       </c>
@@ -2136,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" ht="16.5" hidden="1" thickBot="1">
       <c r="A12" s="25">
         <v>9</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" ht="16.5" hidden="1" thickBot="1">
       <c r="A13" s="25">
         <v>10</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" ht="16.5" hidden="1" thickBot="1">
       <c r="A14" s="25">
         <v>11</v>
       </c>
@@ -2367,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" ht="16.5" hidden="1" thickBot="1">
       <c r="A15" s="25">
         <v>12</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" ht="16.5" hidden="1" thickBot="1">
       <c r="A16" s="25">
         <v>13</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" ht="16.5" hidden="1" thickBot="1">
       <c r="A17" s="25">
         <v>14</v>
       </c>
@@ -2598,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" ht="16.5" hidden="1" thickBot="1">
       <c r="A18" s="25">
         <v>15</v>
       </c>
@@ -2675,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" ht="16.5" hidden="1" thickBot="1">
       <c r="A19" s="25">
         <v>16</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" ht="16.5" hidden="1" thickBot="1">
       <c r="A20" s="25">
         <v>17</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" ht="16.5" hidden="1" thickBot="1">
       <c r="A21" s="25">
         <v>18</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" ht="16.5" hidden="1" thickBot="1">
       <c r="A22" s="25">
         <v>19</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="16.5" thickBot="1">
+    <row r="23" spans="1:39" ht="16.5" hidden="1" thickBot="1">
       <c r="A23" s="28">
         <v>20</v>
       </c>
@@ -3220,7 +3221,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" hidden="1">
       <c r="A26" s="25">
         <v>23</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" hidden="1">
       <c r="A27" s="25">
         <v>24</v>
       </c>
@@ -3380,7 +3381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" hidden="1">
       <c r="A28" s="25">
         <v>25</v>
       </c>
@@ -3460,7 +3461,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" hidden="1">
       <c r="A29" s="25">
         <v>26</v>
       </c>
@@ -3620,7 +3621,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" hidden="1">
       <c r="A31" s="22">
         <v>28</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" hidden="1">
       <c r="A32" s="25">
         <v>29</v>
       </c>
@@ -3938,7 +3939,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" ht="16.5" hidden="1" thickBot="1">
       <c r="A34" s="22">
         <v>31</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="16.5" thickBot="1">
+    <row r="35" spans="1:39" ht="16.5" hidden="1" thickBot="1">
       <c r="A35" s="28">
         <v>32</v>
       </c>
@@ -4298,7 +4299,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="16.5" thickBot="1">
+    <row r="37" spans="1:39" ht="16.5" hidden="1" thickBot="1">
       <c r="A37" s="28">
         <v>34</v>
       </c>
@@ -4417,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" hidden="1">
       <c r="A38" s="22">
         <v>35</v>
       </c>
@@ -4699,7 +4700,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" hidden="1">
       <c r="A41" s="22">
         <v>38</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" hidden="1">
       <c r="A42" s="25">
         <v>39</v>
       </c>
@@ -4859,7 +4860,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" hidden="1">
       <c r="A43" s="25">
         <v>40</v>
       </c>
@@ -4939,7 +4940,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" hidden="1">
       <c r="A44" s="25">
         <v>41</v>
       </c>
@@ -5019,7 +5020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" hidden="1">
       <c r="A45" s="25">
         <v>42</v>
       </c>
@@ -5096,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" hidden="1">
       <c r="A46" s="25">
         <v>43</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="16.5" thickBot="1">
+    <row r="47" spans="1:39" ht="16.5" hidden="1" thickBot="1">
       <c r="A47" s="28">
         <v>44</v>
       </c>
@@ -5250,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" hidden="1">
       <c r="A48" s="22">
         <v>45</v>
       </c>
@@ -5327,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="16.5" thickBot="1">
+    <row r="49" spans="1:39" ht="16.5" hidden="1" thickBot="1">
       <c r="A49" s="28">
         <v>46</v>
       </c>
@@ -5417,7 +5418,7 @@
     <row r="52" spans="1:39">
       <c r="A52" s="54" t="str">
         <f ca="1">"Табель работы автобусов за " &amp; RIGHT(CELL("имяфайла"),LEN(CELL("имяфайла"))-SEARCH("]",CELL("имяфайла"),1)) &amp; " автоколонны № 2 г. Смолевичи"</f>
-        <v>Табель работы автобусов за Октябрь 2018 автоколонны № 2 г. Смолевичи</v>
+        <v>Табель работы автобусов за Лист1 автоколонны № 2 г. Смолевичи</v>
       </c>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -5895,7 +5896,18 @@
       <c r="D58" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="E2:AM49"/>
+  <autoFilter ref="E2:AM49">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="тр"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="34">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="A52:AL52"/>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Октябрь 2018'!$E$2:$AM$49</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterate="1"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -1133,14 +1133,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AM58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N50" sqref="N50"/>
+      <selection pane="bottomRight" activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1237,7 +1236,7 @@
       <c r="AK2" s="51"/>
       <c r="AL2" s="51"/>
     </row>
-    <row r="3" spans="1:38" s="5" customFormat="1" ht="16.5" hidden="1" thickBot="1">
+    <row r="3" spans="1:38" s="5" customFormat="1" ht="16.5" thickBot="1">
       <c r="A3" s="11" t="s">
         <v>63</v>
       </c>
@@ -1353,7 +1352,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="16.5" hidden="1" thickBot="1">
+    <row r="4" spans="1:38">
       <c r="A4" s="22">
         <v>1</v>
       </c>
@@ -1472,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="16.5" hidden="1" thickBot="1">
+    <row r="5" spans="1:38">
       <c r="A5" s="25">
         <v>2</v>
       </c>
@@ -1515,7 +1514,9 @@
       <c r="N5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="6"/>
+      <c r="O5" s="6">
+        <v>1</v>
+      </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -1538,7 +1539,7 @@
       <c r="AI5" s="9"/>
       <c r="AJ5" s="36">
         <f t="shared" ref="AJ5:AJ18" si="0">COUNTIF(E5:AI5,1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
@@ -1549,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="16.5" hidden="1" thickBot="1">
+    <row r="6" spans="1:38" ht="16.5" thickBot="1">
       <c r="A6" s="28">
         <v>3</v>
       </c>
@@ -1592,7 +1593,9 @@
       <c r="N6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="7"/>
+      <c r="O6" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -1623,10 +1626,10 @@
       </c>
       <c r="AL6" s="41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="16.5" hidden="1" thickBot="1">
+    <row r="7" spans="1:38">
       <c r="A7" s="22">
         <v>4</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="16.5" hidden="1" thickBot="1">
+    <row r="8" spans="1:38">
       <c r="A8" s="25">
         <v>5</v>
       </c>
@@ -1788,7 +1791,9 @@
       <c r="N8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="6"/>
+      <c r="O8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -1815,14 +1820,14 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="16.5" hidden="1" thickBot="1">
+    <row r="9" spans="1:38">
       <c r="A9" s="25">
         <v>6</v>
       </c>
@@ -1865,7 +1870,9 @@
       <c r="N9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="6"/>
+      <c r="O9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -1892,14 +1899,14 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="16.5" hidden="1" thickBot="1">
+    <row r="10" spans="1:38">
       <c r="A10" s="25">
         <v>7</v>
       </c>
@@ -2018,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="16.5" hidden="1" thickBot="1">
+    <row r="11" spans="1:38">
       <c r="A11" s="25">
         <v>8</v>
       </c>
@@ -2137,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="16.5" hidden="1" thickBot="1">
+    <row r="12" spans="1:38">
       <c r="A12" s="25">
         <v>9</v>
       </c>
@@ -2180,7 +2187,9 @@
       <c r="N12" s="6">
         <v>1</v>
       </c>
-      <c r="O12" s="6"/>
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -2203,7 +2212,7 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2214,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="16.5" hidden="1" thickBot="1">
+    <row r="13" spans="1:38">
       <c r="A13" s="25">
         <v>10</v>
       </c>
@@ -2257,7 +2266,9 @@
       <c r="N13" s="6">
         <v>1</v>
       </c>
-      <c r="O13" s="6"/>
+      <c r="O13" s="6">
+        <v>1</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
@@ -2280,7 +2291,7 @@
       <c r="AI13" s="9"/>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2291,7 +2302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="16.5" hidden="1" thickBot="1">
+    <row r="14" spans="1:38">
       <c r="A14" s="25">
         <v>11</v>
       </c>
@@ -2334,7 +2345,9 @@
       <c r="N14" s="6">
         <v>1</v>
       </c>
-      <c r="O14" s="6"/>
+      <c r="O14" s="6">
+        <v>1</v>
+      </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
@@ -2357,7 +2370,7 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2368,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="16.5" hidden="1" thickBot="1">
+    <row r="15" spans="1:38">
       <c r="A15" s="25">
         <v>12</v>
       </c>
@@ -2411,7 +2424,9 @@
       <c r="N15" s="6">
         <v>1</v>
       </c>
-      <c r="O15" s="6"/>
+      <c r="O15" s="6">
+        <v>1</v>
+      </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
@@ -2434,7 +2449,7 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2445,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="16.5" hidden="1" thickBot="1">
+    <row r="16" spans="1:38">
       <c r="A16" s="25">
         <v>13</v>
       </c>
@@ -2488,7 +2503,9 @@
       <c r="N16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O16" s="6"/>
+      <c r="O16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
@@ -2515,14 +2532,14 @@
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL16" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="16.5" hidden="1" thickBot="1">
+    <row r="17" spans="1:39">
       <c r="A17" s="25">
         <v>14</v>
       </c>
@@ -2565,7 +2582,9 @@
       <c r="N17" s="6">
         <v>1</v>
       </c>
-      <c r="O17" s="6"/>
+      <c r="O17" s="6">
+        <v>1</v>
+      </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
@@ -2588,7 +2607,7 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -2599,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="16.5" hidden="1" thickBot="1">
+    <row r="18" spans="1:39">
       <c r="A18" s="25">
         <v>15</v>
       </c>
@@ -2642,7 +2661,9 @@
       <c r="N18" s="6">
         <v>1</v>
       </c>
-      <c r="O18" s="6"/>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -2665,7 +2686,7 @@
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -2676,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="16.5" hidden="1" thickBot="1">
+    <row r="19" spans="1:39">
       <c r="A19" s="25">
         <v>16</v>
       </c>
@@ -2719,7 +2740,9 @@
       <c r="N19" s="6">
         <v>1</v>
       </c>
-      <c r="O19" s="6"/>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -2742,7 +2765,7 @@
       <c r="AI19" s="9"/>
       <c r="AJ19" s="36">
         <f t="shared" ref="AJ19:AJ34" si="3">COUNTIF(E19:AI19,1)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
@@ -2753,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="16.5" hidden="1" thickBot="1">
+    <row r="20" spans="1:39">
       <c r="A20" s="25">
         <v>17</v>
       </c>
@@ -2796,7 +2819,9 @@
       <c r="N20" s="6">
         <v>1</v>
       </c>
-      <c r="O20" s="6"/>
+      <c r="O20" s="6">
+        <v>1</v>
+      </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -2819,7 +2844,7 @@
       <c r="AI20" s="9"/>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
@@ -2830,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="16.5" hidden="1" thickBot="1">
+    <row r="21" spans="1:39">
       <c r="A21" s="25">
         <v>18</v>
       </c>
@@ -2873,7 +2898,9 @@
       <c r="N21" s="6">
         <v>1</v>
       </c>
-      <c r="O21" s="6"/>
+      <c r="O21" s="6">
+        <v>1</v>
+      </c>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -2896,7 +2923,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -2907,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="16.5" hidden="1" thickBot="1">
+    <row r="22" spans="1:39">
       <c r="A22" s="25">
         <v>19</v>
       </c>
@@ -2950,7 +2977,9 @@
       <c r="N22" s="6">
         <v>1</v>
       </c>
-      <c r="O22" s="6"/>
+      <c r="O22" s="6">
+        <v>1</v>
+      </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -2973,7 +3002,7 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -2984,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="16.5" hidden="1" thickBot="1">
+    <row r="23" spans="1:39" ht="16.5" thickBot="1">
       <c r="A23" s="28">
         <v>20</v>
       </c>
@@ -3027,7 +3056,9 @@
       <c r="N23" s="7">
         <v>1</v>
       </c>
-      <c r="O23" s="7"/>
+      <c r="O23" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -3054,7 +3085,7 @@
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="47">
         <f t="shared" si="5"/>
@@ -3104,7 +3135,9 @@
       <c r="N24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O24" s="6"/>
+      <c r="O24" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
@@ -3131,7 +3164,7 @@
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL24" s="44">
         <f t="shared" si="5"/>
@@ -3184,7 +3217,9 @@
       <c r="N25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O25" s="6"/>
+      <c r="O25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
@@ -3211,7 +3246,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3221,7 +3256,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:39" hidden="1">
+    <row r="26" spans="1:39">
       <c r="A26" s="25">
         <v>23</v>
       </c>
@@ -3264,7 +3299,9 @@
       <c r="N26" s="6">
         <v>1</v>
       </c>
-      <c r="O26" s="6"/>
+      <c r="O26" s="6">
+        <v>1</v>
+      </c>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
@@ -3287,7 +3324,7 @@
       <c r="AI26" s="9"/>
       <c r="AJ26" s="36">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
@@ -3301,7 +3338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:39" hidden="1">
+    <row r="27" spans="1:39">
       <c r="A27" s="25">
         <v>24</v>
       </c>
@@ -3344,7 +3381,9 @@
       <c r="N27" s="6">
         <v>1</v>
       </c>
-      <c r="O27" s="6"/>
+      <c r="O27" s="6">
+        <v>1</v>
+      </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
@@ -3367,7 +3406,7 @@
       <c r="AI27" s="9"/>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -3381,7 +3420,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:39" hidden="1">
+    <row r="28" spans="1:39">
       <c r="A28" s="25">
         <v>25</v>
       </c>
@@ -3424,7 +3463,9 @@
       <c r="N28" s="6">
         <v>1</v>
       </c>
-      <c r="O28" s="6"/>
+      <c r="O28" s="6">
+        <v>1</v>
+      </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
@@ -3447,7 +3488,7 @@
       <c r="AI28" s="9"/>
       <c r="AJ28" s="36">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK28" s="37">
         <f t="shared" si="4"/>
@@ -3461,7 +3502,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:39" hidden="1">
+    <row r="29" spans="1:39">
       <c r="A29" s="25">
         <v>26</v>
       </c>
@@ -3504,7 +3545,9 @@
       <c r="N29" s="6">
         <v>1</v>
       </c>
-      <c r="O29" s="6"/>
+      <c r="O29" s="6">
+        <v>1</v>
+      </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
@@ -3527,7 +3570,7 @@
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -3584,7 +3627,9 @@
       <c r="N30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O30" s="7"/>
+      <c r="O30" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -3611,7 +3656,7 @@
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL30" s="47">
         <f t="shared" si="5"/>
@@ -3621,7 +3666,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:39" hidden="1">
+    <row r="31" spans="1:39">
       <c r="A31" s="22">
         <v>28</v>
       </c>
@@ -3740,7 +3785,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:39" hidden="1">
+    <row r="32" spans="1:39">
       <c r="A32" s="25">
         <v>29</v>
       </c>
@@ -3783,7 +3828,9 @@
       <c r="N32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O32" s="6"/>
+      <c r="O32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
@@ -3810,7 +3857,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -3939,7 +3986,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="16.5" hidden="1" thickBot="1">
+    <row r="34" spans="1:39">
       <c r="A34" s="22">
         <v>31</v>
       </c>
@@ -4058,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="16.5" hidden="1" thickBot="1">
+    <row r="35" spans="1:39" ht="16.5" thickBot="1">
       <c r="A35" s="28">
         <v>32</v>
       </c>
@@ -4299,7 +4346,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="16.5" hidden="1" thickBot="1">
+    <row r="37" spans="1:39" ht="16.5" thickBot="1">
       <c r="A37" s="28">
         <v>34</v>
       </c>
@@ -4418,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:39" hidden="1">
+    <row r="38" spans="1:39">
       <c r="A38" s="22">
         <v>35</v>
       </c>
@@ -4461,7 +4508,9 @@
       <c r="N38" s="6">
         <v>1</v>
       </c>
-      <c r="O38" s="6"/>
+      <c r="O38" s="6">
+        <v>1</v>
+      </c>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
@@ -4484,7 +4533,7 @@
       <c r="AI38" s="9"/>
       <c r="AJ38" s="42">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
@@ -4663,7 +4712,9 @@
       <c r="N40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O40" s="7"/>
+      <c r="O40" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
@@ -4690,7 +4741,7 @@
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL40" s="47">
         <f t="shared" si="8"/>
@@ -4700,7 +4751,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:39" hidden="1">
+    <row r="41" spans="1:39">
       <c r="A41" s="22">
         <v>38</v>
       </c>
@@ -4743,7 +4794,9 @@
       <c r="N41" s="6">
         <v>1</v>
       </c>
-      <c r="O41" s="6"/>
+      <c r="O41" s="6">
+        <v>1</v>
+      </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
@@ -4766,7 +4819,7 @@
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -4780,7 +4833,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:39" hidden="1">
+    <row r="42" spans="1:39">
       <c r="A42" s="25">
         <v>39</v>
       </c>
@@ -4823,7 +4876,9 @@
       <c r="N42" s="6">
         <v>1</v>
       </c>
-      <c r="O42" s="6"/>
+      <c r="O42" s="6">
+        <v>1</v>
+      </c>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
@@ -4846,7 +4901,7 @@
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -4860,7 +4915,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:39" hidden="1">
+    <row r="43" spans="1:39">
       <c r="A43" s="25">
         <v>40</v>
       </c>
@@ -4903,7 +4958,9 @@
       <c r="N43" s="6">
         <v>1</v>
       </c>
-      <c r="O43" s="6"/>
+      <c r="O43" s="6">
+        <v>1</v>
+      </c>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
@@ -4926,7 +4983,7 @@
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -4940,7 +4997,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:39" hidden="1">
+    <row r="44" spans="1:39">
       <c r="A44" s="25">
         <v>41</v>
       </c>
@@ -4983,7 +5040,9 @@
       <c r="N44" s="6">
         <v>1</v>
       </c>
-      <c r="O44" s="6"/>
+      <c r="O44" s="6">
+        <v>1</v>
+      </c>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
@@ -5006,7 +5065,7 @@
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -5020,7 +5079,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:39" hidden="1">
+    <row r="45" spans="1:39">
       <c r="A45" s="25">
         <v>42</v>
       </c>
@@ -5063,7 +5122,9 @@
       <c r="N45" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O45" s="6"/>
+      <c r="O45" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
@@ -5090,14 +5151,14 @@
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL45" s="38">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:39" hidden="1">
+    <row r="46" spans="1:39">
       <c r="A46" s="25">
         <v>43</v>
       </c>
@@ -5140,7 +5201,9 @@
       <c r="N46" s="6">
         <v>1</v>
       </c>
-      <c r="O46" s="6"/>
+      <c r="O46" s="6">
+        <v>1</v>
+      </c>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
@@ -5163,7 +5226,7 @@
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -5174,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="16.5" hidden="1" thickBot="1">
+    <row r="47" spans="1:39" ht="16.5" thickBot="1">
       <c r="A47" s="28">
         <v>44</v>
       </c>
@@ -5217,7 +5280,9 @@
       <c r="N47" s="7">
         <v>1</v>
       </c>
-      <c r="O47" s="7"/>
+      <c r="O47" s="7">
+        <v>1</v>
+      </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
@@ -5240,7 +5305,7 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -5251,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:39" hidden="1">
+    <row r="48" spans="1:39">
       <c r="A48" s="22">
         <v>45</v>
       </c>
@@ -5294,7 +5359,9 @@
       <c r="N48" s="6">
         <v>1</v>
       </c>
-      <c r="O48" s="6"/>
+      <c r="O48" s="6">
+        <v>1</v>
+      </c>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
@@ -5317,7 +5384,7 @@
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -5328,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="16.5" hidden="1" thickBot="1">
+    <row r="49" spans="1:39" ht="16.5" thickBot="1">
       <c r="A49" s="28">
         <v>46</v>
       </c>
@@ -5371,7 +5438,9 @@
       <c r="N49" s="7">
         <v>1</v>
       </c>
-      <c r="O49" s="7"/>
+      <c r="O49" s="7">
+        <v>1</v>
+      </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
@@ -5394,7 +5463,7 @@
       <c r="AI49" s="10"/>
       <c r="AJ49" s="45">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK49" s="46">
         <f t="shared" si="7"/>
@@ -5418,7 +5487,7 @@
     <row r="52" spans="1:39">
       <c r="A52" s="54" t="str">
         <f ca="1">"Табель работы автобусов за " &amp; RIGHT(CELL("имяфайла"),LEN(CELL("имяфайла"))-SEARCH("]",CELL("имяфайла"),1)) &amp; " автоколонны № 2 г. Смолевичи"</f>
-        <v>Табель работы автобусов за Лист1 автоколонны № 2 г. Смолевичи</v>
+        <v>Табель работы автобусов за Октябрь 2018 автоколонны № 2 г. Смолевичи</v>
       </c>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -5776,7 +5845,9 @@
       <c r="N56" s="6">
         <v>1</v>
       </c>
-      <c r="O56" s="6"/>
+      <c r="O56" s="6">
+        <v>1</v>
+      </c>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
@@ -5799,7 +5870,7 @@
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -5856,7 +5927,9 @@
       <c r="N57" s="7">
         <v>1</v>
       </c>
-      <c r="O57" s="7"/>
+      <c r="O57" s="7">
+        <v>1</v>
+      </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
@@ -5879,7 +5952,7 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>
@@ -5897,16 +5970,8 @@
     </row>
   </sheetData>
   <autoFilter ref="E2:AM49">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="тр"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="34">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
+    <filterColumn colId="9"/>
+    <filterColumn colId="34"/>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:AL1"/>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -1136,10 +1136,10 @@
   <dimension ref="A1:AM58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O50" sqref="O50"/>
+      <selection pane="bottomRight" activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1517,7 +1517,9 @@
       <c r="O5" s="6">
         <v>1</v>
       </c>
-      <c r="P5" s="6"/>
+      <c r="P5" s="6">
+        <v>1</v>
+      </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -1539,7 +1541,7 @@
       <c r="AI5" s="9"/>
       <c r="AJ5" s="36">
         <f t="shared" ref="AJ5:AJ18" si="0">COUNTIF(E5:AI5,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
@@ -1596,7 +1598,9 @@
       <c r="O6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="7"/>
+      <c r="P6" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -1626,7 +1630,7 @@
       </c>
       <c r="AL6" s="41">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -1794,7 +1798,9 @@
       <c r="O8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="6"/>
+      <c r="P8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1820,7 +1826,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -1873,7 +1879,9 @@
       <c r="O9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1899,7 +1907,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2190,7 +2198,9 @@
       <c r="O12" s="6">
         <v>1</v>
       </c>
-      <c r="P12" s="6"/>
+      <c r="P12" s="6">
+        <v>1</v>
+      </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -2212,7 +2222,7 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2269,7 +2279,9 @@
       <c r="O13" s="6">
         <v>1</v>
       </c>
-      <c r="P13" s="6"/>
+      <c r="P13" s="6">
+        <v>1</v>
+      </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -2291,7 +2303,7 @@
       <c r="AI13" s="9"/>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2348,7 +2360,9 @@
       <c r="O14" s="6">
         <v>1</v>
       </c>
-      <c r="P14" s="6"/>
+      <c r="P14" s="6">
+        <v>1</v>
+      </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -2370,7 +2384,7 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2427,7 +2441,9 @@
       <c r="O15" s="6">
         <v>1</v>
       </c>
-      <c r="P15" s="6"/>
+      <c r="P15" s="6">
+        <v>1</v>
+      </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -2449,7 +2465,7 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2506,7 +2522,9 @@
       <c r="O16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="6"/>
+      <c r="P16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
@@ -2532,7 +2550,7 @@
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL16" s="38">
         <f t="shared" si="2"/>
@@ -2585,7 +2603,9 @@
       <c r="O17" s="6">
         <v>1</v>
       </c>
-      <c r="P17" s="6"/>
+      <c r="P17" s="6">
+        <v>1</v>
+      </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -2607,7 +2627,7 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -2664,7 +2684,9 @@
       <c r="O18" s="6">
         <v>1</v>
       </c>
-      <c r="P18" s="6"/>
+      <c r="P18" s="6">
+        <v>1</v>
+      </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -2686,7 +2708,7 @@
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -2743,7 +2765,9 @@
       <c r="O19" s="6">
         <v>1</v>
       </c>
-      <c r="P19" s="6"/>
+      <c r="P19" s="6">
+        <v>1</v>
+      </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
@@ -2765,7 +2789,7 @@
       <c r="AI19" s="9"/>
       <c r="AJ19" s="36">
         <f t="shared" ref="AJ19:AJ34" si="3">COUNTIF(E19:AI19,1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
@@ -2822,7 +2846,9 @@
       <c r="O20" s="6">
         <v>1</v>
       </c>
-      <c r="P20" s="6"/>
+      <c r="P20" s="6">
+        <v>1</v>
+      </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
@@ -2844,7 +2870,7 @@
       <c r="AI20" s="9"/>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
@@ -2901,7 +2927,9 @@
       <c r="O21" s="6">
         <v>1</v>
       </c>
-      <c r="P21" s="6"/>
+      <c r="P21" s="6">
+        <v>1</v>
+      </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
@@ -2923,7 +2951,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -2980,7 +3008,9 @@
       <c r="O22" s="6">
         <v>1</v>
       </c>
-      <c r="P22" s="6"/>
+      <c r="P22" s="6">
+        <v>1</v>
+      </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
@@ -3002,7 +3032,7 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -3059,7 +3089,9 @@
       <c r="O23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P23" s="7"/>
+      <c r="P23" s="7">
+        <v>1</v>
+      </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
@@ -3081,7 +3113,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="45">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
@@ -3138,7 +3170,9 @@
       <c r="O24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P24" s="6"/>
+      <c r="P24" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
@@ -3164,7 +3198,7 @@
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL24" s="44">
         <f t="shared" si="5"/>
@@ -3220,7 +3254,9 @@
       <c r="O25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P25" s="6"/>
+      <c r="P25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
@@ -3246,7 +3282,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3302,7 +3338,9 @@
       <c r="O26" s="6">
         <v>1</v>
       </c>
-      <c r="P26" s="6"/>
+      <c r="P26" s="6">
+        <v>1</v>
+      </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
@@ -3324,7 +3362,7 @@
       <c r="AI26" s="9"/>
       <c r="AJ26" s="36">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
@@ -3384,7 +3422,9 @@
       <c r="O27" s="6">
         <v>1</v>
       </c>
-      <c r="P27" s="6"/>
+      <c r="P27" s="6">
+        <v>1</v>
+      </c>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
@@ -3406,7 +3446,7 @@
       <c r="AI27" s="9"/>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -3466,7 +3506,9 @@
       <c r="O28" s="6">
         <v>1</v>
       </c>
-      <c r="P28" s="6"/>
+      <c r="P28" s="6">
+        <v>1</v>
+      </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -3488,7 +3530,7 @@
       <c r="AI28" s="9"/>
       <c r="AJ28" s="36">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK28" s="37">
         <f t="shared" si="4"/>
@@ -3548,7 +3590,9 @@
       <c r="O29" s="6">
         <v>1</v>
       </c>
-      <c r="P29" s="6"/>
+      <c r="P29" s="6">
+        <v>1</v>
+      </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
@@ -3570,7 +3614,7 @@
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -3630,7 +3674,9 @@
       <c r="O30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P30" s="7"/>
+      <c r="P30" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
@@ -3656,7 +3702,7 @@
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL30" s="47">
         <f t="shared" si="5"/>
@@ -3831,7 +3877,9 @@
       <c r="O32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P32" s="6"/>
+      <c r="P32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
@@ -3857,7 +3905,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -4511,7 +4559,9 @@
       <c r="O38" s="6">
         <v>1</v>
       </c>
-      <c r="P38" s="6"/>
+      <c r="P38" s="6">
+        <v>1</v>
+      </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
@@ -4533,7 +4583,7 @@
       <c r="AI38" s="9"/>
       <c r="AJ38" s="42">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
@@ -4715,7 +4765,9 @@
       <c r="O40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P40" s="7"/>
+      <c r="P40" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
@@ -4741,7 +4793,7 @@
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL40" s="47">
         <f t="shared" si="8"/>
@@ -4797,7 +4849,9 @@
       <c r="O41" s="6">
         <v>1</v>
       </c>
-      <c r="P41" s="6"/>
+      <c r="P41" s="6">
+        <v>1</v>
+      </c>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
@@ -4819,7 +4873,7 @@
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -4879,7 +4933,9 @@
       <c r="O42" s="6">
         <v>1</v>
       </c>
-      <c r="P42" s="6"/>
+      <c r="P42" s="6">
+        <v>1</v>
+      </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
@@ -4901,7 +4957,7 @@
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -4961,7 +5017,9 @@
       <c r="O43" s="6">
         <v>1</v>
       </c>
-      <c r="P43" s="6"/>
+      <c r="P43" s="6">
+        <v>1</v>
+      </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
@@ -4983,7 +5041,7 @@
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -5043,7 +5101,9 @@
       <c r="O44" s="6">
         <v>1</v>
       </c>
-      <c r="P44" s="6"/>
+      <c r="P44" s="6">
+        <v>1</v>
+      </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
@@ -5065,7 +5125,7 @@
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -5125,7 +5185,9 @@
       <c r="O45" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P45" s="6"/>
+      <c r="P45" s="6">
+        <v>1</v>
+      </c>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
@@ -5147,7 +5209,7 @@
       <c r="AI45" s="9"/>
       <c r="AJ45" s="36">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
@@ -5204,7 +5266,9 @@
       <c r="O46" s="6">
         <v>1</v>
       </c>
-      <c r="P46" s="6"/>
+      <c r="P46" s="6">
+        <v>1</v>
+      </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
@@ -5226,7 +5290,7 @@
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -5283,7 +5347,9 @@
       <c r="O47" s="7">
         <v>1</v>
       </c>
-      <c r="P47" s="7"/>
+      <c r="P47" s="7">
+        <v>1</v>
+      </c>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
@@ -5305,7 +5371,7 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -5362,7 +5428,9 @@
       <c r="O48" s="6">
         <v>1</v>
       </c>
-      <c r="P48" s="6"/>
+      <c r="P48" s="6">
+        <v>1</v>
+      </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
@@ -5384,7 +5452,7 @@
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -5441,7 +5509,9 @@
       <c r="O49" s="7">
         <v>1</v>
       </c>
-      <c r="P49" s="7"/>
+      <c r="P49" s="7">
+        <v>1</v>
+      </c>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
@@ -5463,7 +5533,7 @@
       <c r="AI49" s="10"/>
       <c r="AJ49" s="45">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK49" s="46">
         <f t="shared" si="7"/>
@@ -5848,7 +5918,9 @@
       <c r="O56" s="6">
         <v>1</v>
       </c>
-      <c r="P56" s="6"/>
+      <c r="P56" s="6">
+        <v>1</v>
+      </c>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
@@ -5870,7 +5942,7 @@
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -5930,7 +6002,9 @@
       <c r="O57" s="7">
         <v>1</v>
       </c>
-      <c r="P57" s="7"/>
+      <c r="P57" s="7">
+        <v>1</v>
+      </c>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
@@ -5952,7 +6026,7 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>
@@ -5971,6 +6045,7 @@
   </sheetData>
   <autoFilter ref="E2:AM49">
     <filterColumn colId="9"/>
+    <filterColumn colId="11"/>
     <filterColumn colId="34"/>
   </autoFilter>
   <mergeCells count="2">

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -8,8 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="Октябрь 2018" sheetId="1" r:id="rId1"/>
+    <sheet name="Ноябрь 2018" sheetId="2" r:id="rId2"/>
+    <sheet name="Декабрь 2018" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Декабрь 2018'!$E$2:$AM$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ноябрь 2018'!$E$2:$AL$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Октябрь 2018'!$E$2:$AM$49</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -842,7 +846,28 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1125,7 +1150,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1139,7 +1164,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P50" sqref="P50"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5557,7 +5582,7 @@
     <row r="52" spans="1:39">
       <c r="A52" s="54" t="str">
         <f ca="1">"Табель работы автобусов за " &amp; RIGHT(CELL("имяфайла"),LEN(CELL("имяфайла"))-SEARCH("]",CELL("имяфайла"),1)) &amp; " автоколонны № 2 г. Смолевичи"</f>
-        <v>Табель работы автобусов за Октябрь 2018 автоколонны № 2 г. Смолевичи</v>
+        <v>Табель работы автобусов за Ноябрь 2018 автоколонны № 2 г. Смолевичи</v>
       </c>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -6053,12 +6078,7994 @@
     <mergeCell ref="A52:AL52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AI49">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:AI57">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
+      <formula>LEN(TRIM(E55))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="1.7716535433070868" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AL58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Y38" sqref="Y38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5" max="34" width="3.7109375" style="3" customWidth="1"/>
+    <col min="35" max="37" width="5.7109375" style="3" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37">
+      <c r="A1" s="54" t="str">
+        <f ca="1">"Табель работы автобусов за " &amp; MID(CELL("имяфайла",A1),SEARCH("]",CELL("имяфайла",A1))+1,255) &amp; " автоколонны № 1 г. Жодино"</f>
+        <v>Табель работы автобусов за Ноябрь 2018 автоколонны № 1 г. Жодино</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+    </row>
+    <row r="2" spans="1:37" ht="16.5" thickBot="1">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+    </row>
+    <row r="3" spans="1:37" s="5" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="52">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
+        <v>2</v>
+      </c>
+      <c r="G3" s="13">
+        <v>3</v>
+      </c>
+      <c r="H3" s="13">
+        <v>4</v>
+      </c>
+      <c r="I3" s="13">
+        <v>5</v>
+      </c>
+      <c r="J3" s="13">
+        <v>6</v>
+      </c>
+      <c r="K3" s="13">
+        <v>7</v>
+      </c>
+      <c r="L3" s="13">
+        <v>8</v>
+      </c>
+      <c r="M3" s="13">
+        <v>9</v>
+      </c>
+      <c r="N3" s="13">
+        <v>10</v>
+      </c>
+      <c r="O3" s="13">
+        <v>11</v>
+      </c>
+      <c r="P3" s="13">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>13</v>
+      </c>
+      <c r="R3" s="13">
+        <v>14</v>
+      </c>
+      <c r="S3" s="13">
+        <v>15</v>
+      </c>
+      <c r="T3" s="13">
+        <v>16</v>
+      </c>
+      <c r="U3" s="13">
+        <v>17</v>
+      </c>
+      <c r="V3" s="13">
+        <v>18</v>
+      </c>
+      <c r="W3" s="13">
+        <v>19</v>
+      </c>
+      <c r="X3" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="13">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="13">
+        <v>24</v>
+      </c>
+      <c r="AC3" s="13">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="13">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="13">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="13">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="13">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="13">
+        <v>30</v>
+      </c>
+      <c r="AI3" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK3" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="22">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="48">
+        <v>7468</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI4" s="36">
+        <f>COUNTIF(E4:AH4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="37">
+        <f>COUNTIF(E4:AH4,"тр")</f>
+        <v>30</v>
+      </c>
+      <c r="AK4" s="38">
+        <f>COUNTIF(E4:AH4,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="25">
+        <v>2</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="49">
+        <v>7533</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="36">
+        <f>COUNTIF(E5:AH5,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="37">
+        <f>COUNTIF(E5:AH5,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="38">
+        <f>COUNTIF(E5:AH5,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="16.5" thickBot="1">
+      <c r="A6" s="28">
+        <v>3</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="50">
+        <v>1637</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="39">
+        <f>COUNTIF(E6:AH6,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="40">
+        <f>COUNTIF(E6:AH6,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="41">
+        <f>COUNTIF(E6:AH6,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" s="22">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="49">
+        <v>6981</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI7" s="42">
+        <f>COUNTIF(E7:AH7,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="43">
+        <f>COUNTIF(E7:AH7,"тр")</f>
+        <v>30</v>
+      </c>
+      <c r="AK7" s="44">
+        <f>COUNTIF(E7:AH7,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="25">
+        <v>5</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="49">
+        <v>6982</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="36">
+        <f>COUNTIF(E8:AH8,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="37">
+        <f>COUNTIF(E8:AH8,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="38">
+        <f>COUNTIF(E8:AH8,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="25">
+        <v>6</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="49">
+        <v>5721</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="36">
+        <f>COUNTIF(E9:AH9,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="37">
+        <f>COUNTIF(E9:AH9,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="38">
+        <f>COUNTIF(E9:AH9,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="25">
+        <v>7</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI10" s="36">
+        <f>COUNTIF(E10:AH10,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="37">
+        <f>COUNTIF(E10:AH10,"тр")</f>
+        <v>30</v>
+      </c>
+      <c r="AK10" s="38">
+        <f>COUNTIF(E10:AH10,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="25">
+        <v>8</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI11" s="36">
+        <f>COUNTIF(E11:AH11,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="37">
+        <f>COUNTIF(E11:AH11,"тр")</f>
+        <v>30</v>
+      </c>
+      <c r="AK11" s="38">
+        <f>COUNTIF(E11:AH11,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" s="25">
+        <v>9</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="49">
+        <v>1291</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="36">
+        <f>COUNTIF(E12:AH12,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="37">
+        <f>COUNTIF(E12:AH12,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="38">
+        <f>COUNTIF(E12:AH12,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="25">
+        <v>10</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="49">
+        <v>6850</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="36">
+        <f>COUNTIF(E13:AH13,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="37">
+        <f>COUNTIF(E13:AH13,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="38">
+        <f>COUNTIF(E13:AH13,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" s="25">
+        <v>11</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="49">
+        <v>7540</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="36">
+        <f>COUNTIF(E14:AH14,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="37">
+        <f>COUNTIF(E14:AH14,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="38">
+        <f>COUNTIF(E14:AH14,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" s="25">
+        <v>12</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="49">
+        <v>4729</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="36">
+        <f>COUNTIF(E15:AH15,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="37">
+        <f>COUNTIF(E15:AH15,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="38">
+        <f>COUNTIF(E15:AH15,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" s="25">
+        <v>13</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="49">
+        <v>4769</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="36">
+        <f>COUNTIF(E16:AH16,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="37">
+        <f>COUNTIF(E16:AH16,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="38">
+        <f>COUNTIF(E16:AH16,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38">
+      <c r="A17" s="25">
+        <v>14</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="49">
+        <v>4730</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="36">
+        <f>COUNTIF(E17:AH17,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="37">
+        <f>COUNTIF(E17:AH17,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="38">
+        <f>COUNTIF(E17:AH17,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38">
+      <c r="A18" s="25">
+        <v>15</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="49">
+        <v>1213</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="36">
+        <f>COUNTIF(E18:AH18,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="37">
+        <f>COUNTIF(E18:AH18,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="38">
+        <f>COUNTIF(E18:AH18,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38">
+      <c r="A19" s="25">
+        <v>16</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="49">
+        <v>4189</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="36">
+        <f>COUNTIF(E19:AH19,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="37">
+        <f>COUNTIF(E19:AH19,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="38">
+        <f>COUNTIF(E19:AH19,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38">
+      <c r="A20" s="25">
+        <v>17</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="49">
+        <v>3584</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="36">
+        <f>COUNTIF(E20:AH20,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="37">
+        <f>COUNTIF(E20:AH20,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="38">
+        <f>COUNTIF(E20:AH20,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38">
+      <c r="A21" s="25">
+        <v>18</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="49">
+        <v>1661</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="36">
+        <f>COUNTIF(E21:AH21,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="37">
+        <f>COUNTIF(E21:AH21,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="38">
+        <f>COUNTIF(E21:AH21,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38">
+      <c r="A22" s="25">
+        <v>19</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="49">
+        <v>1662</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="36">
+        <f>COUNTIF(E22:AH22,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="37">
+        <f>COUNTIF(E22:AH22,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="38">
+        <f>COUNTIF(E22:AH22,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" ht="16.5" thickBot="1">
+      <c r="A23" s="28">
+        <v>20</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="50">
+        <v>4302</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="45">
+        <f>COUNTIF(E23:AH23,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="46">
+        <f>COUNTIF(E23:AH23,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="47">
+        <f>COUNTIF(E23:AH23,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38">
+      <c r="A24" s="22">
+        <v>21</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="49">
+        <v>2961</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="42">
+        <f>COUNTIF(E24:AH24,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="43">
+        <f>COUNTIF(E24:AH24,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="44">
+        <f>COUNTIF(E24:AH24,"бв")</f>
+        <v>0</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38">
+      <c r="A25" s="25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="49">
+        <v>2962</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="36">
+        <f>COUNTIF(E25:AH25,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="37">
+        <f>COUNTIF(E25:AH25,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="38">
+        <f>COUNTIF(E25:AH25,"бв")</f>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38">
+      <c r="A26" s="25">
+        <v>23</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="49">
+        <v>2963</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="36">
+        <f>COUNTIF(E26:AH26,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="37">
+        <f>COUNTIF(E26:AH26,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="38">
+        <f>COUNTIF(E26:AH26,"бв")</f>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38">
+      <c r="A27" s="25">
+        <v>24</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="49">
+        <v>4309</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="36">
+        <f>COUNTIF(E27:AH27,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="37">
+        <f>COUNTIF(E27:AH27,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="38">
+        <f>COUNTIF(E27:AH27,"бв")</f>
+        <v>0</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38">
+      <c r="A28" s="25">
+        <v>25</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="32">
+        <v>162</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="36">
+        <f>COUNTIF(E28:AH28,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="37">
+        <f>COUNTIF(E28:AH28,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="38">
+        <f>COUNTIF(E28:AH28,"бв")</f>
+        <v>0</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38">
+      <c r="A29" s="25">
+        <v>26</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="32">
+        <v>163</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="36">
+        <f>COUNTIF(E29:AH29,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="37">
+        <f>COUNTIF(E29:AH29,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="38">
+        <f>COUNTIF(E29:AH29,"бв")</f>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" ht="16.5" thickBot="1">
+      <c r="A30" s="28">
+        <v>27</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="50">
+        <v>1276</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="45">
+        <f>COUNTIF(E30:AH30,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="46">
+        <f>COUNTIF(E30:AH30,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK30" s="47">
+        <f>COUNTIF(E30:AH30,"бв")</f>
+        <v>0</v>
+      </c>
+      <c r="AL30" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38">
+      <c r="A31" s="22">
+        <v>28</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="49">
+        <v>3111</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="42">
+        <f>COUNTIF(E31:AH31,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="43">
+        <f>COUNTIF(E31:AH31,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK31" s="44">
+        <f>COUNTIF(E31:AH31,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38">
+      <c r="A32" s="25">
+        <v>29</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="49">
+        <v>1290</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="36">
+        <f>COUNTIF(E32:AH32,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="37">
+        <f>COUNTIF(E32:AH32,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="38">
+        <f>COUNTIF(E32:AH32,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" ht="16.5" thickBot="1">
+      <c r="A33" s="28">
+        <v>30</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="35">
+        <v>147</v>
+      </c>
+      <c r="D33" s="50">
+        <v>4711</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="X33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI33" s="45">
+        <f>COUNTIF(E33:AH33,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="46">
+        <f>COUNTIF(E33:AH33,"тр")</f>
+        <v>30</v>
+      </c>
+      <c r="AK33" s="47">
+        <f>COUNTIF(E33:AH33,"бв")</f>
+        <v>0</v>
+      </c>
+      <c r="AL33" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38">
+      <c r="A34" s="22">
+        <v>31</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="49">
+        <v>3810</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI34" s="42">
+        <f>COUNTIF(E34:AH34,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="43">
+        <f>COUNTIF(E34:AH34,"тр")</f>
+        <v>30</v>
+      </c>
+      <c r="AK34" s="44">
+        <f>COUNTIF(E34:AH34,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" ht="16.5" thickBot="1">
+      <c r="A35" s="28">
+        <v>32</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="50">
+        <v>3811</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI35" s="45">
+        <f>COUNTIF(E35:AH35,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="46">
+        <f>COUNTIF(E35:AH35,"тр")</f>
+        <v>30</v>
+      </c>
+      <c r="AK35" s="47">
+        <f>COUNTIF(E35:AH35,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38">
+      <c r="A36" s="22">
+        <v>33</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="49">
+        <v>4253</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI36" s="42">
+        <f>COUNTIF(E36:AH36,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="43">
+        <f>COUNTIF(E36:AH36,"тр")</f>
+        <v>30</v>
+      </c>
+      <c r="AK36" s="44">
+        <f>COUNTIF(E36:AH36,"бв")</f>
+        <v>0</v>
+      </c>
+      <c r="AL36" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" ht="16.5" thickBot="1">
+      <c r="A37" s="28">
+        <v>34</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="50">
+        <v>5610</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="X37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI37" s="45">
+        <f>COUNTIF(E37:AH37,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="46">
+        <f>COUNTIF(E37:AH37,"тр")</f>
+        <v>30</v>
+      </c>
+      <c r="AK37" s="47">
+        <f>COUNTIF(E37:AH37,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38">
+      <c r="A38" s="22">
+        <v>35</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="49">
+        <v>2831</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="42">
+        <f>COUNTIF(E38:AH38,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="43">
+        <f>COUNTIF(E38:AH38,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK38" s="44">
+        <f>COUNTIF(E38:AH38,"бв")</f>
+        <v>0</v>
+      </c>
+      <c r="AL38" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38">
+      <c r="A39" s="25">
+        <v>36</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="49">
+        <v>7945</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI39" s="36">
+        <f>COUNTIF(E39:AH39,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="37">
+        <f>COUNTIF(E39:AH39,"тр")</f>
+        <v>30</v>
+      </c>
+      <c r="AK39" s="38">
+        <f>COUNTIF(E39:AH39,"бв")</f>
+        <v>0</v>
+      </c>
+      <c r="AL39" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" ht="16.5" thickBot="1">
+      <c r="A40" s="28">
+        <v>37</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="35">
+        <v>135</v>
+      </c>
+      <c r="D40" s="50">
+        <v>8933</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="45">
+        <f>COUNTIF(E40:AH40,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="46">
+        <f>COUNTIF(E40:AH40,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK40" s="47">
+        <f>COUNTIF(E40:AH40,"бв")</f>
+        <v>0</v>
+      </c>
+      <c r="AL40" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38">
+      <c r="A41" s="22">
+        <v>38</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="49">
+        <v>4994</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="42">
+        <f>COUNTIF(E41:AH41,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="43">
+        <f>COUNTIF(E41:AH41,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK41" s="44">
+        <f>COUNTIF(E41:AH41,"бв")</f>
+        <v>0</v>
+      </c>
+      <c r="AL41" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38">
+      <c r="A42" s="25">
+        <v>39</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="49">
+        <v>4995</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="36">
+        <f>COUNTIF(E42:AH42,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="37">
+        <f>COUNTIF(E42:AH42,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK42" s="38">
+        <f>COUNTIF(E42:AH42,"бв")</f>
+        <v>0</v>
+      </c>
+      <c r="AL42" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38">
+      <c r="A43" s="25">
+        <v>40</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="49">
+        <v>6129</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="36">
+        <f>COUNTIF(E43:AH43,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="37">
+        <f>COUNTIF(E43:AH43,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK43" s="38">
+        <f>COUNTIF(E43:AH43,"бв")</f>
+        <v>0</v>
+      </c>
+      <c r="AL43" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38">
+      <c r="A44" s="25">
+        <v>41</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="49">
+        <v>6130</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="36">
+        <f>COUNTIF(E44:AH44,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="37">
+        <f>COUNTIF(E44:AH44,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK44" s="38">
+        <f>COUNTIF(E44:AH44,"бв")</f>
+        <v>0</v>
+      </c>
+      <c r="AL44" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38">
+      <c r="A45" s="25">
+        <v>42</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="49">
+        <v>1297</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="36">
+        <f>COUNTIF(E45:AH45,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="37">
+        <f>COUNTIF(E45:AH45,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK45" s="38">
+        <f>COUNTIF(E45:AH45,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38">
+      <c r="A46" s="25">
+        <v>43</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="49">
+        <v>1296</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="36">
+        <f>COUNTIF(E46:AH46,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="37">
+        <f>COUNTIF(E46:AH46,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK46" s="38">
+        <f>COUNTIF(E46:AH46,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" ht="16.5" thickBot="1">
+      <c r="A47" s="28">
+        <v>44</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="50">
+        <v>1344</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="45">
+        <f>COUNTIF(E47:AH47,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="46">
+        <f>COUNTIF(E47:AH47,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK47" s="47">
+        <f>COUNTIF(E47:AH47,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38">
+      <c r="A48" s="22">
+        <v>45</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="49">
+        <v>1250</v>
+      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="42">
+        <f>COUNTIF(E48:AH48,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="43">
+        <f>COUNTIF(E48:AH48,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK48" s="44">
+        <f>COUNTIF(E48:AH48,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" ht="16.5" thickBot="1">
+      <c r="A49" s="28">
+        <v>46</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="50">
+        <v>1252</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="45">
+        <f>COUNTIF(E49:AH49,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="46">
+        <f>COUNTIF(E49:AH49,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK49" s="47">
+        <f>COUNTIF(E49:AH49,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38">
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:38">
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:38">
+      <c r="A52" s="54" t="str">
+        <f ca="1">"Табель работы автобусов за " &amp; RIGHT(CELL("имяфайла"),LEN(CELL("имяфайла"))-SEARCH("]",CELL("имяфайла"),1)) &amp; " автоколонны № 2 г. Смолевичи"</f>
+        <v>Табель работы автобусов за Ноябрь 2018 автоколонны № 2 г. Смолевичи</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="54"/>
+      <c r="U52" s="54"/>
+      <c r="V52" s="54"/>
+      <c r="W52" s="54"/>
+      <c r="X52" s="54"/>
+      <c r="Y52" s="54"/>
+      <c r="Z52" s="54"/>
+      <c r="AA52" s="54"/>
+      <c r="AB52" s="54"/>
+      <c r="AC52" s="54"/>
+      <c r="AD52" s="54"/>
+      <c r="AE52" s="54"/>
+      <c r="AF52" s="54"/>
+      <c r="AG52" s="54"/>
+      <c r="AH52" s="54"/>
+      <c r="AI52" s="54"/>
+      <c r="AJ52" s="54"/>
+      <c r="AK52" s="54"/>
+    </row>
+    <row r="53" spans="1:38" ht="16.5" thickBot="1">
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="51"/>
+      <c r="T53" s="51"/>
+      <c r="U53" s="51"/>
+      <c r="V53" s="51"/>
+      <c r="W53" s="51"/>
+      <c r="X53" s="51"/>
+      <c r="Y53" s="51"/>
+      <c r="Z53" s="51"/>
+      <c r="AA53" s="51"/>
+      <c r="AB53" s="51"/>
+      <c r="AC53" s="51"/>
+      <c r="AD53" s="51"/>
+      <c r="AE53" s="51"/>
+      <c r="AF53" s="51"/>
+      <c r="AG53" s="51"/>
+      <c r="AH53" s="51"/>
+      <c r="AI53" s="51"/>
+      <c r="AJ53" s="51"/>
+      <c r="AK53" s="51"/>
+    </row>
+    <row r="54" spans="1:38" ht="16.5" thickBot="1">
+      <c r="A54" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="13">
+        <v>1</v>
+      </c>
+      <c r="F54" s="13">
+        <v>2</v>
+      </c>
+      <c r="G54" s="13">
+        <v>3</v>
+      </c>
+      <c r="H54" s="13">
+        <v>4</v>
+      </c>
+      <c r="I54" s="13">
+        <v>5</v>
+      </c>
+      <c r="J54" s="13">
+        <v>6</v>
+      </c>
+      <c r="K54" s="13">
+        <v>7</v>
+      </c>
+      <c r="L54" s="13">
+        <v>8</v>
+      </c>
+      <c r="M54" s="13">
+        <v>9</v>
+      </c>
+      <c r="N54" s="13">
+        <v>10</v>
+      </c>
+      <c r="O54" s="13">
+        <v>11</v>
+      </c>
+      <c r="P54" s="13">
+        <v>12</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>13</v>
+      </c>
+      <c r="R54" s="13">
+        <v>14</v>
+      </c>
+      <c r="S54" s="13">
+        <v>15</v>
+      </c>
+      <c r="T54" s="13">
+        <v>16</v>
+      </c>
+      <c r="U54" s="13">
+        <v>17</v>
+      </c>
+      <c r="V54" s="13">
+        <v>18</v>
+      </c>
+      <c r="W54" s="13">
+        <v>19</v>
+      </c>
+      <c r="X54" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y54" s="13">
+        <v>21</v>
+      </c>
+      <c r="Z54" s="13">
+        <v>22</v>
+      </c>
+      <c r="AA54" s="13">
+        <v>23</v>
+      </c>
+      <c r="AB54" s="13">
+        <v>24</v>
+      </c>
+      <c r="AC54" s="13">
+        <v>25</v>
+      </c>
+      <c r="AD54" s="13">
+        <v>26</v>
+      </c>
+      <c r="AE54" s="13">
+        <v>27</v>
+      </c>
+      <c r="AF54" s="13">
+        <v>28</v>
+      </c>
+      <c r="AG54" s="13">
+        <v>29</v>
+      </c>
+      <c r="AH54" s="13">
+        <v>30</v>
+      </c>
+      <c r="AI54" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ54" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK54" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38">
+      <c r="A55" s="22">
+        <v>1</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="48">
+        <v>7334</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="S55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="T55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="U55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="V55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="W55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="X55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI55" s="42">
+        <f>COUNTIF(E55:AH55,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="43">
+        <f>COUNTIF(E55:AH55,"тр")</f>
+        <v>30</v>
+      </c>
+      <c r="AK55" s="44">
+        <f>COUNTIF(E55:AH55,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38">
+      <c r="A56" s="25">
+        <v>2</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="32">
+        <v>176</v>
+      </c>
+      <c r="D56" s="49">
+        <v>6172</v>
+      </c>
+      <c r="E56" s="17">
+        <v>1</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1</v>
+      </c>
+      <c r="H56" s="6">
+        <v>1</v>
+      </c>
+      <c r="I56" s="6">
+        <v>1</v>
+      </c>
+      <c r="J56" s="6">
+        <v>1</v>
+      </c>
+      <c r="K56" s="6">
+        <v>1</v>
+      </c>
+      <c r="L56" s="6">
+        <v>1</v>
+      </c>
+      <c r="M56" s="6">
+        <v>1</v>
+      </c>
+      <c r="N56" s="6">
+        <v>1</v>
+      </c>
+      <c r="O56" s="6">
+        <v>1</v>
+      </c>
+      <c r="P56" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="6"/>
+      <c r="AH56" s="6"/>
+      <c r="AI56" s="36">
+        <f>COUNTIF(E56:AH56,1)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ56" s="37">
+        <f>COUNTIF(E56:AH56,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK56" s="38">
+        <f>COUNTIF(E56:AH56,"бв")</f>
+        <v>0</v>
+      </c>
+      <c r="AL56" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" ht="16.5" thickBot="1">
+      <c r="A57" s="28">
+        <v>3</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="35">
+        <v>177</v>
+      </c>
+      <c r="D57" s="50">
+        <v>6173</v>
+      </c>
+      <c r="E57" s="18">
+        <v>1</v>
+      </c>
+      <c r="F57" s="7">
+        <v>1</v>
+      </c>
+      <c r="G57" s="7">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7">
+        <v>1</v>
+      </c>
+      <c r="I57" s="7">
+        <v>1</v>
+      </c>
+      <c r="J57" s="7">
+        <v>1</v>
+      </c>
+      <c r="K57" s="7">
+        <v>1</v>
+      </c>
+      <c r="L57" s="7">
+        <v>1</v>
+      </c>
+      <c r="M57" s="7">
+        <v>1</v>
+      </c>
+      <c r="N57" s="7">
+        <v>1</v>
+      </c>
+      <c r="O57" s="7">
+        <v>1</v>
+      </c>
+      <c r="P57" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="45">
+        <f>COUNTIF(E57:AH57,1)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ57" s="46">
+        <f>COUNTIF(E57:AH57,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AK57" s="47">
+        <f>COUNTIF(E57:AH57,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38">
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="E2:AL49">
+    <filterColumn colId="9"/>
+    <filterColumn colId="11"/>
+    <filterColumn colId="33"/>
+  </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A52:AK52"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E4:AH49 E55:AH57">
+    <cfRule type="containsBlanks" dxfId="0" priority="2">
+      <formula>LEN(TRIM(E4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="1.7716535433070868" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="T45" sqref="T45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5" max="35" width="3.7109375" style="3" customWidth="1"/>
+    <col min="36" max="38" width="5.7109375" style="3" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38">
+      <c r="A1" s="54" t="str">
+        <f ca="1">"Табель работы автобусов за " &amp; MID(CELL("имяфайла",A1),SEARCH("]",CELL("имяфайла",A1))+1,255) &amp; " автоколонны № 1 г. Жодино"</f>
+        <v>Табель работы автобусов за Декабрь 2018 автоколонны № 1 г. Жодино</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+    </row>
+    <row r="2" spans="1:38" ht="16.5" thickBot="1">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+    </row>
+    <row r="3" spans="1:38" s="5" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="52">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
+        <v>2</v>
+      </c>
+      <c r="G3" s="13">
+        <v>3</v>
+      </c>
+      <c r="H3" s="13">
+        <v>4</v>
+      </c>
+      <c r="I3" s="13">
+        <v>5</v>
+      </c>
+      <c r="J3" s="13">
+        <v>6</v>
+      </c>
+      <c r="K3" s="13">
+        <v>7</v>
+      </c>
+      <c r="L3" s="13">
+        <v>8</v>
+      </c>
+      <c r="M3" s="13">
+        <v>9</v>
+      </c>
+      <c r="N3" s="13">
+        <v>10</v>
+      </c>
+      <c r="O3" s="13">
+        <v>11</v>
+      </c>
+      <c r="P3" s="13">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>13</v>
+      </c>
+      <c r="R3" s="13">
+        <v>14</v>
+      </c>
+      <c r="S3" s="13">
+        <v>15</v>
+      </c>
+      <c r="T3" s="13">
+        <v>16</v>
+      </c>
+      <c r="U3" s="13">
+        <v>17</v>
+      </c>
+      <c r="V3" s="13">
+        <v>18</v>
+      </c>
+      <c r="W3" s="13">
+        <v>19</v>
+      </c>
+      <c r="X3" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="13">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="13">
+        <v>24</v>
+      </c>
+      <c r="AC3" s="13">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="13">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="13">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="13">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="13">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="13">
+        <v>30</v>
+      </c>
+      <c r="AI3" s="14">
+        <v>31</v>
+      </c>
+      <c r="AJ3" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL3" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" s="22">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="48">
+        <v>7468</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ4" s="36">
+        <f>COUNTIF(E4:AI4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="37">
+        <f>COUNTIF(E4:AI4,"тр")</f>
+        <v>31</v>
+      </c>
+      <c r="AL4" s="38">
+        <f>COUNTIF(E4:AI4,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5" s="25">
+        <v>2</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="49">
+        <v>7533</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="36">
+        <f t="shared" ref="AJ5:AJ34" si="0">COUNTIF(E5:AI5,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="37">
+        <f t="shared" ref="AK5:AK34" si="1">COUNTIF(E5:AI5,"тр")</f>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="38">
+        <f t="shared" ref="AL5:AL34" si="2">COUNTIF(E5:AI5,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="16.5" thickBot="1">
+      <c r="A6" s="28">
+        <v>3</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="50">
+        <v>1637</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="A7" s="22">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="49">
+        <v>6981</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ7" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="43">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="AL7" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" s="25">
+        <v>5</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="49">
+        <v>6982</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="A9" s="25">
+        <v>6</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="49">
+        <v>5721</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10" s="25">
+        <v>7</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ10" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="37">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="AL10" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="A11" s="25">
+        <v>8</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ11" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="37">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="AL11" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
+      <c r="A12" s="25">
+        <v>9</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="49">
+        <v>1291</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="A13" s="25">
+        <v>10</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="49">
+        <v>6850</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="A14" s="25">
+        <v>11</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="49">
+        <v>7540</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
+      <c r="A15" s="25">
+        <v>12</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="49">
+        <v>4729</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
+      <c r="A16" s="25">
+        <v>13</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="49">
+        <v>4769</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39">
+      <c r="A17" s="25">
+        <v>14</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="49">
+        <v>4730</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39">
+      <c r="A18" s="25">
+        <v>15</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="49">
+        <v>1213</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39">
+      <c r="A19" s="25">
+        <v>16</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="49">
+        <v>4189</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
+      <c r="A20" s="25">
+        <v>17</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="49">
+        <v>3584</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39">
+      <c r="A21" s="25">
+        <v>18</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="49">
+        <v>1661</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39">
+      <c r="A22" s="25">
+        <v>19</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="49">
+        <v>1662</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" ht="16.5" thickBot="1">
+      <c r="A23" s="28">
+        <v>20</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="50">
+        <v>4302</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL23" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
+      <c r="A24" s="22">
+        <v>21</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="49">
+        <v>2961</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL24" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM24" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
+      <c r="A25" s="25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="49">
+        <v>2962</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM25" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39">
+      <c r="A26" s="25">
+        <v>23</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="49">
+        <v>2963</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM26" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39">
+      <c r="A27" s="25">
+        <v>24</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="49">
+        <v>4309</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL27" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM27" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39">
+      <c r="A28" s="25">
+        <v>25</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="32">
+        <v>162</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL28" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM28" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39">
+      <c r="A29" s="25">
+        <v>26</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="32">
+        <v>163</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM29" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" ht="16.5" thickBot="1">
+      <c r="A30" s="28">
+        <v>27</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="50">
+        <v>1276</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK30" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL30" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM30" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39">
+      <c r="A31" s="22">
+        <v>28</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="49">
+        <v>3111</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK31" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL31" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39">
+      <c r="A32" s="25">
+        <v>29</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="49">
+        <v>1290</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL32" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" ht="16.5" thickBot="1">
+      <c r="A33" s="28">
+        <v>30</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="35">
+        <v>147</v>
+      </c>
+      <c r="D33" s="50">
+        <v>4711</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="X33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ33" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="46">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="AL33" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM33" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39">
+      <c r="A34" s="22">
+        <v>31</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="49">
+        <v>3810</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ34" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="43">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="AL34" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" ht="16.5" thickBot="1">
+      <c r="A35" s="28">
+        <v>32</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="50">
+        <v>3811</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ35" s="45">
+        <f>COUNTIF(E35:AI35,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="46">
+        <f>COUNTIF(E35:AI35,"тр")</f>
+        <v>31</v>
+      </c>
+      <c r="AL35" s="47">
+        <f>COUNTIF(E35:AI35,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39">
+      <c r="A36" s="22">
+        <v>33</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="49">
+        <v>4253</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ36" s="42">
+        <f t="shared" ref="AJ36:AJ49" si="3">COUNTIF(E36:AI36,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="43">
+        <f t="shared" ref="AK36:AK49" si="4">COUNTIF(E36:AI36,"тр")</f>
+        <v>31</v>
+      </c>
+      <c r="AL36" s="44">
+        <f t="shared" ref="AL36:AL49" si="5">COUNTIF(E36:AI36,"бв")</f>
+        <v>0</v>
+      </c>
+      <c r="AM36" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" ht="16.5" thickBot="1">
+      <c r="A37" s="28">
+        <v>34</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="50">
+        <v>5610</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="X37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ37" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK37" s="46">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="AL37" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="A38" s="22">
+        <v>35</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="49">
+        <v>2831</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK38" s="43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL38" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM38" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39">
+      <c r="A39" s="25">
+        <v>36</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="49">
+        <v>7945</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ39" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK39" s="37">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="AL39" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM39" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" ht="16.5" thickBot="1">
+      <c r="A40" s="28">
+        <v>37</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="35">
+        <v>135</v>
+      </c>
+      <c r="D40" s="50">
+        <v>8933</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK40" s="46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL40" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM40" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39">
+      <c r="A41" s="22">
+        <v>38</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="49">
+        <v>4994</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="9"/>
+      <c r="AJ41" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK41" s="43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL41" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM41" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39">
+      <c r="A42" s="25">
+        <v>39</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="49">
+        <v>4995</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="9"/>
+      <c r="AJ42" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK42" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL42" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM42" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39">
+      <c r="A43" s="25">
+        <v>40</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="49">
+        <v>6129</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="9"/>
+      <c r="AJ43" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK43" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL43" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM43" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39">
+      <c r="A44" s="25">
+        <v>41</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="49">
+        <v>6130</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="9"/>
+      <c r="AJ44" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK44" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL44" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM44" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39">
+      <c r="A45" s="25">
+        <v>42</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="49">
+        <v>1297</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="9"/>
+      <c r="AJ45" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK45" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL45" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39">
+      <c r="A46" s="25">
+        <v>43</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="49">
+        <v>1296</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="9"/>
+      <c r="AJ46" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK46" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL46" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" ht="16.5" thickBot="1">
+      <c r="A47" s="28">
+        <v>44</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="50">
+        <v>1344</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK47" s="46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL47" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39">
+      <c r="A48" s="22">
+        <v>45</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="49">
+        <v>1250</v>
+      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="9"/>
+      <c r="AJ48" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK48" s="43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL48" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" ht="16.5" thickBot="1">
+      <c r="A49" s="28">
+        <v>46</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="50">
+        <v>1252</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK49" s="46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL49" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39">
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:39">
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:39">
+      <c r="A52" s="54" t="str">
+        <f ca="1">"Табель работы автобусов за " &amp; RIGHT(CELL("имяфайла"),LEN(CELL("имяфайла"))-SEARCH("]",CELL("имяфайла"),1)) &amp; " автоколонны № 2 г. Смолевичи"</f>
+        <v>Табель работы автобусов за Ноябрь 2018 автоколонны № 2 г. Смолевичи</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="54"/>
+      <c r="U52" s="54"/>
+      <c r="V52" s="54"/>
+      <c r="W52" s="54"/>
+      <c r="X52" s="54"/>
+      <c r="Y52" s="54"/>
+      <c r="Z52" s="54"/>
+      <c r="AA52" s="54"/>
+      <c r="AB52" s="54"/>
+      <c r="AC52" s="54"/>
+      <c r="AD52" s="54"/>
+      <c r="AE52" s="54"/>
+      <c r="AF52" s="54"/>
+      <c r="AG52" s="54"/>
+      <c r="AH52" s="54"/>
+      <c r="AI52" s="54"/>
+      <c r="AJ52" s="54"/>
+      <c r="AK52" s="54"/>
+      <c r="AL52" s="54"/>
+    </row>
+    <row r="53" spans="1:39" ht="16.5" thickBot="1">
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="51"/>
+      <c r="T53" s="51"/>
+      <c r="U53" s="51"/>
+      <c r="V53" s="51"/>
+      <c r="W53" s="51"/>
+      <c r="X53" s="51"/>
+      <c r="Y53" s="51"/>
+      <c r="Z53" s="51"/>
+      <c r="AA53" s="51"/>
+      <c r="AB53" s="51"/>
+      <c r="AC53" s="51"/>
+      <c r="AD53" s="51"/>
+      <c r="AE53" s="51"/>
+      <c r="AF53" s="51"/>
+      <c r="AG53" s="51"/>
+      <c r="AH53" s="51"/>
+      <c r="AI53" s="51"/>
+      <c r="AJ53" s="51"/>
+      <c r="AK53" s="51"/>
+      <c r="AL53" s="51"/>
+    </row>
+    <row r="54" spans="1:39" ht="16.5" thickBot="1">
+      <c r="A54" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="13">
+        <v>1</v>
+      </c>
+      <c r="F54" s="13">
+        <v>2</v>
+      </c>
+      <c r="G54" s="13">
+        <v>3</v>
+      </c>
+      <c r="H54" s="13">
+        <v>4</v>
+      </c>
+      <c r="I54" s="13">
+        <v>5</v>
+      </c>
+      <c r="J54" s="13">
+        <v>6</v>
+      </c>
+      <c r="K54" s="13">
+        <v>7</v>
+      </c>
+      <c r="L54" s="13">
+        <v>8</v>
+      </c>
+      <c r="M54" s="13">
+        <v>9</v>
+      </c>
+      <c r="N54" s="13">
+        <v>10</v>
+      </c>
+      <c r="O54" s="13">
+        <v>11</v>
+      </c>
+      <c r="P54" s="13">
+        <v>12</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>13</v>
+      </c>
+      <c r="R54" s="13">
+        <v>14</v>
+      </c>
+      <c r="S54" s="13">
+        <v>15</v>
+      </c>
+      <c r="T54" s="13">
+        <v>16</v>
+      </c>
+      <c r="U54" s="13">
+        <v>17</v>
+      </c>
+      <c r="V54" s="13">
+        <v>18</v>
+      </c>
+      <c r="W54" s="13">
+        <v>19</v>
+      </c>
+      <c r="X54" s="13">
+        <v>20</v>
+      </c>
+      <c r="Y54" s="13">
+        <v>21</v>
+      </c>
+      <c r="Z54" s="13">
+        <v>22</v>
+      </c>
+      <c r="AA54" s="13">
+        <v>23</v>
+      </c>
+      <c r="AB54" s="13">
+        <v>24</v>
+      </c>
+      <c r="AC54" s="13">
+        <v>25</v>
+      </c>
+      <c r="AD54" s="13">
+        <v>26</v>
+      </c>
+      <c r="AE54" s="13">
+        <v>27</v>
+      </c>
+      <c r="AF54" s="13">
+        <v>28</v>
+      </c>
+      <c r="AG54" s="13">
+        <v>29</v>
+      </c>
+      <c r="AH54" s="13">
+        <v>30</v>
+      </c>
+      <c r="AI54" s="14">
+        <v>31</v>
+      </c>
+      <c r="AJ54" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK54" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL54" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39">
+      <c r="A55" s="22">
+        <v>1</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="48">
+        <v>7334</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="S55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="T55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="U55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="V55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="W55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="X55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ55" s="42">
+        <f t="shared" ref="AJ55:AJ57" si="6">COUNTIF(E55:AI55,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK55" s="43">
+        <f t="shared" ref="AK55:AK57" si="7">COUNTIF(E55:AI55,"тр")</f>
+        <v>31</v>
+      </c>
+      <c r="AL55" s="44">
+        <f t="shared" ref="AL55:AL57" si="8">COUNTIF(E55:AI55,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39">
+      <c r="A56" s="25">
+        <v>2</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="32">
+        <v>176</v>
+      </c>
+      <c r="D56" s="49">
+        <v>6172</v>
+      </c>
+      <c r="E56" s="17">
+        <v>1</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1</v>
+      </c>
+      <c r="H56" s="6">
+        <v>1</v>
+      </c>
+      <c r="I56" s="6">
+        <v>1</v>
+      </c>
+      <c r="J56" s="6">
+        <v>1</v>
+      </c>
+      <c r="K56" s="6">
+        <v>1</v>
+      </c>
+      <c r="L56" s="6">
+        <v>1</v>
+      </c>
+      <c r="M56" s="6">
+        <v>1</v>
+      </c>
+      <c r="N56" s="6">
+        <v>1</v>
+      </c>
+      <c r="O56" s="6">
+        <v>1</v>
+      </c>
+      <c r="P56" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="6"/>
+      <c r="AH56" s="6"/>
+      <c r="AI56" s="9"/>
+      <c r="AJ56" s="36">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AK56" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL56" s="38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM56" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" ht="16.5" thickBot="1">
+      <c r="A57" s="28">
+        <v>3</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="35">
+        <v>177</v>
+      </c>
+      <c r="D57" s="50">
+        <v>6173</v>
+      </c>
+      <c r="E57" s="18">
+        <v>1</v>
+      </c>
+      <c r="F57" s="7">
+        <v>1</v>
+      </c>
+      <c r="G57" s="7">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7">
+        <v>1</v>
+      </c>
+      <c r="I57" s="7">
+        <v>1</v>
+      </c>
+      <c r="J57" s="7">
+        <v>1</v>
+      </c>
+      <c r="K57" s="7">
+        <v>1</v>
+      </c>
+      <c r="L57" s="7">
+        <v>1</v>
+      </c>
+      <c r="M57" s="7">
+        <v>1</v>
+      </c>
+      <c r="N57" s="7">
+        <v>1</v>
+      </c>
+      <c r="O57" s="7">
+        <v>1</v>
+      </c>
+      <c r="P57" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="10"/>
+      <c r="AJ57" s="45">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AK57" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL57" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39">
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="E2:AM49">
+    <filterColumn colId="9"/>
+    <filterColumn colId="11"/>
+    <filterColumn colId="34"/>
+  </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A52:AL52"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E4:AI49">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
+      <formula>LEN(TRIM(E4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55:AI57">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(E55))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -1150,7 +1150,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1164,7 +1164,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1545,8 +1545,12 @@
       <c r="P5" s="6">
         <v>1</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
+      <c r="Q5" s="6">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6">
+        <v>1</v>
+      </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
@@ -1566,7 +1570,7 @@
       <c r="AI5" s="9"/>
       <c r="AJ5" s="36">
         <f t="shared" ref="AJ5:AJ18" si="0">COUNTIF(E5:AI5,1)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
@@ -1626,8 +1630,12 @@
       <c r="P6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="Q6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
@@ -1655,7 +1663,7 @@
       </c>
       <c r="AL6" s="41">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -1826,8 +1834,12 @@
       <c r="P8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="Q8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -1851,7 +1863,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -1907,8 +1919,12 @@
       <c r="P9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="Q9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -1932,7 +1948,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2226,8 +2242,12 @@
       <c r="P12" s="6">
         <v>1</v>
       </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6">
+        <v>1</v>
+      </c>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
@@ -2247,7 +2267,7 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2307,8 +2327,12 @@
       <c r="P13" s="6">
         <v>1</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="Q13" s="6">
+        <v>1</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -2328,7 +2352,7 @@
       <c r="AI13" s="9"/>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2336,7 +2360,7 @@
       </c>
       <c r="AL13" s="38">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -2388,8 +2412,12 @@
       <c r="P14" s="6">
         <v>1</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="Q14" s="6">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6">
+        <v>1</v>
+      </c>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
@@ -2409,7 +2437,7 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2469,8 +2497,12 @@
       <c r="P15" s="6">
         <v>1</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
+      <c r="Q15" s="6">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6">
+        <v>1</v>
+      </c>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
@@ -2490,7 +2522,7 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2550,8 +2582,12 @@
       <c r="P16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="Q16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -2575,7 +2611,7 @@
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL16" s="38">
         <f t="shared" si="2"/>
@@ -2631,8 +2667,12 @@
       <c r="P17" s="6">
         <v>1</v>
       </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6">
+        <v>1</v>
+      </c>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
@@ -2652,7 +2692,7 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -2712,8 +2752,12 @@
       <c r="P18" s="6">
         <v>1</v>
       </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="Q18" s="6">
+        <v>1</v>
+      </c>
+      <c r="R18" s="6">
+        <v>1</v>
+      </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
@@ -2733,7 +2777,7 @@
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -2793,8 +2837,12 @@
       <c r="P19" s="6">
         <v>1</v>
       </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="Q19" s="6">
+        <v>1</v>
+      </c>
+      <c r="R19" s="6">
+        <v>1</v>
+      </c>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
@@ -2814,7 +2862,7 @@
       <c r="AI19" s="9"/>
       <c r="AJ19" s="36">
         <f t="shared" ref="AJ19:AJ34" si="3">COUNTIF(E19:AI19,1)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
@@ -2874,8 +2922,12 @@
       <c r="P20" s="6">
         <v>1</v>
       </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
+      <c r="Q20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
@@ -2903,7 +2955,7 @@
       </c>
       <c r="AL20" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:39">
@@ -2955,8 +3007,12 @@
       <c r="P21" s="6">
         <v>1</v>
       </c>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
+      <c r="Q21" s="6">
+        <v>1</v>
+      </c>
+      <c r="R21" s="6">
+        <v>1</v>
+      </c>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
@@ -2976,7 +3032,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -3036,8 +3092,12 @@
       <c r="P22" s="6">
         <v>1</v>
       </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
+      <c r="Q22" s="6">
+        <v>1</v>
+      </c>
+      <c r="R22" s="6">
+        <v>1</v>
+      </c>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
@@ -3057,7 +3117,7 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -3117,8 +3177,12 @@
       <c r="P23" s="7">
         <v>1</v>
       </c>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+      <c r="Q23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="R23" s="7">
+        <v>1</v>
+      </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -3138,7 +3202,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="45">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
@@ -3146,7 +3210,7 @@
       </c>
       <c r="AL23" s="47">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:39">
@@ -3198,8 +3262,12 @@
       <c r="P24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
+      <c r="Q24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
@@ -3223,7 +3291,7 @@
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL24" s="44">
         <f t="shared" si="5"/>
@@ -3282,8 +3350,12 @@
       <c r="P25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
+      <c r="Q25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
@@ -3307,7 +3379,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3366,8 +3438,12 @@
       <c r="P26" s="6">
         <v>1</v>
       </c>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
+      <c r="Q26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R26" s="6">
+        <v>1</v>
+      </c>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
@@ -3387,7 +3463,7 @@
       <c r="AI26" s="9"/>
       <c r="AJ26" s="36">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
@@ -3395,7 +3471,7 @@
       </c>
       <c r="AL26" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26" s="3" t="s">
         <v>66</v>
@@ -3450,8 +3526,12 @@
       <c r="P27" s="6">
         <v>1</v>
       </c>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
+      <c r="Q27" s="6">
+        <v>1</v>
+      </c>
+      <c r="R27" s="6">
+        <v>1</v>
+      </c>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
@@ -3471,7 +3551,7 @@
       <c r="AI27" s="9"/>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -3534,8 +3614,12 @@
       <c r="P28" s="6">
         <v>1</v>
       </c>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
+      <c r="Q28" s="6">
+        <v>1</v>
+      </c>
+      <c r="R28" s="6">
+        <v>1</v>
+      </c>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
@@ -3555,7 +3639,7 @@
       <c r="AI28" s="9"/>
       <c r="AJ28" s="36">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK28" s="37">
         <f t="shared" si="4"/>
@@ -3618,8 +3702,12 @@
       <c r="P29" s="6">
         <v>1</v>
       </c>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
+      <c r="Q29" s="6">
+        <v>1</v>
+      </c>
+      <c r="R29" s="6">
+        <v>1</v>
+      </c>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
@@ -3639,7 +3727,7 @@
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -3702,8 +3790,12 @@
       <c r="P30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
+      <c r="Q30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
@@ -3727,7 +3819,7 @@
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL30" s="47">
         <f t="shared" si="5"/>
@@ -3905,8 +3997,12 @@
       <c r="P32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
+      <c r="Q32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
@@ -3930,7 +4026,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -4587,8 +4683,12 @@
       <c r="P38" s="6">
         <v>1</v>
       </c>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
+      <c r="Q38" s="6">
+        <v>1</v>
+      </c>
+      <c r="R38" s="6">
+        <v>1</v>
+      </c>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
@@ -4608,7 +4708,7 @@
       <c r="AI38" s="9"/>
       <c r="AJ38" s="42">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
@@ -4671,70 +4771,36 @@
       <c r="P39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Q39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="U39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="X39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI39" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="Q39" s="6">
+        <v>1</v>
+      </c>
+      <c r="R39" s="6">
+        <v>1</v>
+      </c>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
       <c r="AJ39" s="36">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK39" s="37">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AL39" s="38">
         <f t="shared" si="8"/>
@@ -4793,8 +4859,12 @@
       <c r="P40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
+      <c r="Q40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R40" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
@@ -4818,7 +4888,7 @@
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL40" s="47">
         <f t="shared" si="8"/>
@@ -4877,8 +4947,12 @@
       <c r="P41" s="6">
         <v>1</v>
       </c>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
+      <c r="Q41" s="6">
+        <v>1</v>
+      </c>
+      <c r="R41" s="6">
+        <v>1</v>
+      </c>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
@@ -4898,7 +4972,7 @@
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -4961,8 +5035,12 @@
       <c r="P42" s="6">
         <v>1</v>
       </c>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
+      <c r="Q42" s="6">
+        <v>1</v>
+      </c>
+      <c r="R42" s="6">
+        <v>1</v>
+      </c>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
@@ -4982,7 +5060,7 @@
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -5045,8 +5123,12 @@
       <c r="P43" s="6">
         <v>1</v>
       </c>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
+      <c r="Q43" s="6">
+        <v>1</v>
+      </c>
+      <c r="R43" s="6">
+        <v>1</v>
+      </c>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
@@ -5066,7 +5148,7 @@
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -5129,8 +5211,12 @@
       <c r="P44" s="6">
         <v>1</v>
       </c>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
+      <c r="Q44" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R44" s="6">
+        <v>1</v>
+      </c>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
@@ -5150,7 +5236,7 @@
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -5158,7 +5244,7 @@
       </c>
       <c r="AL44" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM44" s="3" t="s">
         <v>66</v>
@@ -5213,8 +5299,12 @@
       <c r="P45" s="6">
         <v>1</v>
       </c>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
+      <c r="Q45" s="6">
+        <v>1</v>
+      </c>
+      <c r="R45" s="6">
+        <v>1</v>
+      </c>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
@@ -5234,7 +5324,7 @@
       <c r="AI45" s="9"/>
       <c r="AJ45" s="36">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
@@ -5294,8 +5384,12 @@
       <c r="P46" s="6">
         <v>1</v>
       </c>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
+      <c r="Q46" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R46" s="6">
+        <v>1</v>
+      </c>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
@@ -5315,7 +5409,7 @@
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -5323,7 +5417,7 @@
       </c>
       <c r="AL46" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:39" ht="16.5" thickBot="1">
@@ -5375,8 +5469,12 @@
       <c r="P47" s="7">
         <v>1</v>
       </c>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
+      <c r="Q47" s="7">
+        <v>1</v>
+      </c>
+      <c r="R47" s="7">
+        <v>1</v>
+      </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
@@ -5396,7 +5494,7 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -5456,8 +5554,12 @@
       <c r="P48" s="6">
         <v>1</v>
       </c>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
+      <c r="Q48" s="6">
+        <v>1</v>
+      </c>
+      <c r="R48" s="6">
+        <v>1</v>
+      </c>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
@@ -5477,7 +5579,7 @@
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -5537,8 +5639,12 @@
       <c r="P49" s="7">
         <v>1</v>
       </c>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
+      <c r="Q49" s="7">
+        <v>1</v>
+      </c>
+      <c r="R49" s="7">
+        <v>1</v>
+      </c>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
@@ -5558,7 +5664,7 @@
       <c r="AI49" s="10"/>
       <c r="AJ49" s="45">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK49" s="46">
         <f t="shared" si="7"/>
@@ -5582,7 +5688,7 @@
     <row r="52" spans="1:39">
       <c r="A52" s="54" t="str">
         <f ca="1">"Табель работы автобусов за " &amp; RIGHT(CELL("имяфайла"),LEN(CELL("имяфайла"))-SEARCH("]",CELL("имяфайла"),1)) &amp; " автоколонны № 2 г. Смолевичи"</f>
-        <v>Табель работы автобусов за Ноябрь 2018 автоколонны № 2 г. Смолевичи</v>
+        <v>Табель работы автобусов за Октябрь 2018 автоколонны № 2 г. Смолевичи</v>
       </c>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -5946,8 +6052,12 @@
       <c r="P56" s="6">
         <v>1</v>
       </c>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
+      <c r="Q56" s="6">
+        <v>1</v>
+      </c>
+      <c r="R56" s="6">
+        <v>1</v>
+      </c>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
@@ -5967,7 +6077,7 @@
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -6030,8 +6140,12 @@
       <c r="P57" s="7">
         <v>1</v>
       </c>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
+      <c r="Q57" s="7">
+        <v>1</v>
+      </c>
+      <c r="R57" s="7">
+        <v>1</v>
+      </c>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
@@ -6051,7 +6165,7 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>
@@ -6412,15 +6526,15 @@
         <v>65</v>
       </c>
       <c r="AI4" s="36">
-        <f>COUNTIF(E4:AH4,1)</f>
+        <f t="shared" ref="AI4:AI49" si="0">COUNTIF(E4:AH4,1)</f>
         <v>0</v>
       </c>
       <c r="AJ4" s="37">
-        <f>COUNTIF(E4:AH4,"тр")</f>
+        <f t="shared" ref="AJ4:AJ49" si="1">COUNTIF(E4:AH4,"тр")</f>
         <v>30</v>
       </c>
       <c r="AK4" s="38">
-        <f>COUNTIF(E4:AH4,"бв")</f>
+        <f t="shared" ref="AK4:AK49" si="2">COUNTIF(E4:AH4,"бв")</f>
         <v>0</v>
       </c>
     </row>
@@ -6468,15 +6582,15 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="36">
-        <f>COUNTIF(E5:AH5,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ5" s="37">
-        <f>COUNTIF(E5:AH5,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK5" s="38">
-        <f>COUNTIF(E5:AH5,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6524,15 +6638,15 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
       <c r="AI6" s="39">
-        <f>COUNTIF(E6:AH6,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ6" s="40">
-        <f>COUNTIF(E6:AH6,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK6" s="41">
-        <f>COUNTIF(E6:AH6,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6640,15 +6754,15 @@
         <v>65</v>
       </c>
       <c r="AI7" s="42">
-        <f>COUNTIF(E7:AH7,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ7" s="43">
-        <f>COUNTIF(E7:AH7,"тр")</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AK7" s="44">
-        <f>COUNTIF(E7:AH7,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6696,15 +6810,15 @@
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="36">
-        <f>COUNTIF(E8:AH8,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ8" s="37">
-        <f>COUNTIF(E8:AH8,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK8" s="38">
-        <f>COUNTIF(E8:AH8,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6752,15 +6866,15 @@
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="36">
-        <f>COUNTIF(E9:AH9,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ9" s="37">
-        <f>COUNTIF(E9:AH9,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK9" s="38">
-        <f>COUNTIF(E9:AH9,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6868,15 +6982,15 @@
         <v>65</v>
       </c>
       <c r="AI10" s="36">
-        <f>COUNTIF(E10:AH10,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ10" s="37">
-        <f>COUNTIF(E10:AH10,"тр")</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AK10" s="38">
-        <f>COUNTIF(E10:AH10,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6984,15 +7098,15 @@
         <v>65</v>
       </c>
       <c r="AI11" s="36">
-        <f>COUNTIF(E11:AH11,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="37">
-        <f>COUNTIF(E11:AH11,"тр")</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AK11" s="38">
-        <f>COUNTIF(E11:AH11,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7040,15 +7154,15 @@
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="36">
-        <f>COUNTIF(E12:AH12,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="37">
-        <f>COUNTIF(E12:AH12,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK12" s="38">
-        <f>COUNTIF(E12:AH12,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7096,15 +7210,15 @@
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="36">
-        <f>COUNTIF(E13:AH13,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ13" s="37">
-        <f>COUNTIF(E13:AH13,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK13" s="38">
-        <f>COUNTIF(E13:AH13,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7152,15 +7266,15 @@
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="36">
-        <f>COUNTIF(E14:AH14,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ14" s="37">
-        <f>COUNTIF(E14:AH14,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK14" s="38">
-        <f>COUNTIF(E14:AH14,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7208,15 +7322,15 @@
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="36">
-        <f>COUNTIF(E15:AH15,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ15" s="37">
-        <f>COUNTIF(E15:AH15,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK15" s="38">
-        <f>COUNTIF(E15:AH15,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7264,15 +7378,15 @@
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="36">
-        <f>COUNTIF(E16:AH16,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="37">
-        <f>COUNTIF(E16:AH16,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK16" s="38">
-        <f>COUNTIF(E16:AH16,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7320,15 +7434,15 @@
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="36">
-        <f>COUNTIF(E17:AH17,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ17" s="37">
-        <f>COUNTIF(E17:AH17,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK17" s="38">
-        <f>COUNTIF(E17:AH17,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7376,15 +7490,15 @@
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="36">
-        <f>COUNTIF(E18:AH18,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ18" s="37">
-        <f>COUNTIF(E18:AH18,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK18" s="38">
-        <f>COUNTIF(E18:AH18,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7432,15 +7546,15 @@
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="36">
-        <f>COUNTIF(E19:AH19,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ19" s="37">
-        <f>COUNTIF(E19:AH19,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK19" s="38">
-        <f>COUNTIF(E19:AH19,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7488,15 +7602,15 @@
       <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="36">
-        <f>COUNTIF(E20:AH20,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ20" s="37">
-        <f>COUNTIF(E20:AH20,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK20" s="38">
-        <f>COUNTIF(E20:AH20,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7544,15 +7658,15 @@
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="36">
-        <f>COUNTIF(E21:AH21,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ21" s="37">
-        <f>COUNTIF(E21:AH21,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK21" s="38">
-        <f>COUNTIF(E21:AH21,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7600,15 +7714,15 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="36">
-        <f>COUNTIF(E22:AH22,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ22" s="37">
-        <f>COUNTIF(E22:AH22,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK22" s="38">
-        <f>COUNTIF(E22:AH22,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7656,15 +7770,15 @@
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
       <c r="AI23" s="45">
-        <f>COUNTIF(E23:AH23,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ23" s="46">
-        <f>COUNTIF(E23:AH23,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK23" s="47">
-        <f>COUNTIF(E23:AH23,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7712,15 +7826,15 @@
       <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="42">
-        <f>COUNTIF(E24:AH24,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ24" s="43">
-        <f>COUNTIF(E24:AH24,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK24" s="44">
-        <f>COUNTIF(E24:AH24,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL24" s="3" t="s">
@@ -7771,15 +7885,15 @@
       <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="36">
-        <f>COUNTIF(E25:AH25,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ25" s="37">
-        <f>COUNTIF(E25:AH25,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK25" s="38">
-        <f>COUNTIF(E25:AH25,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL25" s="3" t="s">
@@ -7830,15 +7944,15 @@
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="36">
-        <f>COUNTIF(E26:AH26,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ26" s="37">
-        <f>COUNTIF(E26:AH26,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK26" s="38">
-        <f>COUNTIF(E26:AH26,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL26" s="3" t="s">
@@ -7889,15 +8003,15 @@
       <c r="AG27" s="6"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="36">
-        <f>COUNTIF(E27:AH27,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ27" s="37">
-        <f>COUNTIF(E27:AH27,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK27" s="38">
-        <f>COUNTIF(E27:AH27,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL27" s="3" t="s">
@@ -7948,15 +8062,15 @@
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="36">
-        <f>COUNTIF(E28:AH28,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ28" s="37">
-        <f>COUNTIF(E28:AH28,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK28" s="38">
-        <f>COUNTIF(E28:AH28,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL28" s="3" t="s">
@@ -8007,15 +8121,15 @@
       <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
       <c r="AI29" s="36">
-        <f>COUNTIF(E29:AH29,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ29" s="37">
-        <f>COUNTIF(E29:AH29,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK29" s="38">
-        <f>COUNTIF(E29:AH29,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL29" s="3" t="s">
@@ -8066,15 +8180,15 @@
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
       <c r="AI30" s="45">
-        <f>COUNTIF(E30:AH30,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ30" s="46">
-        <f>COUNTIF(E30:AH30,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK30" s="47">
-        <f>COUNTIF(E30:AH30,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL30" s="3" t="s">
@@ -8125,15 +8239,15 @@
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
       <c r="AI31" s="42">
-        <f>COUNTIF(E31:AH31,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ31" s="43">
-        <f>COUNTIF(E31:AH31,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK31" s="44">
-        <f>COUNTIF(E31:AH31,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8181,15 +8295,15 @@
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="36">
-        <f>COUNTIF(E32:AH32,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ32" s="37">
-        <f>COUNTIF(E32:AH32,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK32" s="38">
-        <f>COUNTIF(E32:AH32,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8297,15 +8411,15 @@
         <v>65</v>
       </c>
       <c r="AI33" s="45">
-        <f>COUNTIF(E33:AH33,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ33" s="46">
-        <f>COUNTIF(E33:AH33,"тр")</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AK33" s="47">
-        <f>COUNTIF(E33:AH33,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL33" s="3" t="s">
@@ -8416,15 +8530,15 @@
         <v>65</v>
       </c>
       <c r="AI34" s="42">
-        <f>COUNTIF(E34:AH34,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ34" s="43">
-        <f>COUNTIF(E34:AH34,"тр")</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AK34" s="44">
-        <f>COUNTIF(E34:AH34,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8532,15 +8646,15 @@
         <v>65</v>
       </c>
       <c r="AI35" s="45">
-        <f>COUNTIF(E35:AH35,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ35" s="46">
-        <f>COUNTIF(E35:AH35,"тр")</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AK35" s="47">
-        <f>COUNTIF(E35:AH35,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8648,15 +8762,15 @@
         <v>65</v>
       </c>
       <c r="AI36" s="42">
-        <f>COUNTIF(E36:AH36,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="43">
-        <f>COUNTIF(E36:AH36,"тр")</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AK36" s="44">
-        <f>COUNTIF(E36:AH36,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL36" s="3" t="s">
@@ -8767,15 +8881,15 @@
         <v>65</v>
       </c>
       <c r="AI37" s="45">
-        <f>COUNTIF(E37:AH37,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ37" s="46">
-        <f>COUNTIF(E37:AH37,"тр")</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AK37" s="47">
-        <f>COUNTIF(E37:AH37,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8823,15 +8937,15 @@
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="42">
-        <f>COUNTIF(E38:AH38,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ38" s="43">
-        <f>COUNTIF(E38:AH38,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK38" s="44">
-        <f>COUNTIF(E38:AH38,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL38" s="3" t="s">
@@ -8942,15 +9056,15 @@
         <v>65</v>
       </c>
       <c r="AI39" s="36">
-        <f>COUNTIF(E39:AH39,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ39" s="37">
-        <f>COUNTIF(E39:AH39,"тр")</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AK39" s="38">
-        <f>COUNTIF(E39:AH39,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL39" s="3" t="s">
@@ -9001,15 +9115,15 @@
       <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
       <c r="AI40" s="45">
-        <f>COUNTIF(E40:AH40,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="46">
-        <f>COUNTIF(E40:AH40,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK40" s="47">
-        <f>COUNTIF(E40:AH40,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL40" s="3" t="s">
@@ -9060,15 +9174,15 @@
       <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
       <c r="AI41" s="42">
-        <f>COUNTIF(E41:AH41,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ41" s="43">
-        <f>COUNTIF(E41:AH41,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK41" s="44">
-        <f>COUNTIF(E41:AH41,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL41" s="3" t="s">
@@ -9119,15 +9233,15 @@
       <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="36">
-        <f>COUNTIF(E42:AH42,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ42" s="37">
-        <f>COUNTIF(E42:AH42,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK42" s="38">
-        <f>COUNTIF(E42:AH42,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL42" s="3" t="s">
@@ -9178,15 +9292,15 @@
       <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
       <c r="AI43" s="36">
-        <f>COUNTIF(E43:AH43,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ43" s="37">
-        <f>COUNTIF(E43:AH43,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK43" s="38">
-        <f>COUNTIF(E43:AH43,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL43" s="3" t="s">
@@ -9237,15 +9351,15 @@
       <c r="AG44" s="6"/>
       <c r="AH44" s="6"/>
       <c r="AI44" s="36">
-        <f>COUNTIF(E44:AH44,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ44" s="37">
-        <f>COUNTIF(E44:AH44,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK44" s="38">
-        <f>COUNTIF(E44:AH44,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL44" s="3" t="s">
@@ -9296,15 +9410,15 @@
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
       <c r="AI45" s="36">
-        <f>COUNTIF(E45:AH45,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ45" s="37">
-        <f>COUNTIF(E45:AH45,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK45" s="38">
-        <f>COUNTIF(E45:AH45,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9352,15 +9466,15 @@
       <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="36">
-        <f>COUNTIF(E46:AH46,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ46" s="37">
-        <f>COUNTIF(E46:AH46,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK46" s="38">
-        <f>COUNTIF(E46:AH46,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9408,15 +9522,15 @@
       <c r="AG47" s="7"/>
       <c r="AH47" s="7"/>
       <c r="AI47" s="45">
-        <f>COUNTIF(E47:AH47,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ47" s="46">
-        <f>COUNTIF(E47:AH47,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK47" s="47">
-        <f>COUNTIF(E47:AH47,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9464,15 +9578,15 @@
       <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="42">
-        <f>COUNTIF(E48:AH48,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ48" s="43">
-        <f>COUNTIF(E48:AH48,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK48" s="44">
-        <f>COUNTIF(E48:AH48,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9520,15 +9634,15 @@
       <c r="AG49" s="7"/>
       <c r="AH49" s="7"/>
       <c r="AI49" s="45">
-        <f>COUNTIF(E49:AH49,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ49" s="46">
-        <f>COUNTIF(E49:AH49,"тр")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK49" s="47">
-        <f>COUNTIF(E49:AH49,"бв")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9545,7 +9659,7 @@
     <row r="52" spans="1:38">
       <c r="A52" s="54" t="str">
         <f ca="1">"Табель работы автобусов за " &amp; RIGHT(CELL("имяфайла"),LEN(CELL("имяфайла"))-SEARCH("]",CELL("имяфайла"),1)) &amp; " автоколонны № 2 г. Смолевичи"</f>
-        <v>Табель работы автобусов за Ноябрь 2018 автоколонны № 2 г. Смолевичи</v>
+        <v>Табель работы автобусов за Октябрь 2018 автоколонны № 2 г. Смолевичи</v>
       </c>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -10031,7 +10145,7 @@
     <mergeCell ref="A52:AK52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AH49 E55:AH57">
-    <cfRule type="containsBlanks" dxfId="0" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13564,7 +13678,7 @@
     <row r="52" spans="1:39">
       <c r="A52" s="54" t="str">
         <f ca="1">"Табель работы автобусов за " &amp; RIGHT(CELL("имяфайла"),LEN(CELL("имяфайла"))-SEARCH("]",CELL("имяфайла"),1)) &amp; " автоколонны № 2 г. Смолевичи"</f>
-        <v>Табель работы автобусов за Ноябрь 2018 автоколонны № 2 г. Смолевичи</v>
+        <v>Табель работы автобусов за Октябрь 2018 автоколонны № 2 г. Смолевичи</v>
       </c>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -14060,12 +14174,12 @@
     <mergeCell ref="A52:AL52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AI49">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:AI57">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(E55))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -1150,7 +1150,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1164,7 +1164,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
+      <selection pane="bottomRight" activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1551,7 +1551,9 @@
       <c r="R5" s="6">
         <v>1</v>
       </c>
-      <c r="S5" s="6"/>
+      <c r="S5" s="6">
+        <v>1</v>
+      </c>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -1570,7 +1572,7 @@
       <c r="AI5" s="9"/>
       <c r="AJ5" s="36">
         <f t="shared" ref="AJ5:AJ18" si="0">COUNTIF(E5:AI5,1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
@@ -1625,18 +1627,20 @@
         <v>65</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="S6" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -1659,11 +1663,11 @@
       </c>
       <c r="AK6" s="40">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AL6" s="41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -1840,7 +1844,9 @@
       <c r="R8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="S8" s="6"/>
+      <c r="S8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
@@ -1863,7 +1869,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -1925,7 +1931,9 @@
       <c r="R9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="S9" s="6"/>
+      <c r="S9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
@@ -1948,7 +1956,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2248,7 +2256,9 @@
       <c r="R12" s="6">
         <v>1</v>
       </c>
-      <c r="S12" s="6"/>
+      <c r="S12" s="6">
+        <v>1</v>
+      </c>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
@@ -2267,7 +2277,7 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2333,7 +2343,9 @@
       <c r="R13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="S13" s="6"/>
+      <c r="S13" s="6">
+        <v>1</v>
+      </c>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
@@ -2352,7 +2364,7 @@
       <c r="AI13" s="9"/>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2418,7 +2430,9 @@
       <c r="R14" s="6">
         <v>1</v>
       </c>
-      <c r="S14" s="6"/>
+      <c r="S14" s="6">
+        <v>1</v>
+      </c>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -2437,7 +2451,7 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2503,7 +2517,9 @@
       <c r="R15" s="6">
         <v>1</v>
       </c>
-      <c r="S15" s="6"/>
+      <c r="S15" s="6">
+        <v>1</v>
+      </c>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
@@ -2522,7 +2538,7 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2588,7 +2604,9 @@
       <c r="R16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="S16" s="6"/>
+      <c r="S16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
@@ -2611,7 +2629,7 @@
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL16" s="38">
         <f t="shared" si="2"/>
@@ -2673,7 +2691,9 @@
       <c r="R17" s="6">
         <v>1</v>
       </c>
-      <c r="S17" s="6"/>
+      <c r="S17" s="6">
+        <v>1</v>
+      </c>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
@@ -2692,7 +2712,7 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -2758,7 +2778,9 @@
       <c r="R18" s="6">
         <v>1</v>
       </c>
-      <c r="S18" s="6"/>
+      <c r="S18" s="6">
+        <v>1</v>
+      </c>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
@@ -2777,7 +2799,7 @@
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -2843,7 +2865,9 @@
       <c r="R19" s="6">
         <v>1</v>
       </c>
-      <c r="S19" s="6"/>
+      <c r="S19" s="6">
+        <v>1</v>
+      </c>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
@@ -2862,7 +2886,7 @@
       <c r="AI19" s="9"/>
       <c r="AJ19" s="36">
         <f t="shared" ref="AJ19:AJ34" si="3">COUNTIF(E19:AI19,1)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
@@ -2928,7 +2952,9 @@
       <c r="R20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="S20" s="6"/>
+      <c r="S20" s="6">
+        <v>1</v>
+      </c>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
@@ -2947,7 +2973,7 @@
       <c r="AI20" s="9"/>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
@@ -3013,7 +3039,9 @@
       <c r="R21" s="6">
         <v>1</v>
       </c>
-      <c r="S21" s="6"/>
+      <c r="S21" s="6">
+        <v>1</v>
+      </c>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
@@ -3032,7 +3060,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -3098,7 +3126,9 @@
       <c r="R22" s="6">
         <v>1</v>
       </c>
-      <c r="S22" s="6"/>
+      <c r="S22" s="6">
+        <v>1</v>
+      </c>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
@@ -3117,7 +3147,7 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -3183,7 +3213,9 @@
       <c r="R23" s="7">
         <v>1</v>
       </c>
-      <c r="S23" s="7"/>
+      <c r="S23" s="7">
+        <v>1</v>
+      </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -3202,7 +3234,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="45">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
@@ -3268,7 +3300,9 @@
       <c r="R24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="S24" s="6"/>
+      <c r="S24" s="6">
+        <v>1</v>
+      </c>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
@@ -3287,7 +3321,7 @@
       <c r="AI24" s="9"/>
       <c r="AJ24" s="42">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
@@ -3356,7 +3390,9 @@
       <c r="R25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="S25" s="6"/>
+      <c r="S25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
@@ -3379,7 +3415,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3444,7 +3480,9 @@
       <c r="R26" s="6">
         <v>1</v>
       </c>
-      <c r="S26" s="6"/>
+      <c r="S26" s="6">
+        <v>1</v>
+      </c>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
@@ -3463,7 +3501,7 @@
       <c r="AI26" s="9"/>
       <c r="AJ26" s="36">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
@@ -3532,7 +3570,9 @@
       <c r="R27" s="6">
         <v>1</v>
       </c>
-      <c r="S27" s="6"/>
+      <c r="S27" s="6">
+        <v>1</v>
+      </c>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
@@ -3551,7 +3591,7 @@
       <c r="AI27" s="9"/>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -3620,7 +3660,9 @@
       <c r="R28" s="6">
         <v>1</v>
       </c>
-      <c r="S28" s="6"/>
+      <c r="S28" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
@@ -3647,7 +3689,7 @@
       </c>
       <c r="AL28" s="38">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM28" s="3" t="s">
         <v>66</v>
@@ -3708,7 +3750,9 @@
       <c r="R29" s="6">
         <v>1</v>
       </c>
-      <c r="S29" s="6"/>
+      <c r="S29" s="6">
+        <v>1</v>
+      </c>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
@@ -3727,7 +3771,7 @@
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -3796,7 +3840,9 @@
       <c r="R30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="S30" s="7"/>
+      <c r="S30" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
@@ -3819,7 +3865,7 @@
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL30" s="47">
         <f t="shared" si="5"/>
@@ -4003,7 +4049,9 @@
       <c r="R32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="S32" s="6"/>
+      <c r="S32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
@@ -4026,7 +4074,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -4689,7 +4737,9 @@
       <c r="R38" s="6">
         <v>1</v>
       </c>
-      <c r="S38" s="6"/>
+      <c r="S38" s="6">
+        <v>1</v>
+      </c>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
@@ -4708,7 +4758,7 @@
       <c r="AI38" s="9"/>
       <c r="AJ38" s="42">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
@@ -4777,7 +4827,9 @@
       <c r="R39" s="6">
         <v>1</v>
       </c>
-      <c r="S39" s="6"/>
+      <c r="S39" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
@@ -4800,7 +4852,7 @@
       </c>
       <c r="AK39" s="37">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL39" s="38">
         <f t="shared" si="8"/>
@@ -4865,7 +4917,9 @@
       <c r="R40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="S40" s="7"/>
+      <c r="S40" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
@@ -4888,7 +4942,7 @@
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL40" s="47">
         <f t="shared" si="8"/>
@@ -4953,7 +5007,9 @@
       <c r="R41" s="6">
         <v>1</v>
       </c>
-      <c r="S41" s="6"/>
+      <c r="S41" s="6">
+        <v>1</v>
+      </c>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
@@ -4972,7 +5028,7 @@
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -5041,7 +5097,9 @@
       <c r="R42" s="6">
         <v>1</v>
       </c>
-      <c r="S42" s="6"/>
+      <c r="S42" s="6">
+        <v>1</v>
+      </c>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
@@ -5060,7 +5118,7 @@
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -5129,7 +5187,9 @@
       <c r="R43" s="6">
         <v>1</v>
       </c>
-      <c r="S43" s="6"/>
+      <c r="S43" s="6">
+        <v>1</v>
+      </c>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
@@ -5148,7 +5208,7 @@
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -5217,7 +5277,9 @@
       <c r="R44" s="6">
         <v>1</v>
       </c>
-      <c r="S44" s="6"/>
+      <c r="S44" s="6">
+        <v>1</v>
+      </c>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
@@ -5236,7 +5298,7 @@
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -5305,7 +5367,9 @@
       <c r="R45" s="6">
         <v>1</v>
       </c>
-      <c r="S45" s="6"/>
+      <c r="S45" s="6">
+        <v>1</v>
+      </c>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
@@ -5324,7 +5388,7 @@
       <c r="AI45" s="9"/>
       <c r="AJ45" s="36">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
@@ -5390,7 +5454,9 @@
       <c r="R46" s="6">
         <v>1</v>
       </c>
-      <c r="S46" s="6"/>
+      <c r="S46" s="6">
+        <v>1</v>
+      </c>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
@@ -5409,7 +5475,7 @@
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -5475,7 +5541,9 @@
       <c r="R47" s="7">
         <v>1</v>
       </c>
-      <c r="S47" s="7"/>
+      <c r="S47" s="7">
+        <v>1</v>
+      </c>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
@@ -5494,7 +5562,7 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -5560,7 +5628,9 @@
       <c r="R48" s="6">
         <v>1</v>
       </c>
-      <c r="S48" s="6"/>
+      <c r="S48" s="6">
+        <v>1</v>
+      </c>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
@@ -5579,7 +5649,7 @@
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -5645,7 +5715,9 @@
       <c r="R49" s="7">
         <v>1</v>
       </c>
-      <c r="S49" s="7"/>
+      <c r="S49" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -5672,7 +5744,7 @@
       </c>
       <c r="AL49" s="47">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:39">
@@ -6058,7 +6130,9 @@
       <c r="R56" s="6">
         <v>1</v>
       </c>
-      <c r="S56" s="6"/>
+      <c r="S56" s="6">
+        <v>1</v>
+      </c>
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
@@ -6077,7 +6151,7 @@
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -6146,7 +6220,9 @@
       <c r="R57" s="7">
         <v>1</v>
       </c>
-      <c r="S57" s="7"/>
+      <c r="S57" s="7">
+        <v>1</v>
+      </c>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
@@ -6165,7 +6241,7 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -1150,7 +1150,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1164,7 +1164,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S38" sqref="S38"/>
+      <selection pane="bottomRight" activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1554,7 +1554,9 @@
       <c r="S5" s="6">
         <v>1</v>
       </c>
-      <c r="T5" s="6"/>
+      <c r="T5" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
@@ -1576,7 +1578,7 @@
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL5" s="38">
         <f t="shared" ref="AL5:AL18" si="2">COUNTIF(E5:AI5,"бв")</f>
@@ -1641,7 +1643,9 @@
       <c r="S6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="7"/>
+      <c r="T6" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
@@ -1667,7 +1671,7 @@
       </c>
       <c r="AL6" s="41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -1847,7 +1851,9 @@
       <c r="S8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T8" s="6"/>
+      <c r="T8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -1869,7 +1875,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -1934,7 +1940,9 @@
       <c r="S9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T9" s="6"/>
+      <c r="T9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -1956,7 +1964,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2259,7 +2267,9 @@
       <c r="S12" s="6">
         <v>1</v>
       </c>
-      <c r="T12" s="6"/>
+      <c r="T12" s="6">
+        <v>1</v>
+      </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
@@ -2277,7 +2287,7 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2346,7 +2356,9 @@
       <c r="S13" s="6">
         <v>1</v>
       </c>
-      <c r="T13" s="6"/>
+      <c r="T13" s="6">
+        <v>1</v>
+      </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
@@ -2364,7 +2376,7 @@
       <c r="AI13" s="9"/>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2433,7 +2445,9 @@
       <c r="S14" s="6">
         <v>1</v>
       </c>
-      <c r="T14" s="6"/>
+      <c r="T14" s="6">
+        <v>1</v>
+      </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
@@ -2451,7 +2465,7 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2520,7 +2534,9 @@
       <c r="S15" s="6">
         <v>1</v>
       </c>
-      <c r="T15" s="6"/>
+      <c r="T15" s="6">
+        <v>1</v>
+      </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
@@ -2538,7 +2554,7 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2607,7 +2623,9 @@
       <c r="S16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T16" s="6"/>
+      <c r="T16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
@@ -2629,7 +2647,7 @@
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL16" s="38">
         <f t="shared" si="2"/>
@@ -2694,7 +2712,9 @@
       <c r="S17" s="6">
         <v>1</v>
       </c>
-      <c r="T17" s="6"/>
+      <c r="T17" s="6">
+        <v>1</v>
+      </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
@@ -2712,7 +2732,7 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -2781,7 +2801,9 @@
       <c r="S18" s="6">
         <v>1</v>
       </c>
-      <c r="T18" s="6"/>
+      <c r="T18" s="6">
+        <v>1</v>
+      </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
@@ -2799,7 +2821,7 @@
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -2868,7 +2890,9 @@
       <c r="S19" s="6">
         <v>1</v>
       </c>
-      <c r="T19" s="6"/>
+      <c r="T19" s="6">
+        <v>1</v>
+      </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
@@ -2886,7 +2910,7 @@
       <c r="AI19" s="9"/>
       <c r="AJ19" s="36">
         <f t="shared" ref="AJ19:AJ34" si="3">COUNTIF(E19:AI19,1)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
@@ -2955,7 +2979,9 @@
       <c r="S20" s="6">
         <v>1</v>
       </c>
-      <c r="T20" s="6"/>
+      <c r="T20" s="6">
+        <v>1</v>
+      </c>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
@@ -2973,7 +2999,7 @@
       <c r="AI20" s="9"/>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
@@ -3042,7 +3068,9 @@
       <c r="S21" s="6">
         <v>1</v>
       </c>
-      <c r="T21" s="6"/>
+      <c r="T21" s="6">
+        <v>1</v>
+      </c>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -3060,7 +3088,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -3129,7 +3157,9 @@
       <c r="S22" s="6">
         <v>1</v>
       </c>
-      <c r="T22" s="6"/>
+      <c r="T22" s="6">
+        <v>1</v>
+      </c>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
@@ -3147,7 +3177,7 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -3216,7 +3246,9 @@
       <c r="S23" s="7">
         <v>1</v>
       </c>
-      <c r="T23" s="7"/>
+      <c r="T23" s="7">
+        <v>1</v>
+      </c>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
@@ -3234,7 +3266,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="45">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
@@ -3303,7 +3335,9 @@
       <c r="S24" s="6">
         <v>1</v>
       </c>
-      <c r="T24" s="6"/>
+      <c r="T24" s="6">
+        <v>1</v>
+      </c>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
@@ -3321,7 +3355,7 @@
       <c r="AI24" s="9"/>
       <c r="AJ24" s="42">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
@@ -3393,7 +3427,9 @@
       <c r="S25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T25" s="6"/>
+      <c r="T25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
@@ -3415,7 +3451,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3483,7 +3519,9 @@
       <c r="S26" s="6">
         <v>1</v>
       </c>
-      <c r="T26" s="6"/>
+      <c r="T26" s="6">
+        <v>1</v>
+      </c>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
@@ -3501,7 +3539,7 @@
       <c r="AI26" s="9"/>
       <c r="AJ26" s="36">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
@@ -3573,7 +3611,9 @@
       <c r="S27" s="6">
         <v>1</v>
       </c>
-      <c r="T27" s="6"/>
+      <c r="T27" s="6">
+        <v>1</v>
+      </c>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
@@ -3591,7 +3631,7 @@
       <c r="AI27" s="9"/>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -3663,7 +3703,9 @@
       <c r="S28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="T28" s="6"/>
+      <c r="T28" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
@@ -3689,7 +3731,7 @@
       </c>
       <c r="AL28" s="38">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM28" s="3" t="s">
         <v>66</v>
@@ -3753,7 +3795,9 @@
       <c r="S29" s="6">
         <v>1</v>
       </c>
-      <c r="T29" s="6"/>
+      <c r="T29" s="6">
+        <v>1</v>
+      </c>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
@@ -3771,7 +3815,7 @@
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -3843,7 +3887,9 @@
       <c r="S30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="T30" s="7"/>
+      <c r="T30" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
@@ -3865,7 +3911,7 @@
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL30" s="47">
         <f t="shared" si="5"/>
@@ -4052,7 +4098,9 @@
       <c r="S32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T32" s="6"/>
+      <c r="T32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
@@ -4074,7 +4122,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -4740,7 +4788,9 @@
       <c r="S38" s="6">
         <v>1</v>
       </c>
-      <c r="T38" s="6"/>
+      <c r="T38" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
@@ -4766,7 +4816,7 @@
       </c>
       <c r="AL38" s="44">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM38" s="3" t="s">
         <v>66</v>
@@ -4830,7 +4880,9 @@
       <c r="S39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T39" s="6"/>
+      <c r="T39" s="6">
+        <v>1</v>
+      </c>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
@@ -4848,7 +4900,7 @@
       <c r="AI39" s="6"/>
       <c r="AJ39" s="36">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK39" s="37">
         <f t="shared" si="7"/>
@@ -4920,7 +4972,9 @@
       <c r="S40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="T40" s="7"/>
+      <c r="T40" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
@@ -4942,7 +4996,7 @@
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL40" s="47">
         <f t="shared" si="8"/>
@@ -5010,7 +5064,9 @@
       <c r="S41" s="6">
         <v>1</v>
       </c>
-      <c r="T41" s="6"/>
+      <c r="T41" s="6">
+        <v>1</v>
+      </c>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
@@ -5028,7 +5084,7 @@
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -5100,7 +5156,9 @@
       <c r="S42" s="6">
         <v>1</v>
       </c>
-      <c r="T42" s="6"/>
+      <c r="T42" s="6">
+        <v>1</v>
+      </c>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
@@ -5118,7 +5176,7 @@
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -5190,7 +5248,9 @@
       <c r="S43" s="6">
         <v>1</v>
       </c>
-      <c r="T43" s="6"/>
+      <c r="T43" s="6">
+        <v>1</v>
+      </c>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
@@ -5208,7 +5268,7 @@
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -5280,7 +5340,9 @@
       <c r="S44" s="6">
         <v>1</v>
       </c>
-      <c r="T44" s="6"/>
+      <c r="T44" s="6">
+        <v>1</v>
+      </c>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
@@ -5298,7 +5360,7 @@
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -5370,7 +5432,9 @@
       <c r="S45" s="6">
         <v>1</v>
       </c>
-      <c r="T45" s="6"/>
+      <c r="T45" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
@@ -5392,7 +5456,7 @@
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL45" s="38">
         <f t="shared" si="8"/>
@@ -5457,7 +5521,9 @@
       <c r="S46" s="6">
         <v>1</v>
       </c>
-      <c r="T46" s="6"/>
+      <c r="T46" s="6">
+        <v>1</v>
+      </c>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
@@ -5475,7 +5541,7 @@
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -5544,7 +5610,9 @@
       <c r="S47" s="7">
         <v>1</v>
       </c>
-      <c r="T47" s="7"/>
+      <c r="T47" s="7">
+        <v>1</v>
+      </c>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
@@ -5562,7 +5630,7 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -5631,7 +5699,9 @@
       <c r="S48" s="6">
         <v>1</v>
       </c>
-      <c r="T48" s="6"/>
+      <c r="T48" s="6">
+        <v>1</v>
+      </c>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
@@ -5649,7 +5719,7 @@
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -5718,7 +5788,9 @@
       <c r="S49" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="T49" s="7"/>
+      <c r="T49" s="7">
+        <v>1</v>
+      </c>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
       <c r="W49" s="7"/>
@@ -5736,7 +5808,7 @@
       <c r="AI49" s="10"/>
       <c r="AJ49" s="45">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK49" s="46">
         <f t="shared" si="7"/>
@@ -6133,7 +6205,9 @@
       <c r="S56" s="6">
         <v>1</v>
       </c>
-      <c r="T56" s="6"/>
+      <c r="T56" s="6">
+        <v>1</v>
+      </c>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
@@ -6151,7 +6225,7 @@
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -6223,7 +6297,9 @@
       <c r="S57" s="7">
         <v>1</v>
       </c>
-      <c r="T57" s="7"/>
+      <c r="T57" s="7">
+        <v>1</v>
+      </c>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
@@ -6241,7 +6317,7 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -1150,7 +1150,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1161,10 +1161,10 @@
   <dimension ref="A1:AM58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T38" sqref="T38"/>
+      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1557,7 +1557,9 @@
       <c r="T5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="U5" s="6"/>
+      <c r="U5" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
@@ -1578,7 +1580,7 @@
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL5" s="38">
         <f t="shared" ref="AL5:AL18" si="2">COUNTIF(E5:AI5,"бв")</f>
@@ -1646,7 +1648,9 @@
       <c r="T6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="U6" s="7"/>
+      <c r="U6" s="7">
+        <v>1</v>
+      </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
@@ -1663,7 +1667,7 @@
       <c r="AI6" s="10"/>
       <c r="AJ6" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6" s="40">
         <f t="shared" si="1"/>
@@ -1854,7 +1858,9 @@
       <c r="T8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="6"/>
+      <c r="U8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
@@ -1875,7 +1881,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -1943,7 +1949,9 @@
       <c r="T9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="U9" s="6"/>
+      <c r="U9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
@@ -1964,7 +1972,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2270,7 +2278,9 @@
       <c r="T12" s="6">
         <v>1</v>
       </c>
-      <c r="U12" s="6"/>
+      <c r="U12" s="6">
+        <v>1</v>
+      </c>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
@@ -2287,7 +2297,7 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2359,7 +2369,9 @@
       <c r="T13" s="6">
         <v>1</v>
       </c>
-      <c r="U13" s="6"/>
+      <c r="U13" s="6">
+        <v>1</v>
+      </c>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
@@ -2376,7 +2388,7 @@
       <c r="AI13" s="9"/>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2448,7 +2460,9 @@
       <c r="T14" s="6">
         <v>1</v>
       </c>
-      <c r="U14" s="6"/>
+      <c r="U14" s="6">
+        <v>1</v>
+      </c>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
@@ -2465,7 +2479,7 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2537,7 +2551,9 @@
       <c r="T15" s="6">
         <v>1</v>
       </c>
-      <c r="U15" s="6"/>
+      <c r="U15" s="6">
+        <v>1</v>
+      </c>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
@@ -2554,7 +2570,7 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2626,7 +2642,9 @@
       <c r="T16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="U16" s="6"/>
+      <c r="U16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
@@ -2647,7 +2665,7 @@
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL16" s="38">
         <f t="shared" si="2"/>
@@ -2715,7 +2733,9 @@
       <c r="T17" s="6">
         <v>1</v>
       </c>
-      <c r="U17" s="6"/>
+      <c r="U17" s="6">
+        <v>1</v>
+      </c>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
@@ -2732,7 +2752,7 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -2804,7 +2824,9 @@
       <c r="T18" s="6">
         <v>1</v>
       </c>
-      <c r="U18" s="6"/>
+      <c r="U18" s="6">
+        <v>1</v>
+      </c>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
@@ -2821,7 +2843,7 @@
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -2893,7 +2915,9 @@
       <c r="T19" s="6">
         <v>1</v>
       </c>
-      <c r="U19" s="6"/>
+      <c r="U19" s="6">
+        <v>1</v>
+      </c>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
@@ -2910,7 +2934,7 @@
       <c r="AI19" s="9"/>
       <c r="AJ19" s="36">
         <f t="shared" ref="AJ19:AJ34" si="3">COUNTIF(E19:AI19,1)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
@@ -2982,7 +3006,9 @@
       <c r="T20" s="6">
         <v>1</v>
       </c>
-      <c r="U20" s="6"/>
+      <c r="U20" s="6">
+        <v>1</v>
+      </c>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
@@ -2999,7 +3025,7 @@
       <c r="AI20" s="9"/>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
@@ -3071,7 +3097,9 @@
       <c r="T21" s="6">
         <v>1</v>
       </c>
-      <c r="U21" s="6"/>
+      <c r="U21" s="6">
+        <v>1</v>
+      </c>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
@@ -3088,7 +3116,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -3160,7 +3188,9 @@
       <c r="T22" s="6">
         <v>1</v>
       </c>
-      <c r="U22" s="6"/>
+      <c r="U22" s="6">
+        <v>1</v>
+      </c>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
@@ -3177,7 +3207,7 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -3249,7 +3279,9 @@
       <c r="T23" s="7">
         <v>1</v>
       </c>
-      <c r="U23" s="7"/>
+      <c r="U23" s="7">
+        <v>1</v>
+      </c>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
@@ -3266,7 +3298,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="45">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
@@ -3338,7 +3370,9 @@
       <c r="T24" s="6">
         <v>1</v>
       </c>
-      <c r="U24" s="6"/>
+      <c r="U24" s="6">
+        <v>1</v>
+      </c>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
@@ -3355,7 +3389,7 @@
       <c r="AI24" s="9"/>
       <c r="AJ24" s="42">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
@@ -3430,7 +3464,9 @@
       <c r="T25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="U25" s="6"/>
+      <c r="U25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
@@ -3451,7 +3487,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3522,7 +3558,9 @@
       <c r="T26" s="6">
         <v>1</v>
       </c>
-      <c r="U26" s="6"/>
+      <c r="U26" s="6">
+        <v>1</v>
+      </c>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
@@ -3539,7 +3577,7 @@
       <c r="AI26" s="9"/>
       <c r="AJ26" s="36">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
@@ -3614,7 +3652,9 @@
       <c r="T27" s="6">
         <v>1</v>
       </c>
-      <c r="U27" s="6"/>
+      <c r="U27" s="6">
+        <v>1</v>
+      </c>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
@@ -3631,7 +3671,7 @@
       <c r="AI27" s="9"/>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -3706,7 +3746,9 @@
       <c r="T28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="U28" s="6"/>
+      <c r="U28" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
@@ -3731,7 +3773,7 @@
       </c>
       <c r="AL28" s="38">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM28" s="3" t="s">
         <v>66</v>
@@ -3798,7 +3840,9 @@
       <c r="T29" s="6">
         <v>1</v>
       </c>
-      <c r="U29" s="6"/>
+      <c r="U29" s="6">
+        <v>1</v>
+      </c>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
@@ -3815,7 +3859,7 @@
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -3890,7 +3934,9 @@
       <c r="T30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="U30" s="7"/>
+      <c r="U30" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
@@ -3911,7 +3957,7 @@
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL30" s="47">
         <f t="shared" si="5"/>
@@ -4101,7 +4147,9 @@
       <c r="T32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="U32" s="6"/>
+      <c r="U32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
@@ -4122,7 +4170,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -4791,7 +4839,9 @@
       <c r="T38" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="U38" s="6"/>
+      <c r="U38" s="6">
+        <v>1</v>
+      </c>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
@@ -4808,7 +4858,7 @@
       <c r="AI38" s="9"/>
       <c r="AJ38" s="42">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
@@ -4883,7 +4933,9 @@
       <c r="T39" s="6">
         <v>1</v>
       </c>
-      <c r="U39" s="6"/>
+      <c r="U39" s="6">
+        <v>1</v>
+      </c>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
@@ -4900,7 +4952,7 @@
       <c r="AI39" s="6"/>
       <c r="AJ39" s="36">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK39" s="37">
         <f t="shared" si="7"/>
@@ -4975,7 +5027,9 @@
       <c r="T40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="U40" s="7"/>
+      <c r="U40" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
@@ -4996,7 +5050,7 @@
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL40" s="47">
         <f t="shared" si="8"/>
@@ -5067,7 +5121,9 @@
       <c r="T41" s="6">
         <v>1</v>
       </c>
-      <c r="U41" s="6"/>
+      <c r="U41" s="6">
+        <v>1</v>
+      </c>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
@@ -5084,7 +5140,7 @@
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -5159,7 +5215,9 @@
       <c r="T42" s="6">
         <v>1</v>
       </c>
-      <c r="U42" s="6"/>
+      <c r="U42" s="6">
+        <v>1</v>
+      </c>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
@@ -5176,7 +5234,7 @@
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -5251,7 +5309,9 @@
       <c r="T43" s="6">
         <v>1</v>
       </c>
-      <c r="U43" s="6"/>
+      <c r="U43" s="6">
+        <v>1</v>
+      </c>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
@@ -5268,7 +5328,7 @@
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -5343,7 +5403,9 @@
       <c r="T44" s="6">
         <v>1</v>
       </c>
-      <c r="U44" s="6"/>
+      <c r="U44" s="6">
+        <v>1</v>
+      </c>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
@@ -5360,7 +5422,7 @@
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -5435,7 +5497,9 @@
       <c r="T45" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="U45" s="6"/>
+      <c r="U45" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
@@ -5456,7 +5520,7 @@
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL45" s="38">
         <f t="shared" si="8"/>
@@ -5524,7 +5588,9 @@
       <c r="T46" s="6">
         <v>1</v>
       </c>
-      <c r="U46" s="6"/>
+      <c r="U46" s="6">
+        <v>1</v>
+      </c>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
@@ -5541,7 +5607,7 @@
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -5613,7 +5679,9 @@
       <c r="T47" s="7">
         <v>1</v>
       </c>
-      <c r="U47" s="7"/>
+      <c r="U47" s="7">
+        <v>1</v>
+      </c>
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
@@ -5630,7 +5698,7 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -5702,7 +5770,9 @@
       <c r="T48" s="6">
         <v>1</v>
       </c>
-      <c r="U48" s="6"/>
+      <c r="U48" s="6">
+        <v>1</v>
+      </c>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
@@ -5719,7 +5789,7 @@
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -5791,7 +5861,9 @@
       <c r="T49" s="7">
         <v>1</v>
       </c>
-      <c r="U49" s="7"/>
+      <c r="U49" s="7">
+        <v>1</v>
+      </c>
       <c r="V49" s="7"/>
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
@@ -5808,7 +5880,7 @@
       <c r="AI49" s="10"/>
       <c r="AJ49" s="45">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK49" s="46">
         <f t="shared" si="7"/>
@@ -6208,7 +6280,9 @@
       <c r="T56" s="6">
         <v>1</v>
       </c>
-      <c r="U56" s="6"/>
+      <c r="U56" s="6">
+        <v>1</v>
+      </c>
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
@@ -6225,7 +6299,7 @@
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -6300,7 +6374,9 @@
       <c r="T57" s="7">
         <v>1</v>
       </c>
-      <c r="U57" s="7"/>
+      <c r="U57" s="7">
+        <v>1</v>
+      </c>
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
@@ -6317,7 +6393,7 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -1161,10 +1161,10 @@
   <dimension ref="A1:AM58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
+      <selection pane="bottomRight" activeCell="W50" sqref="W50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1560,8 +1560,12 @@
       <c r="U5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
+      <c r="V5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
@@ -1580,7 +1584,7 @@
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL5" s="38">
         <f t="shared" ref="AL5:AL18" si="2">COUNTIF(E5:AI5,"бв")</f>
@@ -1651,8 +1655,12 @@
       <c r="U6" s="7">
         <v>1</v>
       </c>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
+      <c r="V6" s="7">
+        <v>1</v>
+      </c>
+      <c r="W6" s="7">
+        <v>1</v>
+      </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
@@ -1667,7 +1675,7 @@
       <c r="AI6" s="10"/>
       <c r="AJ6" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK6" s="40">
         <f t="shared" si="1"/>
@@ -1861,8 +1869,12 @@
       <c r="U8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
+      <c r="V8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
@@ -1881,7 +1893,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -1952,8 +1964,12 @@
       <c r="U9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
+      <c r="V9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
@@ -1972,7 +1988,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2281,8 +2297,12 @@
       <c r="U12" s="6">
         <v>1</v>
       </c>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
+      <c r="V12" s="6">
+        <v>1</v>
+      </c>
+      <c r="W12" s="6">
+        <v>1</v>
+      </c>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
@@ -2297,7 +2317,7 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2372,8 +2392,12 @@
       <c r="U13" s="6">
         <v>1</v>
       </c>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
+      <c r="V13" s="6">
+        <v>1</v>
+      </c>
+      <c r="W13" s="6">
+        <v>1</v>
+      </c>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
@@ -2388,7 +2412,7 @@
       <c r="AI13" s="9"/>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2463,8 +2487,12 @@
       <c r="U14" s="6">
         <v>1</v>
       </c>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
+      <c r="V14" s="6">
+        <v>1</v>
+      </c>
+      <c r="W14" s="6">
+        <v>1</v>
+      </c>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
@@ -2479,7 +2507,7 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2554,8 +2582,12 @@
       <c r="U15" s="6">
         <v>1</v>
       </c>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
+      <c r="V15" s="6">
+        <v>1</v>
+      </c>
+      <c r="W15" s="6">
+        <v>1</v>
+      </c>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
@@ -2570,7 +2602,7 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2645,8 +2677,12 @@
       <c r="U16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
+      <c r="V16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
@@ -2665,7 +2701,7 @@
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL16" s="38">
         <f t="shared" si="2"/>
@@ -2736,8 +2772,12 @@
       <c r="U17" s="6">
         <v>1</v>
       </c>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
+      <c r="V17" s="6">
+        <v>1</v>
+      </c>
+      <c r="W17" s="6">
+        <v>1</v>
+      </c>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
@@ -2752,7 +2792,7 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -2827,8 +2867,12 @@
       <c r="U18" s="6">
         <v>1</v>
       </c>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
+      <c r="V18" s="6">
+        <v>1</v>
+      </c>
+      <c r="W18" s="6">
+        <v>1</v>
+      </c>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
@@ -2843,7 +2887,7 @@
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -2918,8 +2962,12 @@
       <c r="U19" s="6">
         <v>1</v>
       </c>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
+      <c r="V19" s="6">
+        <v>1</v>
+      </c>
+      <c r="W19" s="6">
+        <v>1</v>
+      </c>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
@@ -2934,7 +2982,7 @@
       <c r="AI19" s="9"/>
       <c r="AJ19" s="36">
         <f t="shared" ref="AJ19:AJ34" si="3">COUNTIF(E19:AI19,1)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
@@ -3009,8 +3057,12 @@
       <c r="U20" s="6">
         <v>1</v>
       </c>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
+      <c r="V20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W20" s="6">
+        <v>1</v>
+      </c>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
@@ -3025,11 +3077,11 @@
       <c r="AI20" s="9"/>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="38">
         <f t="shared" si="5"/>
@@ -3100,8 +3152,12 @@
       <c r="U21" s="6">
         <v>1</v>
       </c>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
+      <c r="V21" s="6">
+        <v>1</v>
+      </c>
+      <c r="W21" s="6">
+        <v>1</v>
+      </c>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
@@ -3116,7 +3172,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -3191,8 +3247,12 @@
       <c r="U22" s="6">
         <v>1</v>
       </c>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
+      <c r="V22" s="6">
+        <v>1</v>
+      </c>
+      <c r="W22" s="6">
+        <v>1</v>
+      </c>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
@@ -3207,7 +3267,7 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -3282,8 +3342,12 @@
       <c r="U23" s="7">
         <v>1</v>
       </c>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
+      <c r="V23" s="7">
+        <v>1</v>
+      </c>
+      <c r="W23" s="7">
+        <v>1</v>
+      </c>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
@@ -3298,7 +3362,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="45">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
@@ -3373,8 +3437,12 @@
       <c r="U24" s="6">
         <v>1</v>
       </c>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
+      <c r="V24" s="6">
+        <v>1</v>
+      </c>
+      <c r="W24" s="6">
+        <v>1</v>
+      </c>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
@@ -3389,7 +3457,7 @@
       <c r="AI24" s="9"/>
       <c r="AJ24" s="42">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
@@ -3467,8 +3535,12 @@
       <c r="U25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
+      <c r="V25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
@@ -3487,7 +3559,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3561,8 +3633,12 @@
       <c r="U26" s="6">
         <v>1</v>
       </c>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
+      <c r="V26" s="6">
+        <v>1</v>
+      </c>
+      <c r="W26" s="6">
+        <v>1</v>
+      </c>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
@@ -3577,7 +3653,7 @@
       <c r="AI26" s="9"/>
       <c r="AJ26" s="36">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
@@ -3655,8 +3731,12 @@
       <c r="U27" s="6">
         <v>1</v>
       </c>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
+      <c r="V27" s="6">
+        <v>1</v>
+      </c>
+      <c r="W27" s="6">
+        <v>1</v>
+      </c>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
@@ -3671,7 +3751,7 @@
       <c r="AI27" s="9"/>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -3749,8 +3829,12 @@
       <c r="U28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
+      <c r="V28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W28" s="6">
+        <v>1</v>
+      </c>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
@@ -3765,7 +3849,7 @@
       <c r="AI28" s="9"/>
       <c r="AJ28" s="36">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK28" s="37">
         <f t="shared" si="4"/>
@@ -3773,7 +3857,7 @@
       </c>
       <c r="AL28" s="38">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM28" s="3" t="s">
         <v>66</v>
@@ -3843,8 +3927,12 @@
       <c r="U29" s="6">
         <v>1</v>
       </c>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
+      <c r="V29" s="6">
+        <v>1</v>
+      </c>
+      <c r="W29" s="6">
+        <v>1</v>
+      </c>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
@@ -3859,7 +3947,7 @@
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -3937,8 +4025,12 @@
       <c r="U30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
+      <c r="V30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
@@ -3957,7 +4049,7 @@
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL30" s="47">
         <f t="shared" si="5"/>
@@ -4150,8 +4242,12 @@
       <c r="U32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
+      <c r="V32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
@@ -4170,7 +4266,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -4842,8 +4938,12 @@
       <c r="U38" s="6">
         <v>1</v>
       </c>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
+      <c r="V38" s="6">
+        <v>1</v>
+      </c>
+      <c r="W38" s="6">
+        <v>1</v>
+      </c>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
@@ -4858,7 +4958,7 @@
       <c r="AI38" s="9"/>
       <c r="AJ38" s="42">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
@@ -4936,8 +5036,12 @@
       <c r="U39" s="6">
         <v>1</v>
       </c>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
+      <c r="V39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W39" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
@@ -4956,7 +5060,7 @@
       </c>
       <c r="AK39" s="37">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL39" s="38">
         <f t="shared" si="8"/>
@@ -5030,8 +5134,12 @@
       <c r="U40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
+      <c r="V40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W40" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
@@ -5050,7 +5158,7 @@
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL40" s="47">
         <f t="shared" si="8"/>
@@ -5124,8 +5232,12 @@
       <c r="U41" s="6">
         <v>1</v>
       </c>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
+      <c r="V41" s="6">
+        <v>1</v>
+      </c>
+      <c r="W41" s="6">
+        <v>1</v>
+      </c>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
@@ -5140,7 +5252,7 @@
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -5218,8 +5330,12 @@
       <c r="U42" s="6">
         <v>1</v>
       </c>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
+      <c r="V42" s="6">
+        <v>1</v>
+      </c>
+      <c r="W42" s="6">
+        <v>1</v>
+      </c>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
@@ -5234,7 +5350,7 @@
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -5312,8 +5428,12 @@
       <c r="U43" s="6">
         <v>1</v>
       </c>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
+      <c r="V43" s="6">
+        <v>1</v>
+      </c>
+      <c r="W43" s="6">
+        <v>1</v>
+      </c>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
@@ -5328,7 +5448,7 @@
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -5406,8 +5526,12 @@
       <c r="U44" s="6">
         <v>1</v>
       </c>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
+      <c r="V44" s="6">
+        <v>1</v>
+      </c>
+      <c r="W44" s="6">
+        <v>1</v>
+      </c>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
@@ -5422,7 +5546,7 @@
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -5500,8 +5624,12 @@
       <c r="U45" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
+      <c r="V45" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W45" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
@@ -5520,7 +5648,7 @@
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL45" s="38">
         <f t="shared" si="8"/>
@@ -5591,8 +5719,12 @@
       <c r="U46" s="6">
         <v>1</v>
       </c>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
+      <c r="V46" s="6">
+        <v>1</v>
+      </c>
+      <c r="W46" s="6">
+        <v>1</v>
+      </c>
       <c r="X46" s="6"/>
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
@@ -5607,7 +5739,7 @@
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -5682,8 +5814,12 @@
       <c r="U47" s="7">
         <v>1</v>
       </c>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
+      <c r="V47" s="7">
+        <v>1</v>
+      </c>
+      <c r="W47" s="7">
+        <v>1</v>
+      </c>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
@@ -5698,7 +5834,7 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -5773,8 +5909,12 @@
       <c r="U48" s="6">
         <v>1</v>
       </c>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
+      <c r="V48" s="6">
+        <v>1</v>
+      </c>
+      <c r="W48" s="6">
+        <v>1</v>
+      </c>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
@@ -5789,7 +5929,7 @@
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -5864,8 +6004,12 @@
       <c r="U49" s="7">
         <v>1</v>
       </c>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
+      <c r="V49" s="7">
+        <v>1</v>
+      </c>
+      <c r="W49" s="7">
+        <v>1</v>
+      </c>
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
@@ -5880,7 +6024,7 @@
       <c r="AI49" s="10"/>
       <c r="AJ49" s="45">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK49" s="46">
         <f t="shared" si="7"/>
@@ -6283,8 +6427,12 @@
       <c r="U56" s="6">
         <v>1</v>
       </c>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
+      <c r="V56" s="6">
+        <v>1</v>
+      </c>
+      <c r="W56" s="6">
+        <v>1</v>
+      </c>
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
@@ -6299,7 +6447,7 @@
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -6377,8 +6525,12 @@
       <c r="U57" s="7">
         <v>1</v>
       </c>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
+      <c r="V57" s="7">
+        <v>1</v>
+      </c>
+      <c r="W57" s="7">
+        <v>1</v>
+      </c>
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
@@ -6393,7 +6545,7 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ноябрь 2018'!$E$2:$AL$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Октябрь 2018'!$E$2:$AM$49</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterate="1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -846,7 +846,49 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1164,7 +1206,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W50" sqref="W50"/>
+      <selection pane="bottomRight" activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1566,8 +1608,12 @@
       <c r="W5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
+      <c r="X5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
@@ -1584,7 +1630,7 @@
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL5" s="38">
         <f t="shared" ref="AL5:AL18" si="2">COUNTIF(E5:AI5,"бв")</f>
@@ -1661,8 +1707,12 @@
       <c r="W6" s="7">
         <v>1</v>
       </c>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
+      <c r="X6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
@@ -1675,7 +1725,7 @@
       <c r="AI6" s="10"/>
       <c r="AJ6" s="39">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK6" s="40">
         <f t="shared" si="1"/>
@@ -1683,7 +1733,7 @@
       </c>
       <c r="AL6" s="41">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -1875,8 +1925,12 @@
       <c r="W8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
+      <c r="X8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
@@ -1893,7 +1947,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -1970,8 +2024,12 @@
       <c r="W9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
+      <c r="X9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
@@ -1988,7 +2046,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2303,8 +2361,12 @@
       <c r="W12" s="6">
         <v>1</v>
       </c>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
+      <c r="X12" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>1</v>
+      </c>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
@@ -2317,7 +2379,7 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2398,8 +2460,12 @@
       <c r="W13" s="6">
         <v>1</v>
       </c>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
+      <c r="X13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
@@ -2420,7 +2486,7 @@
       </c>
       <c r="AL13" s="38">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -2493,8 +2559,12 @@
       <c r="W14" s="6">
         <v>1</v>
       </c>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
+      <c r="X14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>1</v>
+      </c>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
@@ -2507,7 +2577,7 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2588,8 +2658,12 @@
       <c r="W15" s="6">
         <v>1</v>
       </c>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
+      <c r="X15" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>1</v>
+      </c>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
@@ -2602,7 +2676,7 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2683,8 +2757,12 @@
       <c r="W16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
+      <c r="X16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
@@ -2701,7 +2779,7 @@
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL16" s="38">
         <f t="shared" si="2"/>
@@ -2778,8 +2856,12 @@
       <c r="W17" s="6">
         <v>1</v>
       </c>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
+      <c r="X17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>1</v>
+      </c>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
@@ -2792,7 +2874,7 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -2873,8 +2955,12 @@
       <c r="W18" s="6">
         <v>1</v>
       </c>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
+      <c r="X18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>1</v>
+      </c>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
@@ -2887,7 +2973,7 @@
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -2968,7 +3054,9 @@
       <c r="W19" s="6">
         <v>1</v>
       </c>
-      <c r="X19" s="6"/>
+      <c r="X19" s="6">
+        <v>1</v>
+      </c>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
@@ -2982,7 +3070,7 @@
       <c r="AI19" s="9"/>
       <c r="AJ19" s="36">
         <f t="shared" ref="AJ19:AJ34" si="3">COUNTIF(E19:AI19,1)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
@@ -3063,8 +3151,12 @@
       <c r="W20" s="6">
         <v>1</v>
       </c>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
+      <c r="X20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>1</v>
+      </c>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
@@ -3077,7 +3169,7 @@
       <c r="AI20" s="9"/>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
@@ -3085,7 +3177,7 @@
       </c>
       <c r="AL20" s="38">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:39">
@@ -3158,8 +3250,12 @@
       <c r="W21" s="6">
         <v>1</v>
       </c>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
+      <c r="X21" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>1</v>
+      </c>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
@@ -3172,7 +3268,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -3253,8 +3349,12 @@
       <c r="W22" s="6">
         <v>1</v>
       </c>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
+      <c r="X22" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>1</v>
+      </c>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
@@ -3267,7 +3367,7 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -3348,8 +3448,12 @@
       <c r="W23" s="7">
         <v>1</v>
       </c>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
+      <c r="X23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y23" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
@@ -3370,7 +3474,7 @@
       </c>
       <c r="AL23" s="47">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:39">
@@ -3443,8 +3547,12 @@
       <c r="W24" s="6">
         <v>1</v>
       </c>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
+      <c r="X24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
@@ -3461,11 +3569,11 @@
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL24" s="44">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM24" s="3" t="s">
         <v>66</v>
@@ -3541,8 +3649,12 @@
       <c r="W25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
+      <c r="X25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
@@ -3559,7 +3671,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3639,8 +3751,12 @@
       <c r="W26" s="6">
         <v>1</v>
       </c>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
+      <c r="X26" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>1</v>
+      </c>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
@@ -3653,7 +3769,7 @@
       <c r="AI26" s="9"/>
       <c r="AJ26" s="36">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
@@ -3737,8 +3853,12 @@
       <c r="W27" s="6">
         <v>1</v>
       </c>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
+      <c r="X27" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>1</v>
+      </c>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
@@ -3751,7 +3871,7 @@
       <c r="AI27" s="9"/>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -3835,8 +3955,12 @@
       <c r="W28" s="6">
         <v>1</v>
       </c>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
+      <c r="X28" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>1</v>
+      </c>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
@@ -3849,7 +3973,7 @@
       <c r="AI28" s="9"/>
       <c r="AJ28" s="36">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK28" s="37">
         <f t="shared" si="4"/>
@@ -3933,8 +4057,12 @@
       <c r="W29" s="6">
         <v>1</v>
       </c>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
+      <c r="X29" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>1</v>
+      </c>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
@@ -3947,7 +4075,7 @@
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -4031,8 +4159,12 @@
       <c r="W30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
+      <c r="X30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y30" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
@@ -4049,7 +4181,7 @@
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL30" s="47">
         <f t="shared" si="5"/>
@@ -4248,8 +4380,12 @@
       <c r="W32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
+      <c r="X32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
@@ -4266,7 +4402,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -4944,8 +5080,12 @@
       <c r="W38" s="6">
         <v>1</v>
       </c>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
+      <c r="X38" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="6">
+        <v>1</v>
+      </c>
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
@@ -4958,7 +5098,7 @@
       <c r="AI38" s="9"/>
       <c r="AJ38" s="42">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
@@ -5042,8 +5182,12 @@
       <c r="W39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
+      <c r="X39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y39" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
@@ -5060,7 +5204,7 @@
       </c>
       <c r="AK39" s="37">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL39" s="38">
         <f t="shared" si="8"/>
@@ -5140,8 +5284,12 @@
       <c r="W40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
+      <c r="X40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y40" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
@@ -5158,7 +5306,7 @@
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL40" s="47">
         <f t="shared" si="8"/>
@@ -5238,8 +5386,12 @@
       <c r="W41" s="6">
         <v>1</v>
       </c>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
+      <c r="X41" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>1</v>
+      </c>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
@@ -5252,7 +5404,7 @@
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -5336,8 +5488,12 @@
       <c r="W42" s="6">
         <v>1</v>
       </c>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
+      <c r="X42" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>1</v>
+      </c>
       <c r="Z42" s="6"/>
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
@@ -5350,7 +5506,7 @@
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -5434,8 +5590,12 @@
       <c r="W43" s="6">
         <v>1</v>
       </c>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
+      <c r="X43" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="6">
+        <v>1</v>
+      </c>
       <c r="Z43" s="6"/>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
@@ -5448,7 +5608,7 @@
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -5532,8 +5692,12 @@
       <c r="W44" s="6">
         <v>1</v>
       </c>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
+      <c r="X44" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="6">
+        <v>1</v>
+      </c>
       <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
@@ -5546,7 +5710,7 @@
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -5630,8 +5794,12 @@
       <c r="W45" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
+      <c r="X45" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y45" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
@@ -5648,7 +5816,7 @@
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL45" s="38">
         <f t="shared" si="8"/>
@@ -5725,8 +5893,12 @@
       <c r="W46" s="6">
         <v>1</v>
       </c>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
+      <c r="X46" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="6">
+        <v>1</v>
+      </c>
       <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
@@ -5739,7 +5911,7 @@
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -5820,8 +5992,12 @@
       <c r="W47" s="7">
         <v>1</v>
       </c>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
+      <c r="X47" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="7">
+        <v>1</v>
+      </c>
       <c r="Z47" s="7"/>
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
@@ -5834,7 +6010,7 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -5915,8 +6091,12 @@
       <c r="W48" s="6">
         <v>1</v>
       </c>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
+      <c r="X48" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y48" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
@@ -5937,7 +6117,7 @@
       </c>
       <c r="AL48" s="44">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:39" ht="16.5" thickBot="1">
@@ -6010,8 +6190,12 @@
       <c r="W49" s="7">
         <v>1</v>
       </c>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
+      <c r="X49" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="7">
+        <v>1</v>
+      </c>
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
@@ -6024,7 +6208,7 @@
       <c r="AI49" s="10"/>
       <c r="AJ49" s="45">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK49" s="46">
         <f t="shared" si="7"/>
@@ -6433,8 +6617,12 @@
       <c r="W56" s="6">
         <v>1</v>
       </c>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="6"/>
+      <c r="X56" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="6">
+        <v>1</v>
+      </c>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="6"/>
@@ -6447,7 +6635,7 @@
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -6531,8 +6719,12 @@
       <c r="W57" s="7">
         <v>1</v>
       </c>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
+      <c r="X57" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="7">
+        <v>1</v>
+      </c>
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
@@ -6545,7 +6737,7 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>
@@ -6565,6 +6757,7 @@
   <autoFilter ref="E2:AM49">
     <filterColumn colId="9"/>
     <filterColumn colId="11"/>
+    <filterColumn colId="19"/>
     <filterColumn colId="34"/>
   </autoFilter>
   <mergeCells count="2">
@@ -6572,12 +6765,12 @@
     <mergeCell ref="A52:AL52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AI49">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+    <cfRule type="containsBlanks" dxfId="10" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:AI57">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
       <formula>LEN(TRIM(E55))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10525,7 +10718,7 @@
     <mergeCell ref="A52:AK52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AH49 E55:AH57">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14554,12 +14747,12 @@
     <mergeCell ref="A52:AL52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AI49">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:AI57">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(E55))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -846,7 +846,21 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1206,7 +1220,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y19" sqref="Y19"/>
+      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1614,7 +1628,9 @@
       <c r="Y5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Z5" s="6"/>
+      <c r="Z5" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
@@ -1630,7 +1646,7 @@
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL5" s="38">
         <f t="shared" ref="AL5:AL18" si="2">COUNTIF(E5:AI5,"бв")</f>
@@ -1713,7 +1729,9 @@
       <c r="Y6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Z6" s="7"/>
+      <c r="Z6" s="7">
+        <v>1</v>
+      </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
@@ -1725,7 +1743,7 @@
       <c r="AI6" s="10"/>
       <c r="AJ6" s="39">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK6" s="40">
         <f t="shared" si="1"/>
@@ -1931,7 +1949,9 @@
       <c r="Y8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Z8" s="6"/>
+      <c r="Z8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
@@ -1947,7 +1967,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -2030,7 +2050,9 @@
       <c r="Y9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Z9" s="6"/>
+      <c r="Z9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
@@ -2046,7 +2068,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2367,7 +2389,9 @@
       <c r="Y12" s="6">
         <v>1</v>
       </c>
-      <c r="Z12" s="6"/>
+      <c r="Z12" s="6">
+        <v>1</v>
+      </c>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
@@ -2379,7 +2403,7 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2466,7 +2490,9 @@
       <c r="Y13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Z13" s="6"/>
+      <c r="Z13" s="6">
+        <v>1</v>
+      </c>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
@@ -2478,7 +2504,7 @@
       <c r="AI13" s="9"/>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2565,7 +2591,9 @@
       <c r="Y14" s="6">
         <v>1</v>
       </c>
-      <c r="Z14" s="6"/>
+      <c r="Z14" s="6">
+        <v>1</v>
+      </c>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
@@ -2577,7 +2605,7 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2664,7 +2692,9 @@
       <c r="Y15" s="6">
         <v>1</v>
       </c>
-      <c r="Z15" s="6"/>
+      <c r="Z15" s="6">
+        <v>1</v>
+      </c>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
@@ -2676,7 +2706,7 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2763,7 +2793,9 @@
       <c r="Y16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Z16" s="6"/>
+      <c r="Z16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
@@ -2779,7 +2811,7 @@
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL16" s="38">
         <f t="shared" si="2"/>
@@ -2862,7 +2894,9 @@
       <c r="Y17" s="6">
         <v>1</v>
       </c>
-      <c r="Z17" s="6"/>
+      <c r="Z17" s="6">
+        <v>1</v>
+      </c>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
@@ -2874,7 +2908,7 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -2961,7 +2995,9 @@
       <c r="Y18" s="6">
         <v>1</v>
       </c>
-      <c r="Z18" s="6"/>
+      <c r="Z18" s="6">
+        <v>1</v>
+      </c>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
@@ -2973,7 +3009,7 @@
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -3057,8 +3093,12 @@
       <c r="X19" s="6">
         <v>1</v>
       </c>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
+      <c r="Y19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
@@ -3074,7 +3114,7 @@
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL19" s="38">
         <f t="shared" ref="AL19:AL34" si="5">COUNTIF(E19:AI19,"бв")</f>
@@ -3157,7 +3197,9 @@
       <c r="Y20" s="6">
         <v>1</v>
       </c>
-      <c r="Z20" s="6"/>
+      <c r="Z20" s="6">
+        <v>1</v>
+      </c>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
@@ -3169,7 +3211,7 @@
       <c r="AI20" s="9"/>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
@@ -3256,7 +3298,9 @@
       <c r="Y21" s="6">
         <v>1</v>
       </c>
-      <c r="Z21" s="6"/>
+      <c r="Z21" s="6">
+        <v>1</v>
+      </c>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
@@ -3268,7 +3312,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -3355,7 +3399,9 @@
       <c r="Y22" s="6">
         <v>1</v>
       </c>
-      <c r="Z22" s="6"/>
+      <c r="Z22" s="6">
+        <v>1</v>
+      </c>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
@@ -3367,7 +3413,7 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -3454,7 +3500,9 @@
       <c r="Y23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Z23" s="7"/>
+      <c r="Z23" s="7">
+        <v>1</v>
+      </c>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
@@ -3466,7 +3514,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="45">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
@@ -3553,7 +3601,9 @@
       <c r="Y24" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Z24" s="6"/>
+      <c r="Z24" s="6">
+        <v>1</v>
+      </c>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
@@ -3565,7 +3615,7 @@
       <c r="AI24" s="9"/>
       <c r="AJ24" s="42">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
@@ -3655,7 +3705,9 @@
       <c r="Y25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Z25" s="6"/>
+      <c r="Z25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
@@ -3671,7 +3723,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3757,7 +3809,9 @@
       <c r="Y26" s="6">
         <v>1</v>
       </c>
-      <c r="Z26" s="6"/>
+      <c r="Z26" s="6">
+        <v>1</v>
+      </c>
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
@@ -3769,7 +3823,7 @@
       <c r="AI26" s="9"/>
       <c r="AJ26" s="36">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
@@ -3859,7 +3913,9 @@
       <c r="Y27" s="6">
         <v>1</v>
       </c>
-      <c r="Z27" s="6"/>
+      <c r="Z27" s="6">
+        <v>1</v>
+      </c>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
@@ -3871,7 +3927,7 @@
       <c r="AI27" s="9"/>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -3961,7 +4017,9 @@
       <c r="Y28" s="6">
         <v>1</v>
       </c>
-      <c r="Z28" s="6"/>
+      <c r="Z28" s="6">
+        <v>1</v>
+      </c>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
@@ -3973,7 +4031,7 @@
       <c r="AI28" s="9"/>
       <c r="AJ28" s="36">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK28" s="37">
         <f t="shared" si="4"/>
@@ -4063,7 +4121,9 @@
       <c r="Y29" s="6">
         <v>1</v>
       </c>
-      <c r="Z29" s="6"/>
+      <c r="Z29" s="6">
+        <v>1</v>
+      </c>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
@@ -4075,7 +4135,7 @@
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -4165,7 +4225,9 @@
       <c r="Y30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Z30" s="7"/>
+      <c r="Z30" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
@@ -4181,7 +4243,7 @@
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL30" s="47">
         <f t="shared" si="5"/>
@@ -4386,7 +4448,9 @@
       <c r="Y32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Z32" s="6"/>
+      <c r="Z32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
@@ -4402,7 +4466,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -5086,7 +5150,9 @@
       <c r="Y38" s="6">
         <v>1</v>
       </c>
-      <c r="Z38" s="6"/>
+      <c r="Z38" s="6">
+        <v>1</v>
+      </c>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
@@ -5098,7 +5164,7 @@
       <c r="AI38" s="9"/>
       <c r="AJ38" s="42">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
@@ -5188,7 +5254,9 @@
       <c r="Y39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Z39" s="6"/>
+      <c r="Z39" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
@@ -5204,7 +5272,7 @@
       </c>
       <c r="AK39" s="37">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL39" s="38">
         <f t="shared" si="8"/>
@@ -5290,7 +5358,9 @@
       <c r="Y40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Z40" s="7"/>
+      <c r="Z40" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
@@ -5306,7 +5376,7 @@
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL40" s="47">
         <f t="shared" si="8"/>
@@ -5392,7 +5462,9 @@
       <c r="Y41" s="6">
         <v>1</v>
       </c>
-      <c r="Z41" s="6"/>
+      <c r="Z41" s="6">
+        <v>1</v>
+      </c>
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
@@ -5404,7 +5476,7 @@
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -5494,7 +5566,9 @@
       <c r="Y42" s="6">
         <v>1</v>
       </c>
-      <c r="Z42" s="6"/>
+      <c r="Z42" s="6">
+        <v>1</v>
+      </c>
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
@@ -5506,7 +5580,7 @@
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -5596,7 +5670,9 @@
       <c r="Y43" s="6">
         <v>1</v>
       </c>
-      <c r="Z43" s="6"/>
+      <c r="Z43" s="6">
+        <v>1</v>
+      </c>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
@@ -5608,7 +5684,7 @@
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -5698,7 +5774,9 @@
       <c r="Y44" s="6">
         <v>1</v>
       </c>
-      <c r="Z44" s="6"/>
+      <c r="Z44" s="6">
+        <v>1</v>
+      </c>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
@@ -5710,7 +5788,7 @@
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -5800,7 +5878,9 @@
       <c r="Y45" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Z45" s="6"/>
+      <c r="Z45" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
@@ -5816,7 +5896,7 @@
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL45" s="38">
         <f t="shared" si="8"/>
@@ -5899,7 +5979,9 @@
       <c r="Y46" s="6">
         <v>1</v>
       </c>
-      <c r="Z46" s="6"/>
+      <c r="Z46" s="6">
+        <v>1</v>
+      </c>
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
@@ -5911,7 +5993,7 @@
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -5998,7 +6080,9 @@
       <c r="Y47" s="7">
         <v>1</v>
       </c>
-      <c r="Z47" s="7"/>
+      <c r="Z47" s="7">
+        <v>1</v>
+      </c>
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
       <c r="AC47" s="7"/>
@@ -6010,7 +6094,7 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -6097,7 +6181,9 @@
       <c r="Y48" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Z48" s="6"/>
+      <c r="Z48" s="6">
+        <v>1</v>
+      </c>
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
@@ -6109,7 +6195,7 @@
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -6196,7 +6282,9 @@
       <c r="Y49" s="7">
         <v>1</v>
       </c>
-      <c r="Z49" s="7"/>
+      <c r="Z49" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
       <c r="AC49" s="7"/>
@@ -6216,7 +6304,7 @@
       </c>
       <c r="AL49" s="47">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:39">
@@ -6623,7 +6711,9 @@
       <c r="Y56" s="6">
         <v>1</v>
       </c>
-      <c r="Z56" s="6"/>
+      <c r="Z56" s="6">
+        <v>1</v>
+      </c>
       <c r="AA56" s="6"/>
       <c r="AB56" s="6"/>
       <c r="AC56" s="6"/>
@@ -6635,7 +6725,7 @@
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -6725,7 +6815,9 @@
       <c r="Y57" s="7">
         <v>1</v>
       </c>
-      <c r="Z57" s="7"/>
+      <c r="Z57" s="7">
+        <v>1</v>
+      </c>
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
       <c r="AC57" s="7"/>
@@ -6737,7 +6829,7 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>
@@ -6765,12 +6857,12 @@
     <mergeCell ref="A52:AL52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AI49">
-    <cfRule type="containsBlanks" dxfId="10" priority="2">
+    <cfRule type="containsBlanks" dxfId="12" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:AI57">
-    <cfRule type="containsBlanks" dxfId="9" priority="1">
+    <cfRule type="containsBlanks" dxfId="11" priority="1">
       <formula>LEN(TRIM(E55))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10718,7 +10810,7 @@
     <mergeCell ref="A52:AK52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AH49 E55:AH57">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="10" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14747,12 +14839,12 @@
     <mergeCell ref="A52:AL52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AI49">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="9" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:AI57">
-    <cfRule type="containsBlanks" dxfId="6" priority="1">
+    <cfRule type="containsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(E55))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -846,63 +846,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1220,7 +1164,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
+      <selection pane="bottomRight" activeCell="AA47" sqref="AA47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1631,7 +1575,9 @@
       <c r="Z5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AA5" s="6"/>
+      <c r="AA5" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -1646,7 +1592,7 @@
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL5" s="38">
         <f t="shared" ref="AL5:AL18" si="2">COUNTIF(E5:AI5,"бв")</f>
@@ -1732,7 +1678,9 @@
       <c r="Z6" s="7">
         <v>1</v>
       </c>
-      <c r="AA6" s="7"/>
+      <c r="AA6" s="7">
+        <v>1</v>
+      </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -1743,7 +1691,7 @@
       <c r="AI6" s="10"/>
       <c r="AJ6" s="39">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK6" s="40">
         <f t="shared" si="1"/>
@@ -1952,7 +1900,9 @@
       <c r="Z8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AA8" s="6"/>
+      <c r="AA8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
@@ -1967,7 +1917,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -2053,7 +2003,9 @@
       <c r="Z9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AA9" s="6"/>
+      <c r="AA9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
@@ -2068,7 +2020,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2392,7 +2344,9 @@
       <c r="Z12" s="6">
         <v>1</v>
       </c>
-      <c r="AA12" s="6"/>
+      <c r="AA12" s="6">
+        <v>1</v>
+      </c>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
@@ -2403,7 +2357,7 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2493,7 +2447,9 @@
       <c r="Z13" s="6">
         <v>1</v>
       </c>
-      <c r="AA13" s="6"/>
+      <c r="AA13" s="6">
+        <v>1</v>
+      </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
@@ -2504,7 +2460,7 @@
       <c r="AI13" s="9"/>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2594,7 +2550,9 @@
       <c r="Z14" s="6">
         <v>1</v>
       </c>
-      <c r="AA14" s="6"/>
+      <c r="AA14" s="6">
+        <v>1</v>
+      </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
@@ -2605,7 +2563,7 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2695,7 +2653,9 @@
       <c r="Z15" s="6">
         <v>1</v>
       </c>
-      <c r="AA15" s="6"/>
+      <c r="AA15" s="6">
+        <v>1</v>
+      </c>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
@@ -2706,7 +2666,7 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2796,7 +2756,9 @@
       <c r="Z16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AA16" s="6"/>
+      <c r="AA16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
@@ -2811,7 +2773,7 @@
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL16" s="38">
         <f t="shared" si="2"/>
@@ -2897,7 +2859,9 @@
       <c r="Z17" s="6">
         <v>1</v>
       </c>
-      <c r="AA17" s="6"/>
+      <c r="AA17" s="6">
+        <v>1</v>
+      </c>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
@@ -2908,7 +2872,7 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -2998,7 +2962,9 @@
       <c r="Z18" s="6">
         <v>1</v>
       </c>
-      <c r="AA18" s="6"/>
+      <c r="AA18" s="6">
+        <v>1</v>
+      </c>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
@@ -3009,7 +2975,7 @@
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -3099,7 +3065,9 @@
       <c r="Z19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AA19" s="6"/>
+      <c r="AA19" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
@@ -3114,7 +3082,7 @@
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL19" s="38">
         <f t="shared" ref="AL19:AL34" si="5">COUNTIF(E19:AI19,"бв")</f>
@@ -3200,7 +3168,9 @@
       <c r="Z20" s="6">
         <v>1</v>
       </c>
-      <c r="AA20" s="6"/>
+      <c r="AA20" s="6">
+        <v>1</v>
+      </c>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
@@ -3211,7 +3181,7 @@
       <c r="AI20" s="9"/>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
@@ -3301,7 +3271,9 @@
       <c r="Z21" s="6">
         <v>1</v>
       </c>
-      <c r="AA21" s="6"/>
+      <c r="AA21" s="6">
+        <v>1</v>
+      </c>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
@@ -3312,7 +3284,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -3402,7 +3374,9 @@
       <c r="Z22" s="6">
         <v>1</v>
       </c>
-      <c r="AA22" s="6"/>
+      <c r="AA22" s="6">
+        <v>1</v>
+      </c>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
@@ -3413,7 +3387,7 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -3503,7 +3477,9 @@
       <c r="Z23" s="7">
         <v>1</v>
       </c>
-      <c r="AA23" s="7"/>
+      <c r="AA23" s="7">
+        <v>1</v>
+      </c>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
@@ -3514,7 +3490,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="45">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
@@ -3604,7 +3580,9 @@
       <c r="Z24" s="6">
         <v>1</v>
       </c>
-      <c r="AA24" s="6"/>
+      <c r="AA24" s="6">
+        <v>1</v>
+      </c>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
@@ -3615,7 +3593,7 @@
       <c r="AI24" s="9"/>
       <c r="AJ24" s="42">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
@@ -3708,7 +3686,9 @@
       <c r="Z25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AA25" s="6"/>
+      <c r="AA25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
@@ -3723,7 +3703,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3812,7 +3792,9 @@
       <c r="Z26" s="6">
         <v>1</v>
       </c>
-      <c r="AA26" s="6"/>
+      <c r="AA26" s="6">
+        <v>1</v>
+      </c>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
@@ -3823,7 +3805,7 @@
       <c r="AI26" s="9"/>
       <c r="AJ26" s="36">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
@@ -3913,10 +3895,12 @@
       <c r="Y27" s="6">
         <v>1</v>
       </c>
-      <c r="Z27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="6"/>
+      <c r="Z27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA27" s="6">
+        <v>1</v>
+      </c>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
@@ -3935,7 +3919,7 @@
       </c>
       <c r="AL27" s="38">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM27" s="3" t="s">
         <v>66</v>
@@ -4020,7 +4004,9 @@
       <c r="Z28" s="6">
         <v>1</v>
       </c>
-      <c r="AA28" s="6"/>
+      <c r="AA28" s="6">
+        <v>1</v>
+      </c>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
@@ -4031,7 +4017,7 @@
       <c r="AI28" s="9"/>
       <c r="AJ28" s="36">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK28" s="37">
         <f t="shared" si="4"/>
@@ -4124,7 +4110,9 @@
       <c r="Z29" s="6">
         <v>1</v>
       </c>
-      <c r="AA29" s="6"/>
+      <c r="AA29" s="6">
+        <v>1</v>
+      </c>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
@@ -4135,7 +4123,7 @@
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -4228,7 +4216,9 @@
       <c r="Z30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AA30" s="7"/>
+      <c r="AA30" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
@@ -4243,7 +4233,7 @@
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL30" s="47">
         <f t="shared" si="5"/>
@@ -4451,7 +4441,9 @@
       <c r="Z32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AA32" s="6"/>
+      <c r="AA32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
@@ -4466,7 +4458,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -5153,7 +5145,9 @@
       <c r="Z38" s="6">
         <v>1</v>
       </c>
-      <c r="AA38" s="6"/>
+      <c r="AA38" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
@@ -5168,7 +5162,7 @@
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="44">
         <f t="shared" si="8"/>
@@ -5257,7 +5251,9 @@
       <c r="Z39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AA39" s="6"/>
+      <c r="AA39" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
@@ -5272,7 +5268,7 @@
       </c>
       <c r="AK39" s="37">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL39" s="38">
         <f t="shared" si="8"/>
@@ -5361,7 +5357,9 @@
       <c r="Z40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AA40" s="7"/>
+      <c r="AA40" s="7">
+        <v>1</v>
+      </c>
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
       <c r="AD40" s="7"/>
@@ -5372,7 +5370,7 @@
       <c r="AI40" s="10"/>
       <c r="AJ40" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
@@ -5465,7 +5463,9 @@
       <c r="Z41" s="6">
         <v>1</v>
       </c>
-      <c r="AA41" s="6"/>
+      <c r="AA41" s="6">
+        <v>1</v>
+      </c>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
@@ -5476,7 +5476,7 @@
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -5569,7 +5569,9 @@
       <c r="Z42" s="6">
         <v>1</v>
       </c>
-      <c r="AA42" s="6"/>
+      <c r="AA42" s="6">
+        <v>1</v>
+      </c>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
@@ -5580,7 +5582,7 @@
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -5673,7 +5675,9 @@
       <c r="Z43" s="6">
         <v>1</v>
       </c>
-      <c r="AA43" s="6"/>
+      <c r="AA43" s="6">
+        <v>1</v>
+      </c>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
@@ -5684,7 +5688,7 @@
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -5777,7 +5781,9 @@
       <c r="Z44" s="6">
         <v>1</v>
       </c>
-      <c r="AA44" s="6"/>
+      <c r="AA44" s="6">
+        <v>1</v>
+      </c>
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
@@ -5788,7 +5794,7 @@
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -5881,7 +5887,9 @@
       <c r="Z45" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AA45" s="6"/>
+      <c r="AA45" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
@@ -5896,7 +5904,7 @@
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL45" s="38">
         <f t="shared" si="8"/>
@@ -5982,7 +5990,9 @@
       <c r="Z46" s="6">
         <v>1</v>
       </c>
-      <c r="AA46" s="6"/>
+      <c r="AA46" s="6">
+        <v>1</v>
+      </c>
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
@@ -5993,7 +6003,7 @@
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -6083,7 +6093,9 @@
       <c r="Z47" s="7">
         <v>1</v>
       </c>
-      <c r="AA47" s="7"/>
+      <c r="AA47" s="7">
+        <v>1</v>
+      </c>
       <c r="AB47" s="7"/>
       <c r="AC47" s="7"/>
       <c r="AD47" s="7"/>
@@ -6094,7 +6106,7 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -6184,7 +6196,9 @@
       <c r="Z48" s="6">
         <v>1</v>
       </c>
-      <c r="AA48" s="6"/>
+      <c r="AA48" s="6">
+        <v>1</v>
+      </c>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
@@ -6195,7 +6209,7 @@
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -6285,7 +6299,9 @@
       <c r="Z49" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AA49" s="7"/>
+      <c r="AA49" s="7">
+        <v>1</v>
+      </c>
       <c r="AB49" s="7"/>
       <c r="AC49" s="7"/>
       <c r="AD49" s="7"/>
@@ -6296,7 +6312,7 @@
       <c r="AI49" s="10"/>
       <c r="AJ49" s="45">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK49" s="46">
         <f t="shared" si="7"/>
@@ -6714,7 +6730,9 @@
       <c r="Z56" s="6">
         <v>1</v>
       </c>
-      <c r="AA56" s="6"/>
+      <c r="AA56" s="6">
+        <v>1</v>
+      </c>
       <c r="AB56" s="6"/>
       <c r="AC56" s="6"/>
       <c r="AD56" s="6"/>
@@ -6725,7 +6743,7 @@
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -6818,7 +6836,9 @@
       <c r="Z57" s="7">
         <v>1</v>
       </c>
-      <c r="AA57" s="7"/>
+      <c r="AA57" s="7">
+        <v>1</v>
+      </c>
       <c r="AB57" s="7"/>
       <c r="AC57" s="7"/>
       <c r="AD57" s="7"/>
@@ -6829,7 +6849,7 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>
@@ -6857,12 +6877,12 @@
     <mergeCell ref="A52:AL52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AI49">
-    <cfRule type="containsBlanks" dxfId="12" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:AI57">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(E55))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10810,7 +10830,7 @@
     <mergeCell ref="A52:AK52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AH49 E55:AH57">
-    <cfRule type="containsBlanks" dxfId="10" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14839,12 +14859,12 @@
     <mergeCell ref="A52:AL52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AI49">
-    <cfRule type="containsBlanks" dxfId="9" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:AI57">
-    <cfRule type="containsBlanks" dxfId="8" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(E55))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -1150,7 +1150,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1164,7 +1164,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA47" sqref="AA47"/>
+      <selection pane="bottomRight" activeCell="AB50" sqref="AB50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1578,7 +1578,9 @@
       <c r="AA5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AB5" s="6"/>
+      <c r="AB5" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
@@ -1592,7 +1594,7 @@
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL5" s="38">
         <f t="shared" ref="AL5:AL18" si="2">COUNTIF(E5:AI5,"бв")</f>
@@ -1681,7 +1683,9 @@
       <c r="AA6" s="7">
         <v>1</v>
       </c>
-      <c r="AB6" s="7"/>
+      <c r="AB6" s="7">
+        <v>1</v>
+      </c>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
@@ -1691,7 +1695,7 @@
       <c r="AI6" s="10"/>
       <c r="AJ6" s="39">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK6" s="40">
         <f t="shared" si="1"/>
@@ -1903,7 +1907,9 @@
       <c r="AA8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AB8" s="6"/>
+      <c r="AB8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
@@ -1917,7 +1923,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -2006,7 +2012,9 @@
       <c r="AA9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AB9" s="6"/>
+      <c r="AB9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="6"/>
@@ -2020,7 +2028,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2347,7 +2355,9 @@
       <c r="AA12" s="6">
         <v>1</v>
       </c>
-      <c r="AB12" s="6"/>
+      <c r="AB12" s="6">
+        <v>1</v>
+      </c>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
@@ -2357,7 +2367,7 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2450,7 +2460,9 @@
       <c r="AA13" s="6">
         <v>1</v>
       </c>
-      <c r="AB13" s="6"/>
+      <c r="AB13" s="6">
+        <v>1</v>
+      </c>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="6"/>
@@ -2460,7 +2472,7 @@
       <c r="AI13" s="9"/>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2553,7 +2565,9 @@
       <c r="AA14" s="6">
         <v>1</v>
       </c>
-      <c r="AB14" s="6"/>
+      <c r="AB14" s="6">
+        <v>1</v>
+      </c>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="6"/>
@@ -2563,7 +2577,7 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2656,7 +2670,9 @@
       <c r="AA15" s="6">
         <v>1</v>
       </c>
-      <c r="AB15" s="6"/>
+      <c r="AB15" s="6">
+        <v>1</v>
+      </c>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="6"/>
@@ -2666,7 +2682,7 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2759,7 +2775,9 @@
       <c r="AA16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AB16" s="6"/>
+      <c r="AB16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
@@ -2773,7 +2791,7 @@
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL16" s="38">
         <f t="shared" si="2"/>
@@ -2862,7 +2880,9 @@
       <c r="AA17" s="6">
         <v>1</v>
       </c>
-      <c r="AB17" s="6"/>
+      <c r="AB17" s="6">
+        <v>1</v>
+      </c>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
       <c r="AE17" s="6"/>
@@ -2872,7 +2892,7 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -2965,7 +2985,9 @@
       <c r="AA18" s="6">
         <v>1</v>
       </c>
-      <c r="AB18" s="6"/>
+      <c r="AB18" s="6">
+        <v>1</v>
+      </c>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="6"/>
@@ -2975,7 +2997,7 @@
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -3068,7 +3090,9 @@
       <c r="AA19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AB19" s="6"/>
+      <c r="AB19" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
       <c r="AE19" s="6"/>
@@ -3082,7 +3106,7 @@
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL19" s="38">
         <f t="shared" ref="AL19:AL34" si="5">COUNTIF(E19:AI19,"бв")</f>
@@ -3171,7 +3195,9 @@
       <c r="AA20" s="6">
         <v>1</v>
       </c>
-      <c r="AB20" s="6"/>
+      <c r="AB20" s="6">
+        <v>1</v>
+      </c>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
       <c r="AE20" s="6"/>
@@ -3181,7 +3207,7 @@
       <c r="AI20" s="9"/>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
@@ -3274,7 +3300,9 @@
       <c r="AA21" s="6">
         <v>1</v>
       </c>
-      <c r="AB21" s="6"/>
+      <c r="AB21" s="6">
+        <v>1</v>
+      </c>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
@@ -3284,7 +3312,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -3377,7 +3405,9 @@
       <c r="AA22" s="6">
         <v>1</v>
       </c>
-      <c r="AB22" s="6"/>
+      <c r="AB22" s="6">
+        <v>1</v>
+      </c>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
@@ -3387,7 +3417,7 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -3480,7 +3510,9 @@
       <c r="AA23" s="7">
         <v>1</v>
       </c>
-      <c r="AB23" s="7"/>
+      <c r="AB23" s="7">
+        <v>1</v>
+      </c>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
@@ -3490,7 +3522,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="45">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
@@ -3583,7 +3615,9 @@
       <c r="AA24" s="6">
         <v>1</v>
       </c>
-      <c r="AB24" s="6"/>
+      <c r="AB24" s="6">
+        <v>1</v>
+      </c>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
@@ -3593,7 +3627,7 @@
       <c r="AI24" s="9"/>
       <c r="AJ24" s="42">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
@@ -3689,7 +3723,9 @@
       <c r="AA25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AB25" s="6"/>
+      <c r="AB25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="6"/>
@@ -3703,7 +3739,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3795,7 +3831,9 @@
       <c r="AA26" s="6">
         <v>1</v>
       </c>
-      <c r="AB26" s="6"/>
+      <c r="AB26" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="6"/>
@@ -3813,7 +3851,7 @@
       </c>
       <c r="AL26" s="38">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM26" s="3" t="s">
         <v>66</v>
@@ -3901,7 +3939,9 @@
       <c r="AA27" s="6">
         <v>1</v>
       </c>
-      <c r="AB27" s="6"/>
+      <c r="AB27" s="6">
+        <v>1</v>
+      </c>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
       <c r="AE27" s="6"/>
@@ -3911,7 +3951,7 @@
       <c r="AI27" s="9"/>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -4007,7 +4047,9 @@
       <c r="AA28" s="6">
         <v>1</v>
       </c>
-      <c r="AB28" s="6"/>
+      <c r="AB28" s="6">
+        <v>1</v>
+      </c>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
       <c r="AE28" s="6"/>
@@ -4017,7 +4059,7 @@
       <c r="AI28" s="9"/>
       <c r="AJ28" s="36">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK28" s="37">
         <f t="shared" si="4"/>
@@ -4113,7 +4155,9 @@
       <c r="AA29" s="6">
         <v>1</v>
       </c>
-      <c r="AB29" s="6"/>
+      <c r="AB29" s="6">
+        <v>1</v>
+      </c>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="6"/>
@@ -4123,7 +4167,7 @@
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -4219,7 +4263,9 @@
       <c r="AA30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AB30" s="7"/>
+      <c r="AB30" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
@@ -4233,7 +4279,7 @@
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL30" s="47">
         <f t="shared" si="5"/>
@@ -4444,7 +4490,9 @@
       <c r="AA32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AB32" s="6"/>
+      <c r="AB32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="6"/>
@@ -4458,7 +4506,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -5148,7 +5196,9 @@
       <c r="AA38" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AB38" s="6"/>
+      <c r="AB38" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
       <c r="AE38" s="6"/>
@@ -5162,7 +5212,7 @@
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL38" s="44">
         <f t="shared" si="8"/>
@@ -5254,7 +5304,9 @@
       <c r="AA39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AB39" s="6"/>
+      <c r="AB39" s="6">
+        <v>1</v>
+      </c>
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
       <c r="AE39" s="6"/>
@@ -5264,7 +5316,7 @@
       <c r="AI39" s="6"/>
       <c r="AJ39" s="36">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK39" s="37">
         <f t="shared" si="7"/>
@@ -5360,7 +5412,9 @@
       <c r="AA40" s="7">
         <v>1</v>
       </c>
-      <c r="AB40" s="7"/>
+      <c r="AB40" s="7">
+        <v>1</v>
+      </c>
       <c r="AC40" s="7"/>
       <c r="AD40" s="7"/>
       <c r="AE40" s="7"/>
@@ -5370,7 +5424,7 @@
       <c r="AI40" s="10"/>
       <c r="AJ40" s="45">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
@@ -5466,7 +5520,9 @@
       <c r="AA41" s="6">
         <v>1</v>
       </c>
-      <c r="AB41" s="6"/>
+      <c r="AB41" s="6">
+        <v>1</v>
+      </c>
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
       <c r="AE41" s="6"/>
@@ -5476,7 +5532,7 @@
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -5572,7 +5628,9 @@
       <c r="AA42" s="6">
         <v>1</v>
       </c>
-      <c r="AB42" s="6"/>
+      <c r="AB42" s="6">
+        <v>1</v>
+      </c>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
       <c r="AE42" s="6"/>
@@ -5582,7 +5640,7 @@
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -5678,7 +5736,9 @@
       <c r="AA43" s="6">
         <v>1</v>
       </c>
-      <c r="AB43" s="6"/>
+      <c r="AB43" s="6">
+        <v>1</v>
+      </c>
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
       <c r="AE43" s="6"/>
@@ -5688,7 +5748,7 @@
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -5784,7 +5844,9 @@
       <c r="AA44" s="6">
         <v>1</v>
       </c>
-      <c r="AB44" s="6"/>
+      <c r="AB44" s="6">
+        <v>1</v>
+      </c>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
@@ -5794,7 +5856,7 @@
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -5890,7 +5952,9 @@
       <c r="AA45" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AB45" s="6"/>
+      <c r="AB45" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
@@ -5904,7 +5968,7 @@
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL45" s="38">
         <f t="shared" si="8"/>
@@ -5993,7 +6057,9 @@
       <c r="AA46" s="6">
         <v>1</v>
       </c>
-      <c r="AB46" s="6"/>
+      <c r="AB46" s="6">
+        <v>1</v>
+      </c>
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
@@ -6003,7 +6069,7 @@
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -6096,7 +6162,9 @@
       <c r="AA47" s="7">
         <v>1</v>
       </c>
-      <c r="AB47" s="7"/>
+      <c r="AB47" s="7">
+        <v>1</v>
+      </c>
       <c r="AC47" s="7"/>
       <c r="AD47" s="7"/>
       <c r="AE47" s="7"/>
@@ -6106,7 +6174,7 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -6199,7 +6267,9 @@
       <c r="AA48" s="6">
         <v>1</v>
       </c>
-      <c r="AB48" s="6"/>
+      <c r="AB48" s="6">
+        <v>1</v>
+      </c>
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
@@ -6209,7 +6279,7 @@
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -6302,7 +6372,9 @@
       <c r="AA49" s="7">
         <v>1</v>
       </c>
-      <c r="AB49" s="7"/>
+      <c r="AB49" s="7">
+        <v>1</v>
+      </c>
       <c r="AC49" s="7"/>
       <c r="AD49" s="7"/>
       <c r="AE49" s="7"/>
@@ -6312,7 +6384,7 @@
       <c r="AI49" s="10"/>
       <c r="AJ49" s="45">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK49" s="46">
         <f t="shared" si="7"/>
@@ -6733,7 +6805,9 @@
       <c r="AA56" s="6">
         <v>1</v>
       </c>
-      <c r="AB56" s="6"/>
+      <c r="AB56" s="6">
+        <v>1</v>
+      </c>
       <c r="AC56" s="6"/>
       <c r="AD56" s="6"/>
       <c r="AE56" s="6"/>
@@ -6743,7 +6817,7 @@
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -6839,7 +6913,9 @@
       <c r="AA57" s="7">
         <v>1</v>
       </c>
-      <c r="AB57" s="7"/>
+      <c r="AB57" s="7">
+        <v>1</v>
+      </c>
       <c r="AC57" s="7"/>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
@@ -6849,7 +6925,7 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -1150,7 +1150,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1164,7 +1164,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB50" sqref="AB50"/>
+      <selection pane="bottomRight" activeCell="AC50" sqref="AC50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1581,7 +1581,9 @@
       <c r="AB5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AC5" s="6"/>
+      <c r="AC5" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
@@ -1594,7 +1596,7 @@
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL5" s="38">
         <f t="shared" ref="AL5:AL18" si="2">COUNTIF(E5:AI5,"бв")</f>
@@ -1686,7 +1688,9 @@
       <c r="AB6" s="7">
         <v>1</v>
       </c>
-      <c r="AC6" s="7"/>
+      <c r="AC6" s="7">
+        <v>1</v>
+      </c>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
@@ -1695,7 +1699,7 @@
       <c r="AI6" s="10"/>
       <c r="AJ6" s="39">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK6" s="40">
         <f t="shared" si="1"/>
@@ -1910,7 +1914,9 @@
       <c r="AB8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AC8" s="6"/>
+      <c r="AC8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
@@ -1923,7 +1929,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -2015,7 +2021,9 @@
       <c r="AB9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AC9" s="6"/>
+      <c r="AC9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AD9" s="6"/>
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
@@ -2028,7 +2036,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2358,7 +2366,9 @@
       <c r="AB12" s="6">
         <v>1</v>
       </c>
-      <c r="AC12" s="6"/>
+      <c r="AC12" s="6">
+        <v>1</v>
+      </c>
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
       <c r="AF12" s="6"/>
@@ -2367,7 +2377,7 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2463,7 +2473,9 @@
       <c r="AB13" s="6">
         <v>1</v>
       </c>
-      <c r="AC13" s="6"/>
+      <c r="AC13" s="6">
+        <v>1</v>
+      </c>
       <c r="AD13" s="6"/>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
@@ -2472,7 +2484,7 @@
       <c r="AI13" s="9"/>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2568,7 +2580,9 @@
       <c r="AB14" s="6">
         <v>1</v>
       </c>
-      <c r="AC14" s="6"/>
+      <c r="AC14" s="6">
+        <v>1</v>
+      </c>
       <c r="AD14" s="6"/>
       <c r="AE14" s="6"/>
       <c r="AF14" s="6"/>
@@ -2577,7 +2591,7 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2673,7 +2687,9 @@
       <c r="AB15" s="6">
         <v>1</v>
       </c>
-      <c r="AC15" s="6"/>
+      <c r="AC15" s="6">
+        <v>1</v>
+      </c>
       <c r="AD15" s="6"/>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6"/>
@@ -2682,7 +2698,7 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2778,7 +2794,9 @@
       <c r="AB16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AC16" s="6"/>
+      <c r="AC16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
       <c r="AF16" s="6"/>
@@ -2791,7 +2809,7 @@
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL16" s="38">
         <f t="shared" si="2"/>
@@ -2883,7 +2901,9 @@
       <c r="AB17" s="6">
         <v>1</v>
       </c>
-      <c r="AC17" s="6"/>
+      <c r="AC17" s="6">
+        <v>1</v>
+      </c>
       <c r="AD17" s="6"/>
       <c r="AE17" s="6"/>
       <c r="AF17" s="6"/>
@@ -2892,7 +2912,7 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -2988,7 +3008,9 @@
       <c r="AB18" s="6">
         <v>1</v>
       </c>
-      <c r="AC18" s="6"/>
+      <c r="AC18" s="6">
+        <v>1</v>
+      </c>
       <c r="AD18" s="6"/>
       <c r="AE18" s="6"/>
       <c r="AF18" s="6"/>
@@ -2997,7 +3019,7 @@
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -3093,7 +3115,9 @@
       <c r="AB19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AC19" s="6"/>
+      <c r="AC19" s="6">
+        <v>1</v>
+      </c>
       <c r="AD19" s="6"/>
       <c r="AE19" s="6"/>
       <c r="AF19" s="6"/>
@@ -3102,7 +3126,7 @@
       <c r="AI19" s="9"/>
       <c r="AJ19" s="36">
         <f t="shared" ref="AJ19:AJ34" si="3">COUNTIF(E19:AI19,1)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
@@ -3198,7 +3222,9 @@
       <c r="AB20" s="6">
         <v>1</v>
       </c>
-      <c r="AC20" s="6"/>
+      <c r="AC20" s="6">
+        <v>1</v>
+      </c>
       <c r="AD20" s="6"/>
       <c r="AE20" s="6"/>
       <c r="AF20" s="6"/>
@@ -3207,7 +3233,7 @@
       <c r="AI20" s="9"/>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
@@ -3303,7 +3329,9 @@
       <c r="AB21" s="6">
         <v>1</v>
       </c>
-      <c r="AC21" s="6"/>
+      <c r="AC21" s="6">
+        <v>1</v>
+      </c>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6"/>
@@ -3312,7 +3340,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -3408,7 +3436,9 @@
       <c r="AB22" s="6">
         <v>1</v>
       </c>
-      <c r="AC22" s="6"/>
+      <c r="AC22" s="6">
+        <v>1</v>
+      </c>
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
       <c r="AF22" s="6"/>
@@ -3417,7 +3447,7 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -3513,7 +3543,9 @@
       <c r="AB23" s="7">
         <v>1</v>
       </c>
-      <c r="AC23" s="7"/>
+      <c r="AC23" s="7">
+        <v>1</v>
+      </c>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
@@ -3522,7 +3554,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="45">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
@@ -3618,7 +3650,9 @@
       <c r="AB24" s="6">
         <v>1</v>
       </c>
-      <c r="AC24" s="6"/>
+      <c r="AC24" s="6">
+        <v>1</v>
+      </c>
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
       <c r="AF24" s="6"/>
@@ -3627,7 +3661,7 @@
       <c r="AI24" s="9"/>
       <c r="AJ24" s="42">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
@@ -3726,7 +3760,9 @@
       <c r="AB25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AC25" s="6"/>
+      <c r="AC25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AD25" s="6"/>
       <c r="AE25" s="6"/>
       <c r="AF25" s="6"/>
@@ -3739,7 +3775,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3834,7 +3870,9 @@
       <c r="AB26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AC26" s="6"/>
+      <c r="AC26" s="6">
+        <v>1</v>
+      </c>
       <c r="AD26" s="6"/>
       <c r="AE26" s="6"/>
       <c r="AF26" s="6"/>
@@ -3843,7 +3881,7 @@
       <c r="AI26" s="9"/>
       <c r="AJ26" s="36">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
@@ -3942,7 +3980,9 @@
       <c r="AB27" s="6">
         <v>1</v>
       </c>
-      <c r="AC27" s="6"/>
+      <c r="AC27" s="6">
+        <v>1</v>
+      </c>
       <c r="AD27" s="6"/>
       <c r="AE27" s="6"/>
       <c r="AF27" s="6"/>
@@ -3951,7 +3991,7 @@
       <c r="AI27" s="9"/>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -4050,7 +4090,9 @@
       <c r="AB28" s="6">
         <v>1</v>
       </c>
-      <c r="AC28" s="6"/>
+      <c r="AC28" s="6">
+        <v>1</v>
+      </c>
       <c r="AD28" s="6"/>
       <c r="AE28" s="6"/>
       <c r="AF28" s="6"/>
@@ -4059,7 +4101,7 @@
       <c r="AI28" s="9"/>
       <c r="AJ28" s="36">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK28" s="37">
         <f t="shared" si="4"/>
@@ -4158,7 +4200,9 @@
       <c r="AB29" s="6">
         <v>1</v>
       </c>
-      <c r="AC29" s="6"/>
+      <c r="AC29" s="6">
+        <v>1</v>
+      </c>
       <c r="AD29" s="6"/>
       <c r="AE29" s="6"/>
       <c r="AF29" s="6"/>
@@ -4167,7 +4211,7 @@
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -4266,7 +4310,9 @@
       <c r="AB30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AC30" s="7"/>
+      <c r="AC30" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
@@ -4279,7 +4325,7 @@
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL30" s="47">
         <f t="shared" si="5"/>
@@ -4493,7 +4539,9 @@
       <c r="AB32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AC32" s="6"/>
+      <c r="AC32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AD32" s="6"/>
       <c r="AE32" s="6"/>
       <c r="AF32" s="6"/>
@@ -4506,7 +4554,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -5199,7 +5247,9 @@
       <c r="AB38" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AC38" s="6"/>
+      <c r="AC38" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AD38" s="6"/>
       <c r="AE38" s="6"/>
       <c r="AF38" s="6"/>
@@ -5212,7 +5262,7 @@
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL38" s="44">
         <f t="shared" si="8"/>
@@ -5307,7 +5357,9 @@
       <c r="AB39" s="6">
         <v>1</v>
       </c>
-      <c r="AC39" s="6"/>
+      <c r="AC39" s="6">
+        <v>1</v>
+      </c>
       <c r="AD39" s="6"/>
       <c r="AE39" s="6"/>
       <c r="AF39" s="6"/>
@@ -5316,7 +5368,7 @@
       <c r="AI39" s="6"/>
       <c r="AJ39" s="36">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK39" s="37">
         <f t="shared" si="7"/>
@@ -5415,7 +5467,9 @@
       <c r="AB40" s="7">
         <v>1</v>
       </c>
-      <c r="AC40" s="7"/>
+      <c r="AC40" s="7">
+        <v>1</v>
+      </c>
       <c r="AD40" s="7"/>
       <c r="AE40" s="7"/>
       <c r="AF40" s="7"/>
@@ -5424,7 +5478,7 @@
       <c r="AI40" s="10"/>
       <c r="AJ40" s="45">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
@@ -5523,7 +5577,9 @@
       <c r="AB41" s="6">
         <v>1</v>
       </c>
-      <c r="AC41" s="6"/>
+      <c r="AC41" s="6">
+        <v>1</v>
+      </c>
       <c r="AD41" s="6"/>
       <c r="AE41" s="6"/>
       <c r="AF41" s="6"/>
@@ -5532,7 +5588,7 @@
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -5631,7 +5687,9 @@
       <c r="AB42" s="6">
         <v>1</v>
       </c>
-      <c r="AC42" s="6"/>
+      <c r="AC42" s="6">
+        <v>1</v>
+      </c>
       <c r="AD42" s="6"/>
       <c r="AE42" s="6"/>
       <c r="AF42" s="6"/>
@@ -5640,7 +5698,7 @@
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -5739,7 +5797,9 @@
       <c r="AB43" s="6">
         <v>1</v>
       </c>
-      <c r="AC43" s="6"/>
+      <c r="AC43" s="6">
+        <v>1</v>
+      </c>
       <c r="AD43" s="6"/>
       <c r="AE43" s="6"/>
       <c r="AF43" s="6"/>
@@ -5748,7 +5808,7 @@
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -5847,7 +5907,9 @@
       <c r="AB44" s="6">
         <v>1</v>
       </c>
-      <c r="AC44" s="6"/>
+      <c r="AC44" s="6">
+        <v>1</v>
+      </c>
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
       <c r="AF44" s="6"/>
@@ -5856,7 +5918,7 @@
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -5955,7 +6017,9 @@
       <c r="AB45" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AC45" s="6"/>
+      <c r="AC45" s="6">
+        <v>1</v>
+      </c>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
       <c r="AF45" s="6"/>
@@ -5964,7 +6028,7 @@
       <c r="AI45" s="9"/>
       <c r="AJ45" s="36">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
@@ -6060,7 +6124,9 @@
       <c r="AB46" s="6">
         <v>1</v>
       </c>
-      <c r="AC46" s="6"/>
+      <c r="AC46" s="6">
+        <v>1</v>
+      </c>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
       <c r="AF46" s="6"/>
@@ -6069,7 +6135,7 @@
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -6165,7 +6231,9 @@
       <c r="AB47" s="7">
         <v>1</v>
       </c>
-      <c r="AC47" s="7"/>
+      <c r="AC47" s="7">
+        <v>1</v>
+      </c>
       <c r="AD47" s="7"/>
       <c r="AE47" s="7"/>
       <c r="AF47" s="7"/>
@@ -6174,7 +6242,7 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -6270,7 +6338,9 @@
       <c r="AB48" s="6">
         <v>1</v>
       </c>
-      <c r="AC48" s="6"/>
+      <c r="AC48" s="6">
+        <v>1</v>
+      </c>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
       <c r="AF48" s="6"/>
@@ -6279,7 +6349,7 @@
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -6375,7 +6445,9 @@
       <c r="AB49" s="7">
         <v>1</v>
       </c>
-      <c r="AC49" s="7"/>
+      <c r="AC49" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="AD49" s="7"/>
       <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
@@ -6392,7 +6464,7 @@
       </c>
       <c r="AL49" s="47">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:39">
@@ -6808,7 +6880,9 @@
       <c r="AB56" s="6">
         <v>1</v>
       </c>
-      <c r="AC56" s="6"/>
+      <c r="AC56" s="6">
+        <v>1</v>
+      </c>
       <c r="AD56" s="6"/>
       <c r="AE56" s="6"/>
       <c r="AF56" s="6"/>
@@ -6817,7 +6891,7 @@
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -6916,7 +6990,9 @@
       <c r="AB57" s="7">
         <v>1</v>
       </c>
-      <c r="AC57" s="7"/>
+      <c r="AC57" s="7">
+        <v>1</v>
+      </c>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
       <c r="AF57" s="7"/>
@@ -6925,7 +7001,7 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -1150,7 +1150,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1164,7 +1164,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC50" sqref="AC50"/>
+      <selection pane="bottomRight" activeCell="AD50" sqref="AD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1584,7 +1584,9 @@
       <c r="AC5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AD5" s="6"/>
+      <c r="AD5" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
@@ -1596,7 +1598,7 @@
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL5" s="38">
         <f t="shared" ref="AL5:AL18" si="2">COUNTIF(E5:AI5,"бв")</f>
@@ -1691,7 +1693,9 @@
       <c r="AC6" s="7">
         <v>1</v>
       </c>
-      <c r="AD6" s="7"/>
+      <c r="AD6" s="7">
+        <v>1</v>
+      </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
@@ -1699,7 +1703,7 @@
       <c r="AI6" s="10"/>
       <c r="AJ6" s="39">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK6" s="40">
         <f t="shared" si="1"/>
@@ -1917,7 +1921,9 @@
       <c r="AC8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AD8" s="6"/>
+      <c r="AD8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
@@ -1929,7 +1935,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -2024,7 +2030,9 @@
       <c r="AC9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AD9" s="6"/>
+      <c r="AD9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
@@ -2036,7 +2044,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2369,7 +2377,9 @@
       <c r="AC12" s="6">
         <v>1</v>
       </c>
-      <c r="AD12" s="6"/>
+      <c r="AD12" s="6">
+        <v>1</v>
+      </c>
       <c r="AE12" s="6"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
@@ -2377,7 +2387,7 @@
       <c r="AI12" s="9"/>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2476,7 +2486,9 @@
       <c r="AC13" s="6">
         <v>1</v>
       </c>
-      <c r="AD13" s="6"/>
+      <c r="AD13" s="6">
+        <v>1</v>
+      </c>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
@@ -2484,7 +2496,7 @@
       <c r="AI13" s="9"/>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2583,7 +2595,9 @@
       <c r="AC14" s="6">
         <v>1</v>
       </c>
-      <c r="AD14" s="6"/>
+      <c r="AD14" s="6">
+        <v>1</v>
+      </c>
       <c r="AE14" s="6"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
@@ -2591,7 +2605,7 @@
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2690,7 +2704,9 @@
       <c r="AC15" s="6">
         <v>1</v>
       </c>
-      <c r="AD15" s="6"/>
+      <c r="AD15" s="6">
+        <v>1</v>
+      </c>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
@@ -2698,7 +2714,7 @@
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2797,7 +2813,9 @@
       <c r="AC16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AD16" s="6"/>
+      <c r="AD16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AE16" s="6"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
@@ -2809,7 +2827,7 @@
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL16" s="38">
         <f t="shared" si="2"/>
@@ -2904,7 +2922,9 @@
       <c r="AC17" s="6">
         <v>1</v>
       </c>
-      <c r="AD17" s="6"/>
+      <c r="AD17" s="6">
+        <v>1</v>
+      </c>
       <c r="AE17" s="6"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="6"/>
@@ -2912,7 +2932,7 @@
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -3011,7 +3031,9 @@
       <c r="AC18" s="6">
         <v>1</v>
       </c>
-      <c r="AD18" s="6"/>
+      <c r="AD18" s="6">
+        <v>1</v>
+      </c>
       <c r="AE18" s="6"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
@@ -3019,7 +3041,7 @@
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -3118,7 +3140,9 @@
       <c r="AC19" s="6">
         <v>1</v>
       </c>
-      <c r="AD19" s="6"/>
+      <c r="AD19" s="6">
+        <v>1</v>
+      </c>
       <c r="AE19" s="6"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="6"/>
@@ -3126,7 +3150,7 @@
       <c r="AI19" s="9"/>
       <c r="AJ19" s="36">
         <f t="shared" ref="AJ19:AJ34" si="3">COUNTIF(E19:AI19,1)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
@@ -3225,7 +3249,9 @@
       <c r="AC20" s="6">
         <v>1</v>
       </c>
-      <c r="AD20" s="6"/>
+      <c r="AD20" s="6">
+        <v>1</v>
+      </c>
       <c r="AE20" s="6"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="6"/>
@@ -3233,7 +3259,7 @@
       <c r="AI20" s="9"/>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
@@ -3332,7 +3358,9 @@
       <c r="AC21" s="6">
         <v>1</v>
       </c>
-      <c r="AD21" s="6"/>
+      <c r="AD21" s="6">
+        <v>1</v>
+      </c>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="6"/>
@@ -3340,7 +3368,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -3439,7 +3467,9 @@
       <c r="AC22" s="6">
         <v>1</v>
       </c>
-      <c r="AD22" s="6"/>
+      <c r="AD22" s="6">
+        <v>1</v>
+      </c>
       <c r="AE22" s="6"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="6"/>
@@ -3447,7 +3477,7 @@
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -3546,7 +3576,9 @@
       <c r="AC23" s="7">
         <v>1</v>
       </c>
-      <c r="AD23" s="7"/>
+      <c r="AD23" s="7">
+        <v>1</v>
+      </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
@@ -3554,7 +3586,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="45">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
@@ -3653,7 +3685,9 @@
       <c r="AC24" s="6">
         <v>1</v>
       </c>
-      <c r="AD24" s="6"/>
+      <c r="AD24" s="6">
+        <v>1</v>
+      </c>
       <c r="AE24" s="6"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="6"/>
@@ -3661,7 +3695,7 @@
       <c r="AI24" s="9"/>
       <c r="AJ24" s="42">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
@@ -3763,7 +3797,9 @@
       <c r="AC25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AD25" s="6"/>
+      <c r="AD25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AE25" s="6"/>
       <c r="AF25" s="6"/>
       <c r="AG25" s="6"/>
@@ -3775,7 +3811,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3873,7 +3909,9 @@
       <c r="AC26" s="6">
         <v>1</v>
       </c>
-      <c r="AD26" s="6"/>
+      <c r="AD26" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AE26" s="6"/>
       <c r="AF26" s="6"/>
       <c r="AG26" s="6"/>
@@ -3885,7 +3923,7 @@
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL26" s="38">
         <f t="shared" si="5"/>
@@ -3983,7 +4021,9 @@
       <c r="AC27" s="6">
         <v>1</v>
       </c>
-      <c r="AD27" s="6"/>
+      <c r="AD27" s="6">
+        <v>1</v>
+      </c>
       <c r="AE27" s="6"/>
       <c r="AF27" s="6"/>
       <c r="AG27" s="6"/>
@@ -3991,7 +4031,7 @@
       <c r="AI27" s="9"/>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -4093,7 +4133,9 @@
       <c r="AC28" s="6">
         <v>1</v>
       </c>
-      <c r="AD28" s="6"/>
+      <c r="AD28" s="6">
+        <v>1</v>
+      </c>
       <c r="AE28" s="6"/>
       <c r="AF28" s="6"/>
       <c r="AG28" s="6"/>
@@ -4101,7 +4143,7 @@
       <c r="AI28" s="9"/>
       <c r="AJ28" s="36">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK28" s="37">
         <f t="shared" si="4"/>
@@ -4203,7 +4245,9 @@
       <c r="AC29" s="6">
         <v>1</v>
       </c>
-      <c r="AD29" s="6"/>
+      <c r="AD29" s="6">
+        <v>1</v>
+      </c>
       <c r="AE29" s="6"/>
       <c r="AF29" s="6"/>
       <c r="AG29" s="6"/>
@@ -4211,7 +4255,7 @@
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -4313,7 +4357,9 @@
       <c r="AC30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AD30" s="7"/>
+      <c r="AD30" s="7">
+        <v>1</v>
+      </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
@@ -4321,7 +4367,7 @@
       <c r="AI30" s="10"/>
       <c r="AJ30" s="45">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
@@ -4542,7 +4588,9 @@
       <c r="AC32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AD32" s="6"/>
+      <c r="AD32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AE32" s="6"/>
       <c r="AF32" s="6"/>
       <c r="AG32" s="6"/>
@@ -4554,7 +4602,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -5250,7 +5298,9 @@
       <c r="AC38" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AD38" s="6"/>
+      <c r="AD38" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AE38" s="6"/>
       <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
@@ -5262,7 +5312,7 @@
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL38" s="44">
         <f t="shared" si="8"/>
@@ -5360,7 +5410,9 @@
       <c r="AC39" s="6">
         <v>1</v>
       </c>
-      <c r="AD39" s="6"/>
+      <c r="AD39" s="6">
+        <v>1</v>
+      </c>
       <c r="AE39" s="6"/>
       <c r="AF39" s="6"/>
       <c r="AG39" s="6"/>
@@ -5368,7 +5420,7 @@
       <c r="AI39" s="6"/>
       <c r="AJ39" s="36">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK39" s="37">
         <f t="shared" si="7"/>
@@ -5470,7 +5522,9 @@
       <c r="AC40" s="7">
         <v>1</v>
       </c>
-      <c r="AD40" s="7"/>
+      <c r="AD40" s="7">
+        <v>1</v>
+      </c>
       <c r="AE40" s="7"/>
       <c r="AF40" s="7"/>
       <c r="AG40" s="7"/>
@@ -5478,7 +5532,7 @@
       <c r="AI40" s="10"/>
       <c r="AJ40" s="45">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
@@ -5580,7 +5634,9 @@
       <c r="AC41" s="6">
         <v>1</v>
       </c>
-      <c r="AD41" s="6"/>
+      <c r="AD41" s="6">
+        <v>1</v>
+      </c>
       <c r="AE41" s="6"/>
       <c r="AF41" s="6"/>
       <c r="AG41" s="6"/>
@@ -5588,7 +5644,7 @@
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -5690,7 +5746,9 @@
       <c r="AC42" s="6">
         <v>1</v>
       </c>
-      <c r="AD42" s="6"/>
+      <c r="AD42" s="6">
+        <v>1</v>
+      </c>
       <c r="AE42" s="6"/>
       <c r="AF42" s="6"/>
       <c r="AG42" s="6"/>
@@ -5698,7 +5756,7 @@
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -5800,7 +5858,9 @@
       <c r="AC43" s="6">
         <v>1</v>
       </c>
-      <c r="AD43" s="6"/>
+      <c r="AD43" s="6">
+        <v>1</v>
+      </c>
       <c r="AE43" s="6"/>
       <c r="AF43" s="6"/>
       <c r="AG43" s="6"/>
@@ -5808,7 +5868,7 @@
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -5910,7 +5970,9 @@
       <c r="AC44" s="6">
         <v>1</v>
       </c>
-      <c r="AD44" s="6"/>
+      <c r="AD44" s="6">
+        <v>1</v>
+      </c>
       <c r="AE44" s="6"/>
       <c r="AF44" s="6"/>
       <c r="AG44" s="6"/>
@@ -5918,7 +5980,7 @@
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -6020,7 +6082,9 @@
       <c r="AC45" s="6">
         <v>1</v>
       </c>
-      <c r="AD45" s="6"/>
+      <c r="AD45" s="6">
+        <v>1</v>
+      </c>
       <c r="AE45" s="6"/>
       <c r="AF45" s="6"/>
       <c r="AG45" s="6"/>
@@ -6028,7 +6092,7 @@
       <c r="AI45" s="9"/>
       <c r="AJ45" s="36">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
@@ -6127,7 +6191,9 @@
       <c r="AC46" s="6">
         <v>1</v>
       </c>
-      <c r="AD46" s="6"/>
+      <c r="AD46" s="6">
+        <v>1</v>
+      </c>
       <c r="AE46" s="6"/>
       <c r="AF46" s="6"/>
       <c r="AG46" s="6"/>
@@ -6135,7 +6201,7 @@
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -6234,7 +6300,9 @@
       <c r="AC47" s="7">
         <v>1</v>
       </c>
-      <c r="AD47" s="7"/>
+      <c r="AD47" s="7">
+        <v>1</v>
+      </c>
       <c r="AE47" s="7"/>
       <c r="AF47" s="7"/>
       <c r="AG47" s="7"/>
@@ -6242,7 +6310,7 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -6341,7 +6409,9 @@
       <c r="AC48" s="6">
         <v>1</v>
       </c>
-      <c r="AD48" s="6"/>
+      <c r="AD48" s="6">
+        <v>1</v>
+      </c>
       <c r="AE48" s="6"/>
       <c r="AF48" s="6"/>
       <c r="AG48" s="6"/>
@@ -6349,7 +6419,7 @@
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -6448,7 +6518,9 @@
       <c r="AC49" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AD49" s="7"/>
+      <c r="AD49" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
       <c r="AG49" s="7"/>
@@ -6464,7 +6536,7 @@
       </c>
       <c r="AL49" s="47">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:39">
@@ -6883,7 +6955,9 @@
       <c r="AC56" s="6">
         <v>1</v>
       </c>
-      <c r="AD56" s="6"/>
+      <c r="AD56" s="6">
+        <v>1</v>
+      </c>
       <c r="AE56" s="6"/>
       <c r="AF56" s="6"/>
       <c r="AG56" s="6"/>
@@ -6891,7 +6965,7 @@
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -6993,7 +7067,9 @@
       <c r="AC57" s="7">
         <v>1</v>
       </c>
-      <c r="AD57" s="7"/>
+      <c r="AD57" s="7">
+        <v>1</v>
+      </c>
       <c r="AE57" s="7"/>
       <c r="AF57" s="7"/>
       <c r="AG57" s="7"/>
@@ -7001,7 +7077,7 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -1150,7 +1150,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1164,7 +1164,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD50" sqref="AD50"/>
+      <selection pane="bottomRight" activeCell="AE24" sqref="AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1587,7 +1587,9 @@
       <c r="AD5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AE5" s="6"/>
+      <c r="AE5" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
@@ -1598,7 +1600,7 @@
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL5" s="38">
         <f t="shared" ref="AL5:AL18" si="2">COUNTIF(E5:AI5,"бв")</f>
@@ -1696,14 +1698,16 @@
       <c r="AD6" s="7">
         <v>1</v>
       </c>
-      <c r="AE6" s="7"/>
+      <c r="AE6" s="7">
+        <v>1</v>
+      </c>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
       <c r="AI6" s="10"/>
       <c r="AJ6" s="39">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK6" s="40">
         <f t="shared" si="1"/>
@@ -1924,7 +1928,9 @@
       <c r="AD8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AE8" s="6"/>
+      <c r="AE8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
@@ -1935,7 +1941,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -2033,7 +2039,9 @@
       <c r="AD9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AE9" s="6"/>
+      <c r="AE9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
@@ -2044,7 +2052,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2380,14 +2388,16 @@
       <c r="AD12" s="6">
         <v>1</v>
       </c>
-      <c r="AE12" s="6"/>
+      <c r="AE12" s="6">
+        <v>1</v>
+      </c>
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2489,14 +2499,16 @@
       <c r="AD13" s="6">
         <v>1</v>
       </c>
-      <c r="AE13" s="6"/>
+      <c r="AE13" s="6">
+        <v>1</v>
+      </c>
       <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2598,14 +2610,16 @@
       <c r="AD14" s="6">
         <v>1</v>
       </c>
-      <c r="AE14" s="6"/>
+      <c r="AE14" s="6">
+        <v>1</v>
+      </c>
       <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2707,14 +2721,16 @@
       <c r="AD15" s="6">
         <v>1</v>
       </c>
-      <c r="AE15" s="6"/>
+      <c r="AE15" s="6">
+        <v>1</v>
+      </c>
       <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2816,7 +2832,9 @@
       <c r="AD16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AE16" s="6"/>
+      <c r="AE16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
@@ -2827,7 +2845,7 @@
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL16" s="38">
         <f t="shared" si="2"/>
@@ -2925,14 +2943,16 @@
       <c r="AD17" s="6">
         <v>1</v>
       </c>
-      <c r="AE17" s="6"/>
+      <c r="AE17" s="6">
+        <v>1</v>
+      </c>
       <c r="AF17" s="6"/>
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -3034,14 +3054,16 @@
       <c r="AD18" s="6">
         <v>1</v>
       </c>
-      <c r="AE18" s="6"/>
+      <c r="AE18" s="6">
+        <v>1</v>
+      </c>
       <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -3143,14 +3165,16 @@
       <c r="AD19" s="6">
         <v>1</v>
       </c>
-      <c r="AE19" s="6"/>
+      <c r="AE19" s="6">
+        <v>1</v>
+      </c>
       <c r="AF19" s="6"/>
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="9"/>
       <c r="AJ19" s="36">
         <f t="shared" ref="AJ19:AJ34" si="3">COUNTIF(E19:AI19,1)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
@@ -3252,14 +3276,16 @@
       <c r="AD20" s="6">
         <v>1</v>
       </c>
-      <c r="AE20" s="6"/>
+      <c r="AE20" s="6">
+        <v>1</v>
+      </c>
       <c r="AF20" s="6"/>
       <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="9"/>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
@@ -3361,7 +3387,9 @@
       <c r="AD21" s="6">
         <v>1</v>
       </c>
-      <c r="AE21" s="6"/>
+      <c r="AE21" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="AF21" s="6"/>
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
@@ -3376,7 +3404,7 @@
       </c>
       <c r="AL21" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:39">
@@ -3470,14 +3498,16 @@
       <c r="AD22" s="6">
         <v>1</v>
       </c>
-      <c r="AE22" s="6"/>
+      <c r="AE22" s="6">
+        <v>1</v>
+      </c>
       <c r="AF22" s="6"/>
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -3579,7 +3609,9 @@
       <c r="AD23" s="7">
         <v>1</v>
       </c>
-      <c r="AE23" s="7"/>
+      <c r="AE23" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
@@ -3594,7 +3626,7 @@
       </c>
       <c r="AL23" s="47">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:39">
@@ -3800,7 +3832,9 @@
       <c r="AD25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AE25" s="6"/>
+      <c r="AE25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AF25" s="6"/>
       <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
@@ -3811,7 +3845,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3912,14 +3946,16 @@
       <c r="AD26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AE26" s="6"/>
+      <c r="AE26" s="6">
+        <v>1</v>
+      </c>
       <c r="AF26" s="6"/>
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="9"/>
       <c r="AJ26" s="36">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
@@ -4024,14 +4060,16 @@
       <c r="AD27" s="6">
         <v>1</v>
       </c>
-      <c r="AE27" s="6"/>
+      <c r="AE27" s="6">
+        <v>1</v>
+      </c>
       <c r="AF27" s="6"/>
       <c r="AG27" s="6"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -4136,14 +4174,16 @@
       <c r="AD28" s="6">
         <v>1</v>
       </c>
-      <c r="AE28" s="6"/>
+      <c r="AE28" s="6">
+        <v>1</v>
+      </c>
       <c r="AF28" s="6"/>
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="9"/>
       <c r="AJ28" s="36">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK28" s="37">
         <f t="shared" si="4"/>
@@ -4360,14 +4400,16 @@
       <c r="AD30" s="7">
         <v>1</v>
       </c>
-      <c r="AE30" s="7"/>
+      <c r="AE30" s="7">
+        <v>1</v>
+      </c>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
       <c r="AI30" s="10"/>
       <c r="AJ30" s="45">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
@@ -4591,7 +4633,9 @@
       <c r="AD32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AE32" s="6"/>
+      <c r="AE32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AF32" s="6"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
@@ -4602,7 +4646,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -5301,7 +5345,9 @@
       <c r="AD38" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AE38" s="6"/>
+      <c r="AE38" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
@@ -5312,7 +5358,7 @@
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL38" s="44">
         <f t="shared" si="8"/>
@@ -5413,14 +5459,16 @@
       <c r="AD39" s="6">
         <v>1</v>
       </c>
-      <c r="AE39" s="6"/>
+      <c r="AE39" s="6">
+        <v>1</v>
+      </c>
       <c r="AF39" s="6"/>
       <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
       <c r="AJ39" s="36">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK39" s="37">
         <f t="shared" si="7"/>
@@ -5525,7 +5573,9 @@
       <c r="AD40" s="7">
         <v>1</v>
       </c>
-      <c r="AE40" s="7"/>
+      <c r="AE40" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="AF40" s="7"/>
       <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
@@ -5540,7 +5590,7 @@
       </c>
       <c r="AL40" s="47">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM40" s="3" t="s">
         <v>66</v>
@@ -5637,14 +5687,16 @@
       <c r="AD41" s="6">
         <v>1</v>
       </c>
-      <c r="AE41" s="6"/>
+      <c r="AE41" s="6">
+        <v>1</v>
+      </c>
       <c r="AF41" s="6"/>
       <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -5749,14 +5801,16 @@
       <c r="AD42" s="6">
         <v>1</v>
       </c>
-      <c r="AE42" s="6"/>
+      <c r="AE42" s="6">
+        <v>1</v>
+      </c>
       <c r="AF42" s="6"/>
       <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -5861,14 +5915,16 @@
       <c r="AD43" s="6">
         <v>1</v>
       </c>
-      <c r="AE43" s="6"/>
+      <c r="AE43" s="6">
+        <v>1</v>
+      </c>
       <c r="AF43" s="6"/>
       <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -5973,14 +6029,16 @@
       <c r="AD44" s="6">
         <v>1</v>
       </c>
-      <c r="AE44" s="6"/>
+      <c r="AE44" s="6">
+        <v>1</v>
+      </c>
       <c r="AF44" s="6"/>
       <c r="AG44" s="6"/>
       <c r="AH44" s="6"/>
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -6085,14 +6143,16 @@
       <c r="AD45" s="6">
         <v>1</v>
       </c>
-      <c r="AE45" s="6"/>
+      <c r="AE45" s="6">
+        <v>1</v>
+      </c>
       <c r="AF45" s="6"/>
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
       <c r="AI45" s="9"/>
       <c r="AJ45" s="36">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
@@ -6194,14 +6254,16 @@
       <c r="AD46" s="6">
         <v>1</v>
       </c>
-      <c r="AE46" s="6"/>
+      <c r="AE46" s="6">
+        <v>1</v>
+      </c>
       <c r="AF46" s="6"/>
       <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -6303,14 +6365,16 @@
       <c r="AD47" s="7">
         <v>1</v>
       </c>
-      <c r="AE47" s="7"/>
+      <c r="AE47" s="7">
+        <v>1</v>
+      </c>
       <c r="AF47" s="7"/>
       <c r="AG47" s="7"/>
       <c r="AH47" s="7"/>
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -6412,14 +6476,16 @@
       <c r="AD48" s="6">
         <v>1</v>
       </c>
-      <c r="AE48" s="6"/>
+      <c r="AE48" s="6">
+        <v>1</v>
+      </c>
       <c r="AF48" s="6"/>
       <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -6521,14 +6587,16 @@
       <c r="AD49" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AE49" s="7"/>
+      <c r="AE49" s="7">
+        <v>1</v>
+      </c>
       <c r="AF49" s="7"/>
       <c r="AG49" s="7"/>
       <c r="AH49" s="7"/>
       <c r="AI49" s="10"/>
       <c r="AJ49" s="45">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK49" s="46">
         <f t="shared" si="7"/>
@@ -6958,14 +7026,16 @@
       <c r="AD56" s="6">
         <v>1</v>
       </c>
-      <c r="AE56" s="6"/>
+      <c r="AE56" s="6">
+        <v>1</v>
+      </c>
       <c r="AF56" s="6"/>
       <c r="AG56" s="6"/>
       <c r="AH56" s="6"/>
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -7070,14 +7140,16 @@
       <c r="AD57" s="7">
         <v>1</v>
       </c>
-      <c r="AE57" s="7"/>
+      <c r="AE57" s="7">
+        <v>1</v>
+      </c>
       <c r="AF57" s="7"/>
       <c r="AG57" s="7"/>
       <c r="AH57" s="7"/>
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -846,7 +846,21 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1150,7 +1164,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1164,7 +1178,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE24" sqref="AE24"/>
+      <selection pane="bottomRight" activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1590,7 +1604,9 @@
       <c r="AE5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="6"/>
+      <c r="AF5" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="9"/>
@@ -1600,7 +1616,7 @@
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL5" s="38">
         <f t="shared" ref="AL5:AL18" si="2">COUNTIF(E5:AI5,"бв")</f>
@@ -1701,13 +1717,15 @@
       <c r="AE6" s="7">
         <v>1</v>
       </c>
-      <c r="AF6" s="7"/>
+      <c r="AF6" s="7">
+        <v>1</v>
+      </c>
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
       <c r="AI6" s="10"/>
       <c r="AJ6" s="39">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK6" s="40">
         <f t="shared" si="1"/>
@@ -1931,7 +1949,9 @@
       <c r="AE8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AF8" s="6"/>
+      <c r="AF8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="9"/>
@@ -1941,7 +1961,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -2042,7 +2062,9 @@
       <c r="AE9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AF9" s="6"/>
+      <c r="AF9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="9"/>
@@ -2052,7 +2074,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2391,7 +2413,9 @@
       <c r="AE12" s="6">
         <v>1</v>
       </c>
-      <c r="AF12" s="6"/>
+      <c r="AF12" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="9"/>
@@ -2401,7 +2425,7 @@
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="38">
         <f t="shared" si="2"/>
@@ -2502,13 +2526,15 @@
       <c r="AE13" s="6">
         <v>1</v>
       </c>
-      <c r="AF13" s="6"/>
+      <c r="AF13" s="6">
+        <v>1</v>
+      </c>
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2613,13 +2639,15 @@
       <c r="AE14" s="6">
         <v>1</v>
       </c>
-      <c r="AF14" s="6"/>
+      <c r="AF14" s="6">
+        <v>1</v>
+      </c>
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2724,13 +2752,15 @@
       <c r="AE15" s="6">
         <v>1</v>
       </c>
-      <c r="AF15" s="6"/>
+      <c r="AF15" s="6">
+        <v>1</v>
+      </c>
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2835,7 +2865,9 @@
       <c r="AE16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AF16" s="6"/>
+      <c r="AF16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="9"/>
@@ -2845,7 +2877,7 @@
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL16" s="38">
         <f t="shared" si="2"/>
@@ -2946,13 +2978,15 @@
       <c r="AE17" s="6">
         <v>1</v>
       </c>
-      <c r="AF17" s="6"/>
+      <c r="AF17" s="6">
+        <v>1</v>
+      </c>
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -3057,13 +3091,15 @@
       <c r="AE18" s="6">
         <v>1</v>
       </c>
-      <c r="AF18" s="6"/>
+      <c r="AF18" s="6">
+        <v>1</v>
+      </c>
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -3168,13 +3204,15 @@
       <c r="AE19" s="6">
         <v>1</v>
       </c>
-      <c r="AF19" s="6"/>
+      <c r="AF19" s="6">
+        <v>1</v>
+      </c>
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="9"/>
       <c r="AJ19" s="36">
         <f t="shared" ref="AJ19:AJ34" si="3">COUNTIF(E19:AI19,1)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
@@ -3279,7 +3317,9 @@
       <c r="AE20" s="6">
         <v>1</v>
       </c>
-      <c r="AF20" s="6"/>
+      <c r="AF20" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="9"/>
@@ -3293,7 +3333,7 @@
       </c>
       <c r="AL20" s="38">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:39">
@@ -3390,7 +3430,9 @@
       <c r="AE21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AF21" s="6"/>
+      <c r="AF21" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="9"/>
@@ -3404,7 +3446,7 @@
       </c>
       <c r="AL21" s="38">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:39">
@@ -3501,13 +3543,15 @@
       <c r="AE22" s="6">
         <v>1</v>
       </c>
-      <c r="AF22" s="6"/>
+      <c r="AF22" s="6">
+        <v>1</v>
+      </c>
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -3612,7 +3656,9 @@
       <c r="AE23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AF23" s="7"/>
+      <c r="AF23" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
       <c r="AI23" s="10"/>
@@ -3622,7 +3668,7 @@
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL23" s="47">
         <f t="shared" si="5"/>
@@ -3720,8 +3766,12 @@
       <c r="AD24" s="6">
         <v>1</v>
       </c>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
+      <c r="AE24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="9"/>
@@ -3731,7 +3781,7 @@
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL24" s="44">
         <f t="shared" si="5"/>
@@ -3835,7 +3885,9 @@
       <c r="AE25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AF25" s="6"/>
+      <c r="AF25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="9"/>
@@ -3845,7 +3897,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -3949,13 +4001,15 @@
       <c r="AE26" s="6">
         <v>1</v>
       </c>
-      <c r="AF26" s="6"/>
+      <c r="AF26" s="6">
+        <v>1</v>
+      </c>
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="9"/>
       <c r="AJ26" s="36">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
@@ -4063,13 +4117,15 @@
       <c r="AE27" s="6">
         <v>1</v>
       </c>
-      <c r="AF27" s="6"/>
+      <c r="AF27" s="6">
+        <v>1</v>
+      </c>
       <c r="AG27" s="6"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -4177,13 +4233,15 @@
       <c r="AE28" s="6">
         <v>1</v>
       </c>
-      <c r="AF28" s="6"/>
+      <c r="AF28" s="6">
+        <v>1</v>
+      </c>
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="9"/>
       <c r="AJ28" s="36">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK28" s="37">
         <f t="shared" si="4"/>
@@ -4288,18 +4346,22 @@
       <c r="AD29" s="6">
         <v>1</v>
       </c>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
+      <c r="AE29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF29" s="6">
+        <v>1</v>
+      </c>
       <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="38">
         <f t="shared" si="5"/>
@@ -4403,13 +4465,15 @@
       <c r="AE30" s="7">
         <v>1</v>
       </c>
-      <c r="AF30" s="7"/>
+      <c r="AF30" s="7">
+        <v>1</v>
+      </c>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
       <c r="AI30" s="10"/>
       <c r="AJ30" s="45">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
@@ -4636,7 +4700,9 @@
       <c r="AE32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AF32" s="6"/>
+      <c r="AF32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="9"/>
@@ -4646,7 +4712,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -5348,7 +5414,9 @@
       <c r="AE38" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AF38" s="6"/>
+      <c r="AF38" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="9"/>
@@ -5358,7 +5426,7 @@
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL38" s="44">
         <f t="shared" si="8"/>
@@ -5462,7 +5530,9 @@
       <c r="AE39" s="6">
         <v>1</v>
       </c>
-      <c r="AF39" s="6"/>
+      <c r="AF39" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
@@ -5476,7 +5546,7 @@
       </c>
       <c r="AL39" s="38">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM39" s="3" t="s">
         <v>66</v>
@@ -5576,7 +5646,9 @@
       <c r="AE40" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AF40" s="7"/>
+      <c r="AF40" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
       <c r="AI40" s="10"/>
@@ -5590,7 +5662,7 @@
       </c>
       <c r="AL40" s="47">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM40" s="3" t="s">
         <v>66</v>
@@ -5690,13 +5762,15 @@
       <c r="AE41" s="6">
         <v>1</v>
       </c>
-      <c r="AF41" s="6"/>
+      <c r="AF41" s="6">
+        <v>1</v>
+      </c>
       <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -5804,13 +5878,15 @@
       <c r="AE42" s="6">
         <v>1</v>
       </c>
-      <c r="AF42" s="6"/>
+      <c r="AF42" s="6">
+        <v>1</v>
+      </c>
       <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -5918,13 +5994,15 @@
       <c r="AE43" s="6">
         <v>1</v>
       </c>
-      <c r="AF43" s="6"/>
+      <c r="AF43" s="6">
+        <v>1</v>
+      </c>
       <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -6032,13 +6110,15 @@
       <c r="AE44" s="6">
         <v>1</v>
       </c>
-      <c r="AF44" s="6"/>
+      <c r="AF44" s="6">
+        <v>1</v>
+      </c>
       <c r="AG44" s="6"/>
       <c r="AH44" s="6"/>
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -6146,7 +6226,9 @@
       <c r="AE45" s="6">
         <v>1</v>
       </c>
-      <c r="AF45" s="6"/>
+      <c r="AF45" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
       <c r="AI45" s="9"/>
@@ -6156,7 +6238,7 @@
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL45" s="38">
         <f t="shared" si="8"/>
@@ -6257,13 +6339,15 @@
       <c r="AE46" s="6">
         <v>1</v>
       </c>
-      <c r="AF46" s="6"/>
+      <c r="AF46" s="6">
+        <v>1</v>
+      </c>
       <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -6368,13 +6452,15 @@
       <c r="AE47" s="7">
         <v>1</v>
       </c>
-      <c r="AF47" s="7"/>
+      <c r="AF47" s="7">
+        <v>1</v>
+      </c>
       <c r="AG47" s="7"/>
       <c r="AH47" s="7"/>
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -6479,13 +6565,15 @@
       <c r="AE48" s="6">
         <v>1</v>
       </c>
-      <c r="AF48" s="6"/>
+      <c r="AF48" s="6">
+        <v>1</v>
+      </c>
       <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -6590,13 +6678,15 @@
       <c r="AE49" s="7">
         <v>1</v>
       </c>
-      <c r="AF49" s="7"/>
+      <c r="AF49" s="7">
+        <v>1</v>
+      </c>
       <c r="AG49" s="7"/>
       <c r="AH49" s="7"/>
       <c r="AI49" s="10"/>
       <c r="AJ49" s="45">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK49" s="46">
         <f t="shared" si="7"/>
@@ -7029,13 +7119,15 @@
       <c r="AE56" s="6">
         <v>1</v>
       </c>
-      <c r="AF56" s="6"/>
+      <c r="AF56" s="6">
+        <v>1</v>
+      </c>
       <c r="AG56" s="6"/>
       <c r="AH56" s="6"/>
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -7143,13 +7235,15 @@
       <c r="AE57" s="7">
         <v>1</v>
       </c>
-      <c r="AF57" s="7"/>
+      <c r="AF57" s="7">
+        <v>1</v>
+      </c>
       <c r="AG57" s="7"/>
       <c r="AH57" s="7"/>
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>
@@ -7177,12 +7271,12 @@
     <mergeCell ref="A52:AL52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AI49">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:AI57">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(E55))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11130,7 +11224,7 @@
     <mergeCell ref="A52:AK52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AH49 E55:AH57">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15159,12 +15253,12 @@
     <mergeCell ref="A52:AL52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AI49">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:AI57">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(E55))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="67">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -846,7 +846,14 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1164,7 +1171,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1175,10 +1182,10 @@
   <dimension ref="A1:AM58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF4" sqref="AF4"/>
+      <selection pane="bottomRight" activeCell="AG32" sqref="AG32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1607,7 +1614,9 @@
       <c r="AF5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AG5" s="6"/>
+      <c r="AG5" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AH5" s="6"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="36">
@@ -1616,7 +1625,7 @@
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL5" s="38">
         <f t="shared" ref="AL5:AL18" si="2">COUNTIF(E5:AI5,"бв")</f>
@@ -1720,12 +1729,14 @@
       <c r="AF6" s="7">
         <v>1</v>
       </c>
-      <c r="AG6" s="7"/>
+      <c r="AG6" s="7">
+        <v>1</v>
+      </c>
       <c r="AH6" s="7"/>
       <c r="AI6" s="10"/>
       <c r="AJ6" s="39">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK6" s="40">
         <f t="shared" si="1"/>
@@ -1952,7 +1963,9 @@
       <c r="AF8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AG8" s="6"/>
+      <c r="AG8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AH8" s="6"/>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="36">
@@ -1961,7 +1974,7 @@
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -2065,7 +2078,9 @@
       <c r="AF9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AG9" s="6"/>
+      <c r="AG9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AH9" s="6"/>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="36">
@@ -2074,7 +2089,7 @@
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2416,12 +2431,14 @@
       <c r="AF12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AG12" s="6"/>
+      <c r="AG12" s="6">
+        <v>1</v>
+      </c>
       <c r="AH12" s="6"/>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2529,12 +2546,14 @@
       <c r="AF13" s="6">
         <v>1</v>
       </c>
-      <c r="AG13" s="6"/>
+      <c r="AG13" s="6">
+        <v>1</v>
+      </c>
       <c r="AH13" s="6"/>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2642,12 +2661,14 @@
       <c r="AF14" s="6">
         <v>1</v>
       </c>
-      <c r="AG14" s="6"/>
+      <c r="AG14" s="6">
+        <v>1</v>
+      </c>
       <c r="AH14" s="6"/>
       <c r="AI14" s="9"/>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2755,12 +2776,14 @@
       <c r="AF15" s="6">
         <v>1</v>
       </c>
-      <c r="AG15" s="6"/>
+      <c r="AG15" s="6">
+        <v>1</v>
+      </c>
       <c r="AH15" s="6"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2868,7 +2891,9 @@
       <c r="AF16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AG16" s="6"/>
+      <c r="AG16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AH16" s="6"/>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="36">
@@ -2877,7 +2902,7 @@
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL16" s="38">
         <f t="shared" si="2"/>
@@ -2981,12 +3006,14 @@
       <c r="AF17" s="6">
         <v>1</v>
       </c>
-      <c r="AG17" s="6"/>
+      <c r="AG17" s="6">
+        <v>1</v>
+      </c>
       <c r="AH17" s="6"/>
       <c r="AI17" s="9"/>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -3094,12 +3121,14 @@
       <c r="AF18" s="6">
         <v>1</v>
       </c>
-      <c r="AG18" s="6"/>
+      <c r="AG18" s="6">
+        <v>1</v>
+      </c>
       <c r="AH18" s="6"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -3207,12 +3236,14 @@
       <c r="AF19" s="6">
         <v>1</v>
       </c>
-      <c r="AG19" s="6"/>
+      <c r="AG19" s="6">
+        <v>1</v>
+      </c>
       <c r="AH19" s="6"/>
       <c r="AI19" s="9"/>
       <c r="AJ19" s="36">
         <f t="shared" ref="AJ19:AJ34" si="3">COUNTIF(E19:AI19,1)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
@@ -3320,12 +3351,14 @@
       <c r="AF20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AG20" s="6"/>
+      <c r="AG20" s="6">
+        <v>1</v>
+      </c>
       <c r="AH20" s="6"/>
       <c r="AI20" s="9"/>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
@@ -3433,12 +3466,14 @@
       <c r="AF21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AG21" s="6"/>
+      <c r="AG21" s="6">
+        <v>1</v>
+      </c>
       <c r="AH21" s="6"/>
       <c r="AI21" s="9"/>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -3546,12 +3581,14 @@
       <c r="AF22" s="6">
         <v>1</v>
       </c>
-      <c r="AG22" s="6"/>
+      <c r="AG22" s="6">
+        <v>1</v>
+      </c>
       <c r="AH22" s="6"/>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -3659,12 +3696,14 @@
       <c r="AF23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AG23" s="7"/>
+      <c r="AG23" s="7">
+        <v>1</v>
+      </c>
       <c r="AH23" s="7"/>
       <c r="AI23" s="10"/>
       <c r="AJ23" s="45">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
@@ -3772,12 +3811,14 @@
       <c r="AF24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AG24" s="6"/>
+      <c r="AG24" s="6">
+        <v>1</v>
+      </c>
       <c r="AH24" s="6"/>
       <c r="AI24" s="9"/>
       <c r="AJ24" s="42">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
@@ -3888,7 +3929,9 @@
       <c r="AF25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AG25" s="6"/>
+      <c r="AG25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AH25" s="6"/>
       <c r="AI25" s="9"/>
       <c r="AJ25" s="36">
@@ -3897,7 +3940,7 @@
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
@@ -4004,7 +4047,9 @@
       <c r="AF26" s="6">
         <v>1</v>
       </c>
-      <c r="AG26" s="6"/>
+      <c r="AG26" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AH26" s="6"/>
       <c r="AI26" s="9"/>
       <c r="AJ26" s="36">
@@ -4013,7 +4058,7 @@
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL26" s="38">
         <f t="shared" si="5"/>
@@ -4120,12 +4165,14 @@
       <c r="AF27" s="6">
         <v>1</v>
       </c>
-      <c r="AG27" s="6"/>
+      <c r="AG27" s="6">
+        <v>1</v>
+      </c>
       <c r="AH27" s="6"/>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -4236,12 +4283,14 @@
       <c r="AF28" s="6">
         <v>1</v>
       </c>
-      <c r="AG28" s="6"/>
+      <c r="AG28" s="6">
+        <v>1</v>
+      </c>
       <c r="AH28" s="6"/>
       <c r="AI28" s="9"/>
       <c r="AJ28" s="36">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK28" s="37">
         <f t="shared" si="4"/>
@@ -4352,12 +4401,14 @@
       <c r="AF29" s="6">
         <v>1</v>
       </c>
-      <c r="AG29" s="6"/>
+      <c r="AG29" s="6">
+        <v>1</v>
+      </c>
       <c r="AH29" s="6"/>
       <c r="AI29" s="9"/>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -4468,12 +4519,14 @@
       <c r="AF30" s="7">
         <v>1</v>
       </c>
-      <c r="AG30" s="7"/>
+      <c r="AG30" s="7">
+        <v>1</v>
+      </c>
       <c r="AH30" s="7"/>
       <c r="AI30" s="10"/>
       <c r="AJ30" s="45">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
@@ -4703,7 +4756,9 @@
       <c r="AF32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AG32" s="6"/>
+      <c r="AG32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AH32" s="6"/>
       <c r="AI32" s="9"/>
       <c r="AJ32" s="36">
@@ -4712,7 +4767,7 @@
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
@@ -5417,7 +5472,9 @@
       <c r="AF38" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AG38" s="6"/>
+      <c r="AG38" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AH38" s="6"/>
       <c r="AI38" s="9"/>
       <c r="AJ38" s="42">
@@ -5426,7 +5483,7 @@
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL38" s="44">
         <f t="shared" si="8"/>
@@ -5533,12 +5590,14 @@
       <c r="AF39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AG39" s="6"/>
+      <c r="AG39" s="6">
+        <v>1</v>
+      </c>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
       <c r="AJ39" s="36">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK39" s="37">
         <f t="shared" si="7"/>
@@ -5649,12 +5708,14 @@
       <c r="AF40" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AG40" s="7"/>
+      <c r="AG40" s="7">
+        <v>1</v>
+      </c>
       <c r="AH40" s="7"/>
       <c r="AI40" s="10"/>
       <c r="AJ40" s="45">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
@@ -5765,12 +5826,14 @@
       <c r="AF41" s="6">
         <v>1</v>
       </c>
-      <c r="AG41" s="6"/>
+      <c r="AG41" s="6">
+        <v>1</v>
+      </c>
       <c r="AH41" s="6"/>
       <c r="AI41" s="9"/>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -5881,12 +5944,14 @@
       <c r="AF42" s="6">
         <v>1</v>
       </c>
-      <c r="AG42" s="6"/>
+      <c r="AG42" s="6">
+        <v>1</v>
+      </c>
       <c r="AH42" s="6"/>
       <c r="AI42" s="9"/>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -5997,12 +6062,14 @@
       <c r="AF43" s="6">
         <v>1</v>
       </c>
-      <c r="AG43" s="6"/>
+      <c r="AG43" s="6">
+        <v>1</v>
+      </c>
       <c r="AH43" s="6"/>
       <c r="AI43" s="9"/>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -6113,12 +6180,14 @@
       <c r="AF44" s="6">
         <v>1</v>
       </c>
-      <c r="AG44" s="6"/>
+      <c r="AG44" s="6">
+        <v>1</v>
+      </c>
       <c r="AH44" s="6"/>
       <c r="AI44" s="9"/>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -6229,12 +6298,14 @@
       <c r="AF45" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AG45" s="6"/>
+      <c r="AG45" s="6">
+        <v>1</v>
+      </c>
       <c r="AH45" s="6"/>
       <c r="AI45" s="9"/>
       <c r="AJ45" s="36">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
@@ -6342,12 +6413,14 @@
       <c r="AF46" s="6">
         <v>1</v>
       </c>
-      <c r="AG46" s="6"/>
+      <c r="AG46" s="6">
+        <v>1</v>
+      </c>
       <c r="AH46" s="6"/>
       <c r="AI46" s="9"/>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -6455,12 +6528,14 @@
       <c r="AF47" s="7">
         <v>1</v>
       </c>
-      <c r="AG47" s="7"/>
+      <c r="AG47" s="7">
+        <v>1</v>
+      </c>
       <c r="AH47" s="7"/>
       <c r="AI47" s="10"/>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -6568,12 +6643,14 @@
       <c r="AF48" s="6">
         <v>1</v>
       </c>
-      <c r="AG48" s="6"/>
+      <c r="AG48" s="6">
+        <v>1</v>
+      </c>
       <c r="AH48" s="6"/>
       <c r="AI48" s="9"/>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -6681,7 +6758,9 @@
       <c r="AF49" s="7">
         <v>1</v>
       </c>
-      <c r="AG49" s="7"/>
+      <c r="AG49" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="AH49" s="7"/>
       <c r="AI49" s="10"/>
       <c r="AJ49" s="45">
@@ -6694,7 +6773,7 @@
       </c>
       <c r="AL49" s="47">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:39">
@@ -7122,12 +7201,14 @@
       <c r="AF56" s="6">
         <v>1</v>
       </c>
-      <c r="AG56" s="6"/>
+      <c r="AG56" s="6">
+        <v>1</v>
+      </c>
       <c r="AH56" s="6"/>
       <c r="AI56" s="9"/>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -7238,12 +7319,14 @@
       <c r="AF57" s="7">
         <v>1</v>
       </c>
-      <c r="AG57" s="7"/>
+      <c r="AG57" s="7">
+        <v>1</v>
+      </c>
       <c r="AH57" s="7"/>
       <c r="AI57" s="10"/>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>
@@ -7271,12 +7354,12 @@
     <mergeCell ref="A52:AL52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AI49">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:AI57">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(E55))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11224,7 +11307,7 @@
     <mergeCell ref="A52:AK52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AH49 E55:AH57">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+    <cfRule type="containsBlanks" dxfId="5" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15253,12 +15336,12 @@
     <mergeCell ref="A52:AL52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AI49">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:AI57">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(E55))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Табели/!Табель работы авто за 2018 г..xlsx
+++ b/Табели/!Табель работы авто за 2018 г..xlsx
@@ -4,19 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12030" windowHeight="5565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12030" windowHeight="5565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Октябрь 2018" sheetId="1" r:id="rId1"/>
-    <sheet name="Ноябрь 2018" sheetId="2" r:id="rId2"/>
-    <sheet name="Декабрь 2018" sheetId="3" r:id="rId3"/>
+    <sheet name="Ноябрь 2018" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Декабрь 2018'!$E$2:$AM$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ноябрь 2018'!$E$2:$AL$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Октябрь 2018'!$E$2:$AM$49</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterate="1"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="66">
   <si>
     <t>Неман 5201</t>
   </si>
@@ -224,9 +222,6 @@
   </si>
   <si>
     <t>тр</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
 </sst>
 </file>
@@ -846,42 +841,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1171,7 +1131,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1179,13 +1139,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM58"/>
+  <dimension ref="A1:AL58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG32" sqref="AG32"/>
+      <selection pane="bottomRight" activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1617,15 +1577,19 @@
       <c r="AG5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="9"/>
+      <c r="AH5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="AJ5" s="36">
         <f t="shared" ref="AJ5:AJ18" si="0">COUNTIF(E5:AI5,1)</f>
         <v>7</v>
       </c>
       <c r="AK5" s="37">
         <f t="shared" ref="AK5:AK18" si="1">COUNTIF(E5:AI5,"тр")</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL5" s="38">
         <f t="shared" ref="AL5:AL18" si="2">COUNTIF(E5:AI5,"бв")</f>
@@ -1732,11 +1696,15 @@
       <c r="AG6" s="7">
         <v>1</v>
       </c>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="10"/>
+      <c r="AH6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="AJ6" s="39">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK6" s="40">
         <f t="shared" si="1"/>
@@ -1744,7 +1712,7 @@
       </c>
       <c r="AL6" s="41">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -1966,15 +1934,19 @@
       <c r="AG8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="9"/>
+      <c r="AH8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI8" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ8" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8" s="37">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL8" s="38">
         <f t="shared" si="2"/>
@@ -2081,15 +2053,19 @@
       <c r="AG9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="9"/>
+      <c r="AH9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI9" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="AJ9" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK9" s="37">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AL9" s="38">
         <f t="shared" si="2"/>
@@ -2318,16 +2294,16 @@
       <c r="AH11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AI11" s="6" t="s">
-        <v>65</v>
+      <c r="AI11" s="6">
+        <v>1</v>
       </c>
       <c r="AJ11" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" s="37">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AL11" s="38">
         <f t="shared" si="2"/>
@@ -2434,11 +2410,15 @@
       <c r="AG12" s="6">
         <v>1</v>
       </c>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="9"/>
+      <c r="AH12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ12" s="36">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AK12" s="37">
         <f t="shared" si="1"/>
@@ -2549,11 +2529,15 @@
       <c r="AG13" s="6">
         <v>1</v>
       </c>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="9"/>
+      <c r="AH13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ13" s="36">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK13" s="37">
         <f t="shared" si="1"/>
@@ -2664,11 +2648,15 @@
       <c r="AG14" s="6">
         <v>1</v>
       </c>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="9"/>
+      <c r="AH14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ14" s="36">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AK14" s="37">
         <f t="shared" si="1"/>
@@ -2779,11 +2767,15 @@
       <c r="AG15" s="6">
         <v>1</v>
       </c>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="9"/>
+      <c r="AH15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ15" s="36">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK15" s="37">
         <f t="shared" si="1"/>
@@ -2894,11 +2886,15 @@
       <c r="AG16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="9"/>
+      <c r="AH16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ16" s="36">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK16" s="37">
         <f t="shared" si="1"/>
@@ -2909,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:38">
       <c r="A17" s="25">
         <v>14</v>
       </c>
@@ -3009,11 +3005,15 @@
       <c r="AG17" s="6">
         <v>1</v>
       </c>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="9"/>
+      <c r="AH17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ17" s="36">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AK17" s="37">
         <f t="shared" si="1"/>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:38">
       <c r="A18" s="25">
         <v>15</v>
       </c>
@@ -3124,11 +3124,15 @@
       <c r="AG18" s="6">
         <v>1</v>
       </c>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="9"/>
+      <c r="AH18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ18" s="36">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AK18" s="37">
         <f t="shared" si="1"/>
@@ -3139,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:38">
       <c r="A19" s="25">
         <v>16</v>
       </c>
@@ -3239,11 +3243,15 @@
       <c r="AG19" s="6">
         <v>1</v>
       </c>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="9"/>
+      <c r="AH19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ19" s="36">
         <f t="shared" ref="AJ19:AJ34" si="3">COUNTIF(E19:AI19,1)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK19" s="37">
         <f t="shared" ref="AK19:AK34" si="4">COUNTIF(E19:AI19,"тр")</f>
@@ -3254,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:38">
       <c r="A20" s="25">
         <v>17</v>
       </c>
@@ -3354,11 +3362,15 @@
       <c r="AG20" s="6">
         <v>1</v>
       </c>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="9"/>
+      <c r="AH20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ20" s="36">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK20" s="37">
         <f t="shared" si="4"/>
@@ -3369,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:38">
       <c r="A21" s="25">
         <v>18</v>
       </c>
@@ -3469,11 +3481,15 @@
       <c r="AG21" s="6">
         <v>1</v>
       </c>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="9"/>
+      <c r="AH21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ21" s="36">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AK21" s="37">
         <f t="shared" si="4"/>
@@ -3484,7 +3500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:38">
       <c r="A22" s="25">
         <v>19</v>
       </c>
@@ -3584,11 +3600,15 @@
       <c r="AG22" s="6">
         <v>1</v>
       </c>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="9"/>
+      <c r="AH22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ22" s="36">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AK22" s="37">
         <f t="shared" si="4"/>
@@ -3599,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="16.5" thickBot="1">
+    <row r="23" spans="1:38" ht="16.5" thickBot="1">
       <c r="A23" s="28">
         <v>20</v>
       </c>
@@ -3699,11 +3719,15 @@
       <c r="AG23" s="7">
         <v>1</v>
       </c>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="10"/>
+      <c r="AH23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="10">
+        <v>1</v>
+      </c>
       <c r="AJ23" s="45">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK23" s="46">
         <f t="shared" si="4"/>
@@ -3714,7 +3738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:38">
       <c r="A24" s="22">
         <v>21</v>
       </c>
@@ -3814,25 +3838,26 @@
       <c r="AG24" s="6">
         <v>1</v>
       </c>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="9"/>
+      <c r="AH24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI24" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="AJ24" s="42">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="AK24" s="43">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL24" s="44">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AM24" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39">
+    </row>
+    <row r="25" spans="1:38">
       <c r="A25" s="25">
         <v>22</v>
       </c>
@@ -3932,25 +3957,26 @@
       <c r="AG25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="9"/>
+      <c r="AH25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI25" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="AJ25" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK25" s="37">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AL25" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM25" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39">
+    </row>
+    <row r="26" spans="1:38">
       <c r="A26" s="25">
         <v>23</v>
       </c>
@@ -4050,11 +4076,15 @@
       <c r="AG26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="9"/>
+      <c r="AH26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ26" s="36">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK26" s="37">
         <f t="shared" si="4"/>
@@ -4064,11 +4094,8 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AM26" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39">
+    </row>
+    <row r="27" spans="1:38">
       <c r="A27" s="25">
         <v>24</v>
       </c>
@@ -4168,11 +4195,15 @@
       <c r="AG27" s="6">
         <v>1</v>
       </c>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="9"/>
+      <c r="AH27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ27" s="36">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK27" s="37">
         <f t="shared" si="4"/>
@@ -4182,11 +4213,8 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AM27" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39">
+    </row>
+    <row r="28" spans="1:38">
       <c r="A28" s="25">
         <v>25</v>
       </c>
@@ -4286,8 +4314,12 @@
       <c r="AG28" s="6">
         <v>1</v>
       </c>
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="9"/>
+      <c r="AH28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI28" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="AJ28" s="36">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -4298,13 +4330,10 @@
       </c>
       <c r="AL28" s="38">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="AM28" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38">
       <c r="A29" s="25">
         <v>26</v>
       </c>
@@ -4404,11 +4433,15 @@
       <c r="AG29" s="6">
         <v>1</v>
       </c>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="9"/>
+      <c r="AH29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ29" s="36">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK29" s="37">
         <f t="shared" si="4"/>
@@ -4418,11 +4451,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM29" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" ht="16.5" thickBot="1">
+    </row>
+    <row r="30" spans="1:38" ht="16.5" thickBot="1">
       <c r="A30" s="28">
         <v>27</v>
       </c>
@@ -4522,11 +4552,15 @@
       <c r="AG30" s="7">
         <v>1</v>
       </c>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="10"/>
+      <c r="AH30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="10">
+        <v>1</v>
+      </c>
       <c r="AJ30" s="45">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK30" s="46">
         <f t="shared" si="4"/>
@@ -4536,11 +4570,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM30" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39">
+    </row>
+    <row r="31" spans="1:38">
       <c r="A31" s="22">
         <v>28</v>
       </c>
@@ -4659,7 +4690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:38">
       <c r="A32" s="25">
         <v>29</v>
       </c>
@@ -4759,22 +4790,26 @@
       <c r="AG32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="9"/>
+      <c r="AH32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI32" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="AJ32" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK32" s="37">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AL32" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="16.5" thickBot="1">
+    <row r="33" spans="1:38" ht="16.5" thickBot="1">
       <c r="A33" s="28">
         <v>30</v>
       </c>
@@ -4892,11 +4927,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM33" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39">
+    </row>
+    <row r="34" spans="1:38">
       <c r="A34" s="22">
         <v>31</v>
       </c>
@@ -5015,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="16.5" thickBot="1">
+    <row r="35" spans="1:38" ht="16.5" thickBot="1">
       <c r="A35" s="28">
         <v>32</v>
       </c>
@@ -5134,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:38">
       <c r="A36" s="22">
         <v>33</v>
       </c>
@@ -5252,11 +5284,8 @@
         <f t="shared" ref="AL36:AL49" si="8">COUNTIF(E36:AI36,"бв")</f>
         <v>0</v>
       </c>
-      <c r="AM36" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39" ht="16.5" thickBot="1">
+    </row>
+    <row r="37" spans="1:38" ht="16.5" thickBot="1">
       <c r="A37" s="28">
         <v>34</v>
       </c>
@@ -5375,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:38">
       <c r="A38" s="22">
         <v>35</v>
       </c>
@@ -5475,25 +5504,26 @@
       <c r="AG38" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="9"/>
+      <c r="AH38" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI38" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ38" s="42">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK38" s="43">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL38" s="44">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AM38" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39">
+    </row>
+    <row r="39" spans="1:38">
       <c r="A39" s="25">
         <v>36</v>
       </c>
@@ -5593,11 +5623,15 @@
       <c r="AG39" s="6">
         <v>1</v>
       </c>
-      <c r="AH39" s="6"/>
-      <c r="AI39" s="6"/>
+      <c r="AH39" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="6">
+        <v>1</v>
+      </c>
       <c r="AJ39" s="36">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK39" s="37">
         <f t="shared" si="7"/>
@@ -5607,11 +5641,8 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AM39" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39" ht="16.5" thickBot="1">
+    </row>
+    <row r="40" spans="1:38" ht="16.5" thickBot="1">
       <c r="A40" s="28">
         <v>37</v>
       </c>
@@ -5711,11 +5742,15 @@
       <c r="AG40" s="7">
         <v>1</v>
       </c>
-      <c r="AH40" s="7"/>
-      <c r="AI40" s="10"/>
+      <c r="AH40" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="10">
+        <v>1</v>
+      </c>
       <c r="AJ40" s="45">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK40" s="46">
         <f t="shared" si="7"/>
@@ -5725,11 +5760,8 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AM40" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39">
+    </row>
+    <row r="41" spans="1:38">
       <c r="A41" s="22">
         <v>38</v>
       </c>
@@ -5829,11 +5861,15 @@
       <c r="AG41" s="6">
         <v>1</v>
       </c>
-      <c r="AH41" s="6"/>
-      <c r="AI41" s="9"/>
+      <c r="AH41" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ41" s="42">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AK41" s="43">
         <f t="shared" si="7"/>
@@ -5843,11 +5879,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM41" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39">
+    </row>
+    <row r="42" spans="1:38">
       <c r="A42" s="25">
         <v>39</v>
       </c>
@@ -5947,11 +5980,15 @@
       <c r="AG42" s="6">
         <v>1</v>
       </c>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="9"/>
+      <c r="AH42" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ42" s="36">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AK42" s="37">
         <f t="shared" si="7"/>
@@ -5961,11 +5998,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM42" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39">
+    </row>
+    <row r="43" spans="1:38">
       <c r="A43" s="25">
         <v>40</v>
       </c>
@@ -6065,11 +6099,15 @@
       <c r="AG43" s="6">
         <v>1</v>
       </c>
-      <c r="AH43" s="6"/>
-      <c r="AI43" s="9"/>
+      <c r="AH43" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ43" s="36">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AK43" s="37">
         <f t="shared" si="7"/>
@@ -6079,11 +6117,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM43" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39">
+    </row>
+    <row r="44" spans="1:38">
       <c r="A44" s="25">
         <v>41</v>
       </c>
@@ -6183,11 +6218,15 @@
       <c r="AG44" s="6">
         <v>1</v>
       </c>
-      <c r="AH44" s="6"/>
-      <c r="AI44" s="9"/>
+      <c r="AH44" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ44" s="36">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK44" s="37">
         <f t="shared" si="7"/>
@@ -6197,11 +6236,8 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AM44" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39">
+    </row>
+    <row r="45" spans="1:38">
       <c r="A45" s="25">
         <v>42</v>
       </c>
@@ -6301,22 +6337,26 @@
       <c r="AG45" s="6">
         <v>1</v>
       </c>
-      <c r="AH45" s="6"/>
-      <c r="AI45" s="9"/>
+      <c r="AH45" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="AJ45" s="36">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK45" s="37">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL45" s="38">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:38">
       <c r="A46" s="25">
         <v>43</v>
       </c>
@@ -6416,11 +6456,15 @@
       <c r="AG46" s="6">
         <v>1</v>
       </c>
-      <c r="AH46" s="6"/>
-      <c r="AI46" s="9"/>
+      <c r="AH46" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI46" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ46" s="36">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK46" s="37">
         <f t="shared" si="7"/>
@@ -6431,7 +6475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="16.5" thickBot="1">
+    <row r="47" spans="1:38" ht="16.5" thickBot="1">
       <c r="A47" s="28">
         <v>44</v>
       </c>
@@ -6531,11 +6575,15 @@
       <c r="AG47" s="7">
         <v>1</v>
       </c>
-      <c r="AH47" s="7"/>
-      <c r="AI47" s="10"/>
+      <c r="AH47" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI47" s="10">
+        <v>1</v>
+      </c>
       <c r="AJ47" s="45">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AK47" s="46">
         <f t="shared" si="7"/>
@@ -6546,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:38">
       <c r="A48" s="22">
         <v>45</v>
       </c>
@@ -6646,11 +6694,15 @@
       <c r="AG48" s="6">
         <v>1</v>
       </c>
-      <c r="AH48" s="6"/>
-      <c r="AI48" s="9"/>
+      <c r="AH48" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ48" s="42">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK48" s="43">
         <f t="shared" si="7"/>
@@ -6661,7 +6713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="16.5" thickBot="1">
+    <row r="49" spans="1:38" ht="16.5" thickBot="1">
       <c r="A49" s="28">
         <v>46</v>
       </c>
@@ -6761,11 +6813,15 @@
       <c r="AG49" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AH49" s="7"/>
-      <c r="AI49" s="10"/>
+      <c r="AH49" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI49" s="10">
+        <v>1</v>
+      </c>
       <c r="AJ49" s="45">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK49" s="46">
         <f t="shared" si="7"/>
@@ -6776,20 +6832,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:38">
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:38">
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:38">
       <c r="A52" s="54" t="str">
         <f ca="1">"Табель работы автобусов за " &amp; RIGHT(CELL("имяфайла"),LEN(CELL("имяфайла"))-SEARCH("]",CELL("имяфайла"),1)) &amp; " автоколонны № 2 г. Смолевичи"</f>
-        <v>Табель работы автобусов за Октябрь 2018 автоколонны № 2 г. Смолевичи</v>
+        <v>Табель работы автобусов за Ноябрь 2018 автоколонны № 2 г. Смолевичи</v>
       </c>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -6829,7 +6885,7 @@
       <c r="AK52" s="54"/>
       <c r="AL52" s="54"/>
     </row>
-    <row r="53" spans="1:39" ht="16.5" thickBot="1">
+    <row r="53" spans="1:38" ht="16.5" thickBot="1">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -6869,7 +6925,7 @@
       <c r="AK53" s="51"/>
       <c r="AL53" s="51"/>
     </row>
-    <row r="54" spans="1:39" ht="16.5" thickBot="1">
+    <row r="54" spans="1:38" ht="16.5" thickBot="1">
       <c r="A54" s="11" t="s">
         <v>63</v>
       </c>
@@ -6985,7 +7041,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:38">
       <c r="A55" s="22">
         <v>1</v>
       </c>
@@ -7104,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:38">
       <c r="A56" s="25">
         <v>2</v>
       </c>
@@ -7204,11 +7260,15 @@
       <c r="AG56" s="6">
         <v>1</v>
       </c>
-      <c r="AH56" s="6"/>
-      <c r="AI56" s="9"/>
+      <c r="AH56" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI56" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ56" s="36">
         <f t="shared" ref="AJ56:AJ57" si="12">COUNTIF(E56:AI56,1)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AK56" s="37">
         <f t="shared" ref="AK56:AK57" si="13">COUNTIF(E56:AI56,"тр")</f>
@@ -7218,11 +7278,8 @@
         <f t="shared" ref="AL56:AL57" si="14">COUNTIF(E56:AI56,"бв")</f>
         <v>0</v>
       </c>
-      <c r="AM56" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:39" ht="16.5" thickBot="1">
+    </row>
+    <row r="57" spans="1:38" ht="16.5" thickBot="1">
       <c r="A57" s="28">
         <v>3</v>
       </c>
@@ -7322,11 +7379,15 @@
       <c r="AG57" s="7">
         <v>1</v>
       </c>
-      <c r="AH57" s="7"/>
-      <c r="AI57" s="10"/>
+      <c r="AH57" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI57" s="10">
+        <v>1</v>
+      </c>
       <c r="AJ57" s="45">
         <f t="shared" si="12"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AK57" s="46">
         <f t="shared" si="13"/>
@@ -7337,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:38">
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -7354,12 +7415,12 @@
     <mergeCell ref="A52:AL52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AI49">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:AI57">
-    <cfRule type="containsBlanks" dxfId="6" priority="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(E55))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7370,13 +7431,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL58"/>
+  <dimension ref="A1:AK58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y38" sqref="Y38"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7688,15 +7749,15 @@
         <v>65</v>
       </c>
       <c r="AI4" s="36">
-        <f t="shared" ref="AI4:AI49" si="0">COUNTIF(E4:AH4,1)</f>
+        <f>COUNTIF(E4:AH4,1)</f>
         <v>0</v>
       </c>
       <c r="AJ4" s="37">
-        <f t="shared" ref="AJ4:AJ49" si="1">COUNTIF(E4:AH4,"тр")</f>
+        <f>COUNTIF(E4:AH4,"тр")</f>
         <v>30</v>
       </c>
       <c r="AK4" s="38">
-        <f t="shared" ref="AK4:AK49" si="2">COUNTIF(E4:AH4,"бв")</f>
+        <f>COUNTIF(E4:AH4,"бв")</f>
         <v>0</v>
       </c>
     </row>
@@ -7744,15 +7805,15 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E5:AH5,1)</f>
         <v>0</v>
       </c>
       <c r="AJ5" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E5:AH5,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK5" s="38">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E5:AH5,"бв")</f>
         <v>0</v>
       </c>
     </row>
@@ -7800,15 +7861,15 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
       <c r="AI6" s="39">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E6:AH6,1)</f>
         <v>0</v>
       </c>
       <c r="AJ6" s="40">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E6:AH6,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK6" s="41">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E6:AH6,"бв")</f>
         <v>0</v>
       </c>
     </row>
@@ -7916,15 +7977,15 @@
         <v>65</v>
       </c>
       <c r="AI7" s="42">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E7:AH7,1)</f>
         <v>0</v>
       </c>
       <c r="AJ7" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E7:AH7,"тр")</f>
         <v>30</v>
       </c>
       <c r="AK7" s="44">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E7:AH7,"бв")</f>
         <v>0</v>
       </c>
     </row>
@@ -7972,15 +8033,15 @@
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E8:AH8,1)</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E8:AH8,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK8" s="38">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E8:AH8,"бв")</f>
         <v>0</v>
       </c>
     </row>
@@ -7997,46 +8058,106 @@
       <c r="D9" s="49">
         <v>5721</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
+      <c r="E9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AI9" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E9:AH9,1)</f>
         <v>0</v>
       </c>
       <c r="AJ9" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>COUNTIF(E9:AH9,"тр")</f>
+        <v>30</v>
       </c>
       <c r="AK9" s="38">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E9:AH9,"бв")</f>
         <v>0</v>
       </c>
     </row>
@@ -8144,15 +8265,15 @@
         <v>65</v>
       </c>
       <c r="AI10" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E10:AH10,1)</f>
         <v>0</v>
       </c>
       <c r="AJ10" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E10:AH10,"тр")</f>
         <v>30</v>
       </c>
       <c r="AK10" s="38">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E10:AH10,"бв")</f>
         <v>0</v>
       </c>
     </row>
@@ -8169,106 +8290,46 @@
       <c r="D11" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH11" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
       <c r="AI11" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E11:AH11,1)</f>
         <v>0</v>
       </c>
       <c r="AJ11" s="37">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>COUNTIF(E11:AH11,"тр")</f>
+        <v>0</v>
       </c>
       <c r="AK11" s="38">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E11:AH11,"бв")</f>
         <v>0</v>
       </c>
     </row>
@@ -8316,15 +8377,15 @@
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E12:AH12,1)</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E12:AH12,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK12" s="38">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E12:AH12,"бв")</f>
         <v>0</v>
       </c>
     </row>
@@ -8372,15 +8433,15 @@
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E13:AH13,1)</f>
         <v>0</v>
       </c>
       <c r="AJ13" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E13:AH13,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK13" s="38">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E13:AH13,"бв")</f>
         <v>0</v>
       </c>
     </row>
@@ -8428,15 +8489,15 @@
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E14:AH14,1)</f>
         <v>0</v>
       </c>
       <c r="AJ14" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E14:AH14,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK14" s="38">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E14:AH14,"бв")</f>
         <v>0</v>
       </c>
     </row>
@@ -8484,15 +8545,15 @@
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E15:AH15,1)</f>
         <v>0</v>
       </c>
       <c r="AJ15" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E15:AH15,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK15" s="38">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E15:AH15,"бв")</f>
         <v>0</v>
       </c>
     </row>
@@ -8540,19 +8601,19 @@
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E16:AH16,1)</f>
         <v>0</v>
       </c>
       <c r="AJ16" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E16:AH16,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK16" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38">
+        <f>COUNTIF(E16:AH16,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
       <c r="A17" s="25">
         <v>14</v>
       </c>
@@ -8596,19 +8657,19 @@
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E17:AH17,1)</f>
         <v>0</v>
       </c>
       <c r="AJ17" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E17:AH17,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK17" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38">
+        <f>COUNTIF(E17:AH17,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37">
       <c r="A18" s="25">
         <v>15</v>
       </c>
@@ -8652,19 +8713,19 @@
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E18:AH18,1)</f>
         <v>0</v>
       </c>
       <c r="AJ18" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E18:AH18,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK18" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38">
+        <f>COUNTIF(E18:AH18,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
       <c r="A19" s="25">
         <v>16</v>
       </c>
@@ -8708,19 +8769,19 @@
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E19:AH19,1)</f>
         <v>0</v>
       </c>
       <c r="AJ19" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E19:AH19,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK19" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38">
+        <f>COUNTIF(E19:AH19,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
       <c r="A20" s="25">
         <v>17</v>
       </c>
@@ -8764,19 +8825,19 @@
       <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E20:AH20,1)</f>
         <v>0</v>
       </c>
       <c r="AJ20" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E20:AH20,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK20" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38">
+        <f>COUNTIF(E20:AH20,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
       <c r="A21" s="25">
         <v>18</v>
       </c>
@@ -8820,19 +8881,19 @@
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E21:AH21,1)</f>
         <v>0</v>
       </c>
       <c r="AJ21" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E21:AH21,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK21" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38">
+        <f>COUNTIF(E21:AH21,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
       <c r="A22" s="25">
         <v>19</v>
       </c>
@@ -8876,19 +8937,19 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E22:AH22,1)</f>
         <v>0</v>
       </c>
       <c r="AJ22" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E22:AH22,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK22" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:38" ht="16.5" thickBot="1">
+        <f>COUNTIF(E22:AH22,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="16.5" thickBot="1">
       <c r="A23" s="28">
         <v>20</v>
       </c>
@@ -8928,23 +8989,23 @@
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
+      <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
       <c r="AI23" s="45">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E23:AH23,1)</f>
         <v>0</v>
       </c>
       <c r="AJ23" s="46">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E23:AH23,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK23" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:38">
+        <f>COUNTIF(E23:AH23,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
       <c r="A24" s="22">
         <v>21</v>
       </c>
@@ -8988,22 +9049,19 @@
       <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="42">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E24:AH24,1)</f>
         <v>0</v>
       </c>
       <c r="AJ24" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E24:AH24,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK24" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL24" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38">
+        <f>COUNTIF(E24:AH24,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
       <c r="A25" s="25">
         <v>22</v>
       </c>
@@ -9016,53 +9074,110 @@
       <c r="D25" s="49">
         <v>2962</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
+      <c r="E25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AI25" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E25:AH25,1)</f>
         <v>0</v>
       </c>
       <c r="AJ25" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>COUNTIF(E25:AH25,"тр")</f>
+        <v>30</v>
       </c>
       <c r="AK25" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL25" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38">
+        <f>COUNTIF(E25:AH25,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
       <c r="A26" s="25">
         <v>23</v>
       </c>
@@ -9106,22 +9221,19 @@
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E26:AH26,1)</f>
         <v>0</v>
       </c>
       <c r="AJ26" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E26:AH26,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK26" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL26" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38">
+        <f>COUNTIF(E26:AH26,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
       <c r="A27" s="25">
         <v>24</v>
       </c>
@@ -9165,22 +9277,19 @@
       <c r="AG27" s="6"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E27:AH27,1)</f>
         <v>0</v>
       </c>
       <c r="AJ27" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E27:AH27,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK27" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL27" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38">
+        <f>COUNTIF(E27:AH27,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
       <c r="A28" s="25">
         <v>25</v>
       </c>
@@ -9224,22 +9333,19 @@
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E28:AH28,1)</f>
         <v>0</v>
       </c>
       <c r="AJ28" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E28:AH28,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK28" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL28" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:38">
+        <f>COUNTIF(E28:AH28,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
       <c r="A29" s="25">
         <v>26</v>
       </c>
@@ -9283,22 +9389,19 @@
       <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
       <c r="AI29" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E29:AH29,1)</f>
         <v>0</v>
       </c>
       <c r="AJ29" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E29:AH29,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK29" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL29" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" ht="16.5" thickBot="1">
+        <f>COUNTIF(E29:AH29,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" ht="16.5" thickBot="1">
       <c r="A30" s="28">
         <v>27</v>
       </c>
@@ -9330,9 +9433,9 @@
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
@@ -9342,22 +9445,19 @@
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
       <c r="AI30" s="45">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E30:AH30,1)</f>
         <v>0</v>
       </c>
       <c r="AJ30" s="46">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E30:AH30,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK30" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL30" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38">
+        <f>COUNTIF(E30:AH30,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
       <c r="A31" s="22">
         <v>28</v>
       </c>
@@ -9370,50 +9470,110 @@
       <c r="D31" s="49">
         <v>3111</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
+      <c r="E31" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH31" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="AI31" s="42">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E31:AH31,1)</f>
         <v>0</v>
       </c>
       <c r="AJ31" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E31:AH31,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK31" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:38">
+        <f>COUNTIF(E31:AH31,"бв")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37">
       <c r="A32" s="25">
         <v>29</v>
       </c>
@@ -9426,50 +9586,110 @@
       <c r="D32" s="49">
         <v>1290</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
+      <c r="E32" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH32" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="AI32" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E32:AH32,1)</f>
         <v>0</v>
       </c>
       <c r="AJ32" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>COUNTIF(E32:AH32,"тр")</f>
+        <v>30</v>
       </c>
       <c r="AK32" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:38" ht="16.5" thickBot="1">
+        <f>COUNTIF(E32:AH32,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" ht="16.5" thickBot="1">
       <c r="A33" s="28">
         <v>30</v>
       </c>
@@ -9573,22 +9793,19 @@
         <v>65</v>
       </c>
       <c r="AI33" s="45">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E33:AH33,1)</f>
         <v>0</v>
       </c>
       <c r="AJ33" s="46">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E33:AH33,"тр")</f>
         <v>30</v>
       </c>
       <c r="AK33" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL33" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:38">
+        <f>COUNTIF(E33:AH33,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
       <c r="A34" s="22">
         <v>31</v>
       </c>
@@ -9692,19 +9909,19 @@
         <v>65</v>
       </c>
       <c r="AI34" s="42">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E34:AH34,1)</f>
         <v>0</v>
       </c>
       <c r="AJ34" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E34:AH34,"тр")</f>
         <v>30</v>
       </c>
       <c r="AK34" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:38" ht="16.5" thickBot="1">
+        <f>COUNTIF(E34:AH34,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" ht="16.5" thickBot="1">
       <c r="A35" s="28">
         <v>32</v>
       </c>
@@ -9808,19 +10025,19 @@
         <v>65</v>
       </c>
       <c r="AI35" s="45">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E35:AH35,1)</f>
         <v>0</v>
       </c>
       <c r="AJ35" s="46">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E35:AH35,"тр")</f>
         <v>30</v>
       </c>
       <c r="AK35" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:38">
+        <f>COUNTIF(E35:AH35,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
       <c r="A36" s="22">
         <v>33</v>
       </c>
@@ -9924,22 +10141,19 @@
         <v>65</v>
       </c>
       <c r="AI36" s="42">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E36:AH36,1)</f>
         <v>0</v>
       </c>
       <c r="AJ36" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E36:AH36,"тр")</f>
         <v>30</v>
       </c>
       <c r="AK36" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL36" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:38" ht="16.5" thickBot="1">
+        <f>COUNTIF(E36:AH36,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" ht="16.5" thickBot="1">
       <c r="A37" s="28">
         <v>34</v>
       </c>
@@ -10043,19 +10257,19 @@
         <v>65</v>
       </c>
       <c r="AI37" s="45">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E37:AH37,1)</f>
         <v>0</v>
       </c>
       <c r="AJ37" s="46">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E37:AH37,"тр")</f>
         <v>30</v>
       </c>
       <c r="AK37" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:38">
+        <f>COUNTIF(E37:AH37,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37">
       <c r="A38" s="22">
         <v>35</v>
       </c>
@@ -10099,22 +10313,19 @@
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="42">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E38:AH38,1)</f>
         <v>0</v>
       </c>
       <c r="AJ38" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E38:AH38,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK38" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL38" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:38">
+        <f>COUNTIF(E38:AH38,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
       <c r="A39" s="25">
         <v>36</v>
       </c>
@@ -10127,113 +10338,50 @@
       <c r="D39" s="49">
         <v>7945</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="U39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="X39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH39" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
       <c r="AI39" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E39:AH39,1)</f>
         <v>0</v>
       </c>
       <c r="AJ39" s="37">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>COUNTIF(E39:AH39,"тр")</f>
+        <v>0</v>
       </c>
       <c r="AK39" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL39" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:38" ht="16.5" thickBot="1">
+        <f>COUNTIF(E39:AH39,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" ht="16.5" thickBot="1">
       <c r="A40" s="28">
         <v>37</v>
       </c>
@@ -10265,9 +10413,9 @@
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
@@ -10277,22 +10425,19 @@
       <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
       <c r="AI40" s="45">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E40:AH40,1)</f>
         <v>0</v>
       </c>
       <c r="AJ40" s="46">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E40:AH40,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK40" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL40" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:38">
+        <f>COUNTIF(E40:AH40,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37">
       <c r="A41" s="22">
         <v>38</v>
       </c>
@@ -10336,22 +10481,19 @@
       <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
       <c r="AI41" s="42">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E41:AH41,1)</f>
         <v>0</v>
       </c>
       <c r="AJ41" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E41:AH41,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK41" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL41" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:38">
+        <f>COUNTIF(E41:AH41,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37">
       <c r="A42" s="25">
         <v>39</v>
       </c>
@@ -10395,22 +10537,19 @@
       <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E42:AH42,1)</f>
         <v>0</v>
       </c>
       <c r="AJ42" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E42:AH42,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK42" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL42" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:38">
+        <f>COUNTIF(E42:AH42,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37">
       <c r="A43" s="25">
         <v>40</v>
       </c>
@@ -10454,22 +10593,19 @@
       <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
       <c r="AI43" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E43:AH43,1)</f>
         <v>0</v>
       </c>
       <c r="AJ43" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E43:AH43,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK43" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL43" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:38">
+        <f>COUNTIF(E43:AH43,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37">
       <c r="A44" s="25">
         <v>41</v>
       </c>
@@ -10513,22 +10649,19 @@
       <c r="AG44" s="6"/>
       <c r="AH44" s="6"/>
       <c r="AI44" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E44:AH44,1)</f>
         <v>0</v>
       </c>
       <c r="AJ44" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E44:AH44,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK44" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL44" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:38">
+        <f>COUNTIF(E44:AH44,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37">
       <c r="A45" s="25">
         <v>42</v>
       </c>
@@ -10572,19 +10705,19 @@
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
       <c r="AI45" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E45:AH45,1)</f>
         <v>0</v>
       </c>
       <c r="AJ45" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E45:AH45,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK45" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:38">
+        <f>COUNTIF(E45:AH45,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37">
       <c r="A46" s="25">
         <v>43</v>
       </c>
@@ -10628,19 +10761,19 @@
       <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E46:AH46,1)</f>
         <v>0</v>
       </c>
       <c r="AJ46" s="37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E46:AH46,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK46" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:38" ht="16.5" thickBot="1">
+        <f>COUNTIF(E46:AH46,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" ht="16.5" thickBot="1">
       <c r="A47" s="28">
         <v>44</v>
       </c>
@@ -10684,19 +10817,19 @@
       <c r="AG47" s="7"/>
       <c r="AH47" s="7"/>
       <c r="AI47" s="45">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E47:AH47,1)</f>
         <v>0</v>
       </c>
       <c r="AJ47" s="46">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E47:AH47,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK47" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:38">
+        <f>COUNTIF(E47:AH47,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37">
       <c r="A48" s="22">
         <v>45</v>
       </c>
@@ -10740,19 +10873,19 @@
       <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="42">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E48:AH48,1)</f>
         <v>0</v>
       </c>
       <c r="AJ48" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E48:AH48,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK48" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:38" ht="16.5" thickBot="1">
+        <f>COUNTIF(E48:AH48,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" ht="16.5" thickBot="1">
       <c r="A49" s="28">
         <v>46</v>
       </c>
@@ -10796,32 +10929,32 @@
       <c r="AG49" s="7"/>
       <c r="AH49" s="7"/>
       <c r="AI49" s="45">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E49:AH49,1)</f>
         <v>0</v>
       </c>
       <c r="AJ49" s="46">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E49:AH49,"тр")</f>
         <v>0</v>
       </c>
       <c r="AK49" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:38">
+        <f>COUNTIF(E49:AH49,"бв")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37">
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:37">
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:37">
       <c r="A52" s="54" t="str">
         <f ca="1">"Табель работы автобусов за " &amp; RIGHT(CELL("имяфайла"),LEN(CELL("имяфайла"))-SEARCH("]",CELL("имяфайла"),1)) &amp; " автоколонны № 2 г. Смолевичи"</f>
-        <v>Табель работы автобусов за Октябрь 2018 автоколонны № 2 г. Смолевичи</v>
+        <v>Табель работы автобусов за Ноябрь 2018 автоколонны № 2 г. Смолевичи</v>
       </c>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -10860,7 +10993,7 @@
       <c r="AJ52" s="54"/>
       <c r="AK52" s="54"/>
     </row>
-    <row r="53" spans="1:38" ht="16.5" thickBot="1">
+    <row r="53" spans="1:37" ht="16.5" thickBot="1">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -10899,7 +11032,7 @@
       <c r="AJ53" s="51"/>
       <c r="AK53" s="51"/>
     </row>
-    <row r="54" spans="1:38" ht="16.5" thickBot="1">
+    <row r="54" spans="1:37" ht="16.5" thickBot="1">
       <c r="A54" s="11" t="s">
         <v>63</v>
       </c>
@@ -11012,7 +11145,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:37">
       <c r="A55" s="22">
         <v>1</v>
       </c>
@@ -11128,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:37">
       <c r="A56" s="25">
         <v>2</v>
       </c>
@@ -11141,42 +11274,18 @@
       <c r="D56" s="49">
         <v>6172</v>
       </c>
-      <c r="E56" s="17">
-        <v>1</v>
-      </c>
-      <c r="F56" s="6">
-        <v>1</v>
-      </c>
-      <c r="G56" s="6">
-        <v>1</v>
-      </c>
-      <c r="H56" s="6">
-        <v>1</v>
-      </c>
-      <c r="I56" s="6">
-        <v>1</v>
-      </c>
-      <c r="J56" s="6">
-        <v>1</v>
-      </c>
-      <c r="K56" s="6">
-        <v>1</v>
-      </c>
-      <c r="L56" s="6">
-        <v>1</v>
-      </c>
-      <c r="M56" s="6">
-        <v>1</v>
-      </c>
-      <c r="N56" s="6">
-        <v>1</v>
-      </c>
-      <c r="O56" s="6">
-        <v>1</v>
-      </c>
-      <c r="P56" s="6">
-        <v>1</v>
-      </c>
+      <c r="E56" s="17"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
@@ -11197,7 +11306,7 @@
       <c r="AH56" s="6"/>
       <c r="AI56" s="36">
         <f>COUNTIF(E56:AH56,1)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AJ56" s="37">
         <f>COUNTIF(E56:AH56,"тр")</f>
@@ -11207,11 +11316,8 @@
         <f>COUNTIF(E56:AH56,"бв")</f>
         <v>0</v>
       </c>
-      <c r="AL56" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:38" ht="16.5" thickBot="1">
+    </row>
+    <row r="57" spans="1:37" ht="16.5" thickBot="1">
       <c r="A57" s="28">
         <v>3</v>
       </c>
@@ -11224,42 +11330,18 @@
       <c r="D57" s="50">
         <v>6173</v>
       </c>
-      <c r="E57" s="18">
-        <v>1</v>
-      </c>
-      <c r="F57" s="7">
-        <v>1</v>
-      </c>
-      <c r="G57" s="7">
-        <v>1</v>
-      </c>
-      <c r="H57" s="7">
-        <v>1</v>
-      </c>
-      <c r="I57" s="7">
-        <v>1</v>
-      </c>
-      <c r="J57" s="7">
-        <v>1</v>
-      </c>
-      <c r="K57" s="7">
-        <v>1</v>
-      </c>
-      <c r="L57" s="7">
-        <v>1</v>
-      </c>
-      <c r="M57" s="7">
-        <v>1</v>
-      </c>
-      <c r="N57" s="7">
-        <v>1</v>
-      </c>
-      <c r="O57" s="7">
-        <v>1</v>
-      </c>
-      <c r="P57" s="7">
-        <v>1</v>
-      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
@@ -11280,7 +11362,7 @@
       <c r="AH57" s="7"/>
       <c r="AI57" s="45">
         <f>COUNTIF(E57:AH57,1)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AJ57" s="46">
         <f>COUNTIF(E57:AH57,"тр")</f>
@@ -11291,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:37">
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -11300,6 +11382,7 @@
   <autoFilter ref="E2:AL49">
     <filterColumn colId="9"/>
     <filterColumn colId="11"/>
+    <filterColumn colId="19"/>
     <filterColumn colId="33"/>
   </autoFilter>
   <mergeCells count="2">
@@ -11307,4045 +11390,11 @@
     <mergeCell ref="A52:AK52"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:AH49 E55:AH57">
-    <cfRule type="containsBlanks" dxfId="5" priority="2">
+    <cfRule type="containsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="1.7716535433070868" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM58"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T45" sqref="T45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="4" customWidth="1"/>
-    <col min="5" max="35" width="3.7109375" style="3" customWidth="1"/>
-    <col min="36" max="38" width="5.7109375" style="3" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38">
-      <c r="A1" s="54" t="str">
-        <f ca="1">"Табель работы автобусов за " &amp; MID(CELL("имяфайла",A1),SEARCH("]",CELL("имяфайла",A1))+1,255) &amp; " автоколонны № 1 г. Жодино"</f>
-        <v>Табель работы автобусов за Декабрь 2018 автоколонны № 1 г. Жодино</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-    </row>
-    <row r="2" spans="1:38" ht="16.5" thickBot="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-    </row>
-    <row r="3" spans="1:38" s="5" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="52">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13">
-        <v>2</v>
-      </c>
-      <c r="G3" s="13">
-        <v>3</v>
-      </c>
-      <c r="H3" s="13">
-        <v>4</v>
-      </c>
-      <c r="I3" s="13">
-        <v>5</v>
-      </c>
-      <c r="J3" s="13">
-        <v>6</v>
-      </c>
-      <c r="K3" s="13">
-        <v>7</v>
-      </c>
-      <c r="L3" s="13">
-        <v>8</v>
-      </c>
-      <c r="M3" s="13">
-        <v>9</v>
-      </c>
-      <c r="N3" s="13">
-        <v>10</v>
-      </c>
-      <c r="O3" s="13">
-        <v>11</v>
-      </c>
-      <c r="P3" s="13">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>13</v>
-      </c>
-      <c r="R3" s="13">
-        <v>14</v>
-      </c>
-      <c r="S3" s="13">
-        <v>15</v>
-      </c>
-      <c r="T3" s="13">
-        <v>16</v>
-      </c>
-      <c r="U3" s="13">
-        <v>17</v>
-      </c>
-      <c r="V3" s="13">
-        <v>18</v>
-      </c>
-      <c r="W3" s="13">
-        <v>19</v>
-      </c>
-      <c r="X3" s="13">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="13">
-        <v>21</v>
-      </c>
-      <c r="Z3" s="13">
-        <v>22</v>
-      </c>
-      <c r="AA3" s="13">
-        <v>23</v>
-      </c>
-      <c r="AB3" s="13">
-        <v>24</v>
-      </c>
-      <c r="AC3" s="13">
-        <v>25</v>
-      </c>
-      <c r="AD3" s="13">
-        <v>26</v>
-      </c>
-      <c r="AE3" s="13">
-        <v>27</v>
-      </c>
-      <c r="AF3" s="13">
-        <v>28</v>
-      </c>
-      <c r="AG3" s="13">
-        <v>29</v>
-      </c>
-      <c r="AH3" s="13">
-        <v>30</v>
-      </c>
-      <c r="AI3" s="14">
-        <v>31</v>
-      </c>
-      <c r="AJ3" s="19">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL3" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38">
-      <c r="A4" s="22">
-        <v>1</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="48">
-        <v>7468</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ4" s="36">
-        <f>COUNTIF(E4:AI4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AK4" s="37">
-        <f>COUNTIF(E4:AI4,"тр")</f>
-        <v>31</v>
-      </c>
-      <c r="AL4" s="38">
-        <f>COUNTIF(E4:AI4,"бв")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
-      <c r="A5" s="25">
-        <v>2</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="49">
-        <v>7533</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="36">
-        <f t="shared" ref="AJ5:AJ34" si="0">COUNTIF(E5:AI5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AK5" s="37">
-        <f t="shared" ref="AK5:AK34" si="1">COUNTIF(E5:AI5,"тр")</f>
-        <v>0</v>
-      </c>
-      <c r="AL5" s="38">
-        <f t="shared" ref="AL5:AL34" si="2">COUNTIF(E5:AI5,"бв")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="16.5" thickBot="1">
-      <c r="A6" s="28">
-        <v>3</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="50">
-        <v>1637</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK6" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL6" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38">
-      <c r="A7" s="22">
-        <v>4</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="49">
-        <v>6981</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ7" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK7" s="43">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="AL7" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="A8" s="25">
-        <v>5</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="49">
-        <v>6982</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK8" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL8" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38">
-      <c r="A9" s="25">
-        <v>6</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="49">
-        <v>5721</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK9" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL9" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38">
-      <c r="A10" s="25">
-        <v>7</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ10" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK10" s="37">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="AL10" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38">
-      <c r="A11" s="25">
-        <v>8</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ11" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK11" s="37">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="AL11" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38">
-      <c r="A12" s="25">
-        <v>9</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="49">
-        <v>1291</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38">
-      <c r="A13" s="25">
-        <v>10</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="49">
-        <v>6850</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK13" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL13" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38">
-      <c r="A14" s="25">
-        <v>11</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="49">
-        <v>7540</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38">
-      <c r="A15" s="25">
-        <v>12</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="49">
-        <v>4729</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK15" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38">
-      <c r="A16" s="25">
-        <v>13</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="49">
-        <v>4769</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK16" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39">
-      <c r="A17" s="25">
-        <v>14</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="49">
-        <v>4730</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK17" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL17" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39">
-      <c r="A18" s="25">
-        <v>15</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="49">
-        <v>1213</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK18" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL18" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39">
-      <c r="A19" s="25">
-        <v>16</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="49">
-        <v>4189</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK19" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL19" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39">
-      <c r="A20" s="25">
-        <v>17</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="49">
-        <v>3584</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK20" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL20" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39">
-      <c r="A21" s="25">
-        <v>18</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="49">
-        <v>1661</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK21" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL21" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39">
-      <c r="A22" s="25">
-        <v>19</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="49">
-        <v>1662</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK22" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL22" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" ht="16.5" thickBot="1">
-      <c r="A23" s="28">
-        <v>20</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="50">
-        <v>4302</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK23" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL23" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39">
-      <c r="A24" s="22">
-        <v>21</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="49">
-        <v>2961</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK24" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL24" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM24" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39">
-      <c r="A25" s="25">
-        <v>22</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="49">
-        <v>2962</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK25" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL25" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM25" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39">
-      <c r="A26" s="25">
-        <v>23</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="49">
-        <v>2963</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL26" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM26" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39">
-      <c r="A27" s="25">
-        <v>24</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="49">
-        <v>4309</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK27" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL27" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM27" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39">
-      <c r="A28" s="25">
-        <v>25</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="32">
-        <v>162</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK28" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL28" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM28" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39">
-      <c r="A29" s="25">
-        <v>26</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="32">
-        <v>163</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK29" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL29" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM29" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" ht="16.5" thickBot="1">
-      <c r="A30" s="28">
-        <v>27</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="50">
-        <v>1276</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="10"/>
-      <c r="AJ30" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK30" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL30" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM30" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39">
-      <c r="A31" s="22">
-        <v>28</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="49">
-        <v>3111</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK31" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL31" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39">
-      <c r="A32" s="25">
-        <v>29</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="49">
-        <v>1290</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK32" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL32" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39" ht="16.5" thickBot="1">
-      <c r="A33" s="28">
-        <v>30</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="35">
-        <v>147</v>
-      </c>
-      <c r="D33" s="50">
-        <v>4711</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="R33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="S33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="W33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="X33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ33" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK33" s="46">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="AL33" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM33" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39">
-      <c r="A34" s="22">
-        <v>31</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="49">
-        <v>3810</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="U34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="X34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ34" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK34" s="43">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="AL34" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39" ht="16.5" thickBot="1">
-      <c r="A35" s="28">
-        <v>32</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="50">
-        <v>3811</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="R35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="S35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="W35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="X35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ35" s="45">
-        <f>COUNTIF(E35:AI35,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AK35" s="46">
-        <f>COUNTIF(E35:AI35,"тр")</f>
-        <v>31</v>
-      </c>
-      <c r="AL35" s="47">
-        <f>COUNTIF(E35:AI35,"бв")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39">
-      <c r="A36" s="22">
-        <v>33</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="49">
-        <v>4253</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="U36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="X36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ36" s="42">
-        <f t="shared" ref="AJ36:AJ49" si="3">COUNTIF(E36:AI36,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AK36" s="43">
-        <f t="shared" ref="AK36:AK49" si="4">COUNTIF(E36:AI36,"тр")</f>
-        <v>31</v>
-      </c>
-      <c r="AL36" s="44">
-        <f t="shared" ref="AL36:AL49" si="5">COUNTIF(E36:AI36,"бв")</f>
-        <v>0</v>
-      </c>
-      <c r="AM36" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39" ht="16.5" thickBot="1">
-      <c r="A37" s="28">
-        <v>34</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="50">
-        <v>5610</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="R37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="S37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="W37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="X37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ37" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK37" s="46">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="AL37" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39">
-      <c r="A38" s="22">
-        <v>35</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="49">
-        <v>2831</v>
-      </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="9"/>
-      <c r="AJ38" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK38" s="43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL38" s="44">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AM38" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39">
-      <c r="A39" s="25">
-        <v>36</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="49">
-        <v>7945</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="U39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="X39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ39" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK39" s="37">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="AL39" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AM39" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39" ht="16.5" thickBot="1">
-      <c r="A40" s="28">
-        <v>37</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="35">
-        <v>135</v>
-      </c>
-      <c r="D40" s="50">
-        <v>8933</v>
-      </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="7"/>
-      <c r="AD40" s="7"/>
-      <c r="AE40" s="7"/>
-      <c r="AF40" s="7"/>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="7"/>
-      <c r="AI40" s="10"/>
-      <c r="AJ40" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK40" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL40" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AM40" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39">
-      <c r="A41" s="22">
-        <v>38</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="49">
-        <v>4994</v>
-      </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="6"/>
-      <c r="AD41" s="6"/>
-      <c r="AE41" s="6"/>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="6"/>
-      <c r="AH41" s="6"/>
-      <c r="AI41" s="9"/>
-      <c r="AJ41" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK41" s="43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL41" s="44">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AM41" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39">
-      <c r="A42" s="25">
-        <v>39</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="49">
-        <v>4995</v>
-      </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="9"/>
-      <c r="AJ42" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK42" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL42" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AM42" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39">
-      <c r="A43" s="25">
-        <v>40</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="49">
-        <v>6129</v>
-      </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
-      <c r="AE43" s="6"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
-      <c r="AH43" s="6"/>
-      <c r="AI43" s="9"/>
-      <c r="AJ43" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK43" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL43" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AM43" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39">
-      <c r="A44" s="25">
-        <v>41</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="49">
-        <v>6130</v>
-      </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
-      <c r="AB44" s="6"/>
-      <c r="AC44" s="6"/>
-      <c r="AD44" s="6"/>
-      <c r="AE44" s="6"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="6"/>
-      <c r="AH44" s="6"/>
-      <c r="AI44" s="9"/>
-      <c r="AJ44" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK44" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL44" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AM44" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39">
-      <c r="A45" s="25">
-        <v>42</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="49">
-        <v>1297</v>
-      </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
-      <c r="AE45" s="6"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
-      <c r="AH45" s="6"/>
-      <c r="AI45" s="9"/>
-      <c r="AJ45" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK45" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL45" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39">
-      <c r="A46" s="25">
-        <v>43</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="49">
-        <v>1296</v>
-      </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6"/>
-      <c r="AE46" s="6"/>
-      <c r="AF46" s="6"/>
-      <c r="AG46" s="6"/>
-      <c r="AH46" s="6"/>
-      <c r="AI46" s="9"/>
-      <c r="AJ46" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK46" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL46" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39" ht="16.5" thickBot="1">
-      <c r="A47" s="28">
-        <v>44</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="50">
-        <v>1344</v>
-      </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
-      <c r="AC47" s="7"/>
-      <c r="AD47" s="7"/>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
-      <c r="AG47" s="7"/>
-      <c r="AH47" s="7"/>
-      <c r="AI47" s="10"/>
-      <c r="AJ47" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK47" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL47" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39">
-      <c r="A48" s="22">
-        <v>45</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="49">
-        <v>1250</v>
-      </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6"/>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6"/>
-      <c r="AE48" s="6"/>
-      <c r="AF48" s="6"/>
-      <c r="AG48" s="6"/>
-      <c r="AH48" s="6"/>
-      <c r="AI48" s="9"/>
-      <c r="AJ48" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK48" s="43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL48" s="44">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:39" ht="16.5" thickBot="1">
-      <c r="A49" s="28">
-        <v>46</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="50">
-        <v>1252</v>
-      </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
-      <c r="Z49" s="7"/>
-      <c r="AA49" s="7"/>
-      <c r="AB49" s="7"/>
-      <c r="AC49" s="7"/>
-      <c r="AD49" s="7"/>
-      <c r="AE49" s="7"/>
-      <c r="AF49" s="7"/>
-      <c r="AG49" s="7"/>
-      <c r="AH49" s="7"/>
-      <c r="AI49" s="10"/>
-      <c r="AJ49" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK49" s="46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL49" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:39">
-      <c r="B50" s="1"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:39">
-      <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:39">
-      <c r="A52" s="54" t="str">
-        <f ca="1">"Табель работы автобусов за " &amp; RIGHT(CELL("имяфайла"),LEN(CELL("имяфайла"))-SEARCH("]",CELL("имяфайла"),1)) &amp; " автоколонны № 2 г. Смолевичи"</f>
-        <v>Табель работы автобусов за Октябрь 2018 автоколонны № 2 г. Смолевичи</v>
-      </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54"/>
-      <c r="V52" s="54"/>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54"/>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="54"/>
-      <c r="AA52" s="54"/>
-      <c r="AB52" s="54"/>
-      <c r="AC52" s="54"/>
-      <c r="AD52" s="54"/>
-      <c r="AE52" s="54"/>
-      <c r="AF52" s="54"/>
-      <c r="AG52" s="54"/>
-      <c r="AH52" s="54"/>
-      <c r="AI52" s="54"/>
-      <c r="AJ52" s="54"/>
-      <c r="AK52" s="54"/>
-      <c r="AL52" s="54"/>
-    </row>
-    <row r="53" spans="1:39" ht="16.5" thickBot="1">
-      <c r="A53" s="51"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="51"/>
-      <c r="N53" s="51"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="51"/>
-      <c r="Q53" s="51"/>
-      <c r="R53" s="51"/>
-      <c r="S53" s="51"/>
-      <c r="T53" s="51"/>
-      <c r="U53" s="51"/>
-      <c r="V53" s="51"/>
-      <c r="W53" s="51"/>
-      <c r="X53" s="51"/>
-      <c r="Y53" s="51"/>
-      <c r="Z53" s="51"/>
-      <c r="AA53" s="51"/>
-      <c r="AB53" s="51"/>
-      <c r="AC53" s="51"/>
-      <c r="AD53" s="51"/>
-      <c r="AE53" s="51"/>
-      <c r="AF53" s="51"/>
-      <c r="AG53" s="51"/>
-      <c r="AH53" s="51"/>
-      <c r="AI53" s="51"/>
-      <c r="AJ53" s="51"/>
-      <c r="AK53" s="51"/>
-      <c r="AL53" s="51"/>
-    </row>
-    <row r="54" spans="1:39" ht="16.5" thickBot="1">
-      <c r="A54" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="13">
-        <v>1</v>
-      </c>
-      <c r="F54" s="13">
-        <v>2</v>
-      </c>
-      <c r="G54" s="13">
-        <v>3</v>
-      </c>
-      <c r="H54" s="13">
-        <v>4</v>
-      </c>
-      <c r="I54" s="13">
-        <v>5</v>
-      </c>
-      <c r="J54" s="13">
-        <v>6</v>
-      </c>
-      <c r="K54" s="13">
-        <v>7</v>
-      </c>
-      <c r="L54" s="13">
-        <v>8</v>
-      </c>
-      <c r="M54" s="13">
-        <v>9</v>
-      </c>
-      <c r="N54" s="13">
-        <v>10</v>
-      </c>
-      <c r="O54" s="13">
-        <v>11</v>
-      </c>
-      <c r="P54" s="13">
-        <v>12</v>
-      </c>
-      <c r="Q54" s="13">
-        <v>13</v>
-      </c>
-      <c r="R54" s="13">
-        <v>14</v>
-      </c>
-      <c r="S54" s="13">
-        <v>15</v>
-      </c>
-      <c r="T54" s="13">
-        <v>16</v>
-      </c>
-      <c r="U54" s="13">
-        <v>17</v>
-      </c>
-      <c r="V54" s="13">
-        <v>18</v>
-      </c>
-      <c r="W54" s="13">
-        <v>19</v>
-      </c>
-      <c r="X54" s="13">
-        <v>20</v>
-      </c>
-      <c r="Y54" s="13">
-        <v>21</v>
-      </c>
-      <c r="Z54" s="13">
-        <v>22</v>
-      </c>
-      <c r="AA54" s="13">
-        <v>23</v>
-      </c>
-      <c r="AB54" s="13">
-        <v>24</v>
-      </c>
-      <c r="AC54" s="13">
-        <v>25</v>
-      </c>
-      <c r="AD54" s="13">
-        <v>26</v>
-      </c>
-      <c r="AE54" s="13">
-        <v>27</v>
-      </c>
-      <c r="AF54" s="13">
-        <v>28</v>
-      </c>
-      <c r="AG54" s="13">
-        <v>29</v>
-      </c>
-      <c r="AH54" s="13">
-        <v>30</v>
-      </c>
-      <c r="AI54" s="14">
-        <v>31</v>
-      </c>
-      <c r="AJ54" s="19">
-        <v>1</v>
-      </c>
-      <c r="AK54" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL54" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:39">
-      <c r="A55" s="22">
-        <v>1</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="48">
-        <v>7334</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="L55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="M55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="N55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="O55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="P55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="R55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="S55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="T55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="U55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="V55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="W55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="X55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ55" s="42">
-        <f t="shared" ref="AJ55:AJ57" si="6">COUNTIF(E55:AI55,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AK55" s="43">
-        <f t="shared" ref="AK55:AK57" si="7">COUNTIF(E55:AI55,"тр")</f>
-        <v>31</v>
-      </c>
-      <c r="AL55" s="44">
-        <f t="shared" ref="AL55:AL57" si="8">COUNTIF(E55:AI55,"бв")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:39">
-      <c r="A56" s="25">
-        <v>2</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="32">
-        <v>176</v>
-      </c>
-      <c r="D56" s="49">
-        <v>6172</v>
-      </c>
-      <c r="E56" s="17">
-        <v>1</v>
-      </c>
-      <c r="F56" s="6">
-        <v>1</v>
-      </c>
-      <c r="G56" s="6">
-        <v>1</v>
-      </c>
-      <c r="H56" s="6">
-        <v>1</v>
-      </c>
-      <c r="I56" s="6">
-        <v>1</v>
-      </c>
-      <c r="J56" s="6">
-        <v>1</v>
-      </c>
-      <c r="K56" s="6">
-        <v>1</v>
-      </c>
-      <c r="L56" s="6">
-        <v>1</v>
-      </c>
-      <c r="M56" s="6">
-        <v>1</v>
-      </c>
-      <c r="N56" s="6">
-        <v>1</v>
-      </c>
-      <c r="O56" s="6">
-        <v>1</v>
-      </c>
-      <c r="P56" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="6"/>
-      <c r="AA56" s="6"/>
-      <c r="AB56" s="6"/>
-      <c r="AC56" s="6"/>
-      <c r="AD56" s="6"/>
-      <c r="AE56" s="6"/>
-      <c r="AF56" s="6"/>
-      <c r="AG56" s="6"/>
-      <c r="AH56" s="6"/>
-      <c r="AI56" s="9"/>
-      <c r="AJ56" s="36">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="AK56" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AL56" s="38">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM56" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:39" ht="16.5" thickBot="1">
-      <c r="A57" s="28">
-        <v>3</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="35">
-        <v>177</v>
-      </c>
-      <c r="D57" s="50">
-        <v>6173</v>
-      </c>
-      <c r="E57" s="18">
-        <v>1</v>
-      </c>
-      <c r="F57" s="7">
-        <v>1</v>
-      </c>
-      <c r="G57" s="7">
-        <v>1</v>
-      </c>
-      <c r="H57" s="7">
-        <v>1</v>
-      </c>
-      <c r="I57" s="7">
-        <v>1</v>
-      </c>
-      <c r="J57" s="7">
-        <v>1</v>
-      </c>
-      <c r="K57" s="7">
-        <v>1</v>
-      </c>
-      <c r="L57" s="7">
-        <v>1</v>
-      </c>
-      <c r="M57" s="7">
-        <v>1</v>
-      </c>
-      <c r="N57" s="7">
-        <v>1</v>
-      </c>
-      <c r="O57" s="7">
-        <v>1</v>
-      </c>
-      <c r="P57" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
-      <c r="AC57" s="7"/>
-      <c r="AD57" s="7"/>
-      <c r="AE57" s="7"/>
-      <c r="AF57" s="7"/>
-      <c r="AG57" s="7"/>
-      <c r="AH57" s="7"/>
-      <c r="AI57" s="10"/>
-      <c r="AJ57" s="45">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="AK57" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AL57" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:39">
-      <c r="B58" s="1"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="E2:AM49">
-    <filterColumn colId="9"/>
-    <filterColumn colId="11"/>
-    <filterColumn colId="34"/>
-  </autoFilter>
-  <mergeCells count="2">
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A52:AL52"/>
-  </mergeCells>
-  <conditionalFormatting sqref="E4:AI49">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
-      <formula>LEN(TRIM(E4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55:AI57">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
-      <formula>LEN(TRIM(E55))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="1.7716535433070868" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>